--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -40634,7 +40634,7 @@
       </c>
       <c r="G1223" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -40669,7 +40669,7 @@
       </c>
       <c r="G1224" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -40704,7 +40704,7 @@
       </c>
       <c r="G1225" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -40739,7 +40739,7 @@
       </c>
       <c r="G1226" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -40774,7 +40774,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -40809,7 +40809,7 @@
       </c>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -40844,7 +40844,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -40879,7 +40879,7 @@
       </c>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -40914,7 +40914,7 @@
       </c>
       <c r="G1231" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -40949,7 +40949,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -40984,7 +40984,7 @@
       </c>
       <c r="G1233" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41019,7 +41019,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41054,7 +41054,7 @@
       </c>
       <c r="G1235" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41089,7 +41089,7 @@
       </c>
       <c r="G1236" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41124,7 +41124,7 @@
       </c>
       <c r="G1237" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41159,7 +41159,7 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41194,7 +41194,7 @@
       </c>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41229,7 +41229,7 @@
       </c>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41264,7 +41264,7 @@
       </c>
       <c r="G1241" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41299,7 +41299,7 @@
       </c>
       <c r="G1242" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41334,7 +41334,7 @@
       </c>
       <c r="G1243" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41369,7 +41369,7 @@
       </c>
       <c r="G1244" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41404,7 +41404,7 @@
       </c>
       <c r="G1245" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41439,7 +41439,7 @@
       </c>
       <c r="G1246" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41474,7 +41474,7 @@
       </c>
       <c r="G1247" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41509,7 +41509,7 @@
       </c>
       <c r="G1248" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41544,7 +41544,7 @@
       </c>
       <c r="G1249" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41579,7 +41579,7 @@
       </c>
       <c r="G1250" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41614,7 +41614,7 @@
       </c>
       <c r="G1251" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41649,7 +41649,7 @@
       </c>
       <c r="G1252" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41684,7 +41684,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41719,7 +41719,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41754,7 +41754,7 @@
       </c>
       <c r="G1255" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41789,7 +41789,7 @@
       </c>
       <c r="G1256" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41824,7 +41824,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41859,7 +41859,7 @@
       </c>
       <c r="G1258" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41894,7 +41894,7 @@
       </c>
       <c r="G1259" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41929,7 +41929,7 @@
       </c>
       <c r="G1260" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41964,7 +41964,7 @@
       </c>
       <c r="G1261" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -41999,7 +41999,7 @@
       </c>
       <c r="G1262" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42034,7 +42034,7 @@
       </c>
       <c r="G1263" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42069,7 +42069,7 @@
       </c>
       <c r="G1264" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42104,7 +42104,7 @@
       </c>
       <c r="G1265" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42139,7 +42139,7 @@
       </c>
       <c r="G1266" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42174,7 +42174,7 @@
       </c>
       <c r="G1267" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42209,7 +42209,7 @@
       </c>
       <c r="G1268" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42244,7 +42244,7 @@
       </c>
       <c r="G1269" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42279,7 +42279,7 @@
       </c>
       <c r="G1270" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42314,7 +42314,7 @@
       </c>
       <c r="G1271" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42349,7 +42349,7 @@
       </c>
       <c r="G1272" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42384,7 +42384,7 @@
       </c>
       <c r="G1273" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42419,7 +42419,7 @@
       </c>
       <c r="G1274" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42454,7 +42454,7 @@
       </c>
       <c r="G1275" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42489,7 +42489,7 @@
       </c>
       <c r="G1276" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42524,7 +42524,7 @@
       </c>
       <c r="G1277" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42559,7 +42559,7 @@
       </c>
       <c r="G1278" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42594,7 +42594,7 @@
       </c>
       <c r="G1279" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42629,7 +42629,7 @@
       </c>
       <c r="G1280" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42664,7 +42664,7 @@
       </c>
       <c r="G1281" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42699,7 +42699,7 @@
       </c>
       <c r="G1282" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42734,7 +42734,7 @@
       </c>
       <c r="G1283" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42769,7 +42769,7 @@
       </c>
       <c r="G1284" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42804,7 +42804,7 @@
       </c>
       <c r="G1285" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42839,7 +42839,7 @@
       </c>
       <c r="G1286" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42874,7 +42874,7 @@
       </c>
       <c r="G1287" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42909,7 +42909,7 @@
       </c>
       <c r="G1288" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42944,7 +42944,7 @@
       </c>
       <c r="G1289" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -42979,7 +42979,7 @@
       </c>
       <c r="G1290" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43014,7 +43014,7 @@
       </c>
       <c r="G1291" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43049,7 +43049,7 @@
       </c>
       <c r="G1292" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43084,7 +43084,7 @@
       </c>
       <c r="G1293" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43119,7 +43119,7 @@
       </c>
       <c r="G1294" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43154,7 +43154,7 @@
       </c>
       <c r="G1295" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43189,7 +43189,7 @@
       </c>
       <c r="G1296" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43224,7 +43224,7 @@
       </c>
       <c r="G1297" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43259,7 +43259,7 @@
       </c>
       <c r="G1298" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43294,7 +43294,7 @@
       </c>
       <c r="G1299" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43329,7 +43329,7 @@
       </c>
       <c r="G1300" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43364,7 +43364,7 @@
       </c>
       <c r="G1301" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43399,7 +43399,7 @@
       </c>
       <c r="G1302" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43434,7 +43434,7 @@
       </c>
       <c r="G1303" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43469,7 +43469,7 @@
       </c>
       <c r="G1304" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43504,7 +43504,7 @@
       </c>
       <c r="G1305" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43539,7 +43539,7 @@
       </c>
       <c r="G1306" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43574,7 +43574,7 @@
       </c>
       <c r="G1307" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43609,7 +43609,7 @@
       </c>
       <c r="G1308" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43644,7 +43644,7 @@
       </c>
       <c r="G1309" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43679,7 +43679,7 @@
       </c>
       <c r="G1310" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43714,7 +43714,7 @@
       </c>
       <c r="G1311" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43749,7 +43749,7 @@
       </c>
       <c r="G1312" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43784,7 +43784,7 @@
       </c>
       <c r="G1313" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43819,7 +43819,7 @@
       </c>
       <c r="G1314" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43854,7 +43854,7 @@
       </c>
       <c r="G1315" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43889,7 +43889,7 @@
       </c>
       <c r="G1316" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -43924,7 +43924,7 @@
       </c>
       <c r="G1317" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>

--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -40634,7 +40634,7 @@
       </c>
       <c r="G1223" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -40669,7 +40669,7 @@
       </c>
       <c r="G1224" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -40704,7 +40704,7 @@
       </c>
       <c r="G1225" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -40739,7 +40739,7 @@
       </c>
       <c r="G1226" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -40774,7 +40774,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -40809,7 +40809,7 @@
       </c>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -40844,7 +40844,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -40879,7 +40879,7 @@
       </c>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -40914,7 +40914,7 @@
       </c>
       <c r="G1231" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -40949,7 +40949,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -40984,7 +40984,7 @@
       </c>
       <c r="G1233" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41019,7 +41019,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41054,7 +41054,7 @@
       </c>
       <c r="G1235" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41089,7 +41089,7 @@
       </c>
       <c r="G1236" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41124,7 +41124,7 @@
       </c>
       <c r="G1237" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41159,7 +41159,7 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41194,7 +41194,7 @@
       </c>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41229,7 +41229,7 @@
       </c>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41264,7 +41264,7 @@
       </c>
       <c r="G1241" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41299,7 +41299,7 @@
       </c>
       <c r="G1242" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41334,7 +41334,7 @@
       </c>
       <c r="G1243" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41369,7 +41369,7 @@
       </c>
       <c r="G1244" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41404,7 +41404,7 @@
       </c>
       <c r="G1245" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41439,7 +41439,7 @@
       </c>
       <c r="G1246" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41474,7 +41474,7 @@
       </c>
       <c r="G1247" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41509,7 +41509,7 @@
       </c>
       <c r="G1248" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41544,7 +41544,7 @@
       </c>
       <c r="G1249" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41579,7 +41579,7 @@
       </c>
       <c r="G1250" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41614,7 +41614,7 @@
       </c>
       <c r="G1251" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41649,7 +41649,7 @@
       </c>
       <c r="G1252" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41684,7 +41684,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41719,7 +41719,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41754,7 +41754,7 @@
       </c>
       <c r="G1255" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41789,7 +41789,7 @@
       </c>
       <c r="G1256" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41824,7 +41824,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41859,7 +41859,7 @@
       </c>
       <c r="G1258" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41894,7 +41894,7 @@
       </c>
       <c r="G1259" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41929,7 +41929,7 @@
       </c>
       <c r="G1260" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41964,7 +41964,7 @@
       </c>
       <c r="G1261" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -41999,7 +41999,7 @@
       </c>
       <c r="G1262" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42034,7 +42034,7 @@
       </c>
       <c r="G1263" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42069,7 +42069,7 @@
       </c>
       <c r="G1264" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42104,7 +42104,7 @@
       </c>
       <c r="G1265" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42139,7 +42139,7 @@
       </c>
       <c r="G1266" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42174,7 +42174,7 @@
       </c>
       <c r="G1267" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42209,7 +42209,7 @@
       </c>
       <c r="G1268" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42244,7 +42244,7 @@
       </c>
       <c r="G1269" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42279,7 +42279,7 @@
       </c>
       <c r="G1270" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42314,7 +42314,7 @@
       </c>
       <c r="G1271" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42349,7 +42349,7 @@
       </c>
       <c r="G1272" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42384,7 +42384,7 @@
       </c>
       <c r="G1273" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42419,7 +42419,7 @@
       </c>
       <c r="G1274" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42454,7 +42454,7 @@
       </c>
       <c r="G1275" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42489,7 +42489,7 @@
       </c>
       <c r="G1276" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42524,7 +42524,7 @@
       </c>
       <c r="G1277" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42559,7 +42559,7 @@
       </c>
       <c r="G1278" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42594,7 +42594,7 @@
       </c>
       <c r="G1279" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42629,7 +42629,7 @@
       </c>
       <c r="G1280" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42664,7 +42664,7 @@
       </c>
       <c r="G1281" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42699,7 +42699,7 @@
       </c>
       <c r="G1282" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42734,7 +42734,7 @@
       </c>
       <c r="G1283" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42769,7 +42769,7 @@
       </c>
       <c r="G1284" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42804,7 +42804,7 @@
       </c>
       <c r="G1285" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42839,7 +42839,7 @@
       </c>
       <c r="G1286" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42874,7 +42874,7 @@
       </c>
       <c r="G1287" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42909,7 +42909,7 @@
       </c>
       <c r="G1288" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42944,7 +42944,7 @@
       </c>
       <c r="G1289" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -42979,7 +42979,7 @@
       </c>
       <c r="G1290" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43014,7 +43014,7 @@
       </c>
       <c r="G1291" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43049,7 +43049,7 @@
       </c>
       <c r="G1292" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43084,7 +43084,7 @@
       </c>
       <c r="G1293" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43119,7 +43119,7 @@
       </c>
       <c r="G1294" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43154,7 +43154,7 @@
       </c>
       <c r="G1295" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43189,7 +43189,7 @@
       </c>
       <c r="G1296" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43224,7 +43224,7 @@
       </c>
       <c r="G1297" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43259,7 +43259,7 @@
       </c>
       <c r="G1298" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43294,7 +43294,7 @@
       </c>
       <c r="G1299" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43329,7 +43329,7 @@
       </c>
       <c r="G1300" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43364,7 +43364,7 @@
       </c>
       <c r="G1301" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43399,7 +43399,7 @@
       </c>
       <c r="G1302" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43434,7 +43434,7 @@
       </c>
       <c r="G1303" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43469,7 +43469,7 @@
       </c>
       <c r="G1304" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43504,7 +43504,7 @@
       </c>
       <c r="G1305" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43539,7 +43539,7 @@
       </c>
       <c r="G1306" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43574,7 +43574,7 @@
       </c>
       <c r="G1307" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43609,7 +43609,7 @@
       </c>
       <c r="G1308" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43644,7 +43644,7 @@
       </c>
       <c r="G1309" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43679,7 +43679,7 @@
       </c>
       <c r="G1310" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43714,7 +43714,7 @@
       </c>
       <c r="G1311" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43749,7 +43749,7 @@
       </c>
       <c r="G1312" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43784,7 +43784,7 @@
       </c>
       <c r="G1313" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43819,7 +43819,7 @@
       </c>
       <c r="G1314" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43854,7 +43854,7 @@
       </c>
       <c r="G1315" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43889,7 +43889,7 @@
       </c>
       <c r="G1316" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43924,7 +43924,7 @@
       </c>
       <c r="G1317" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43959,7 +43959,7 @@
       </c>
       <c r="G1318" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -43994,7 +43994,7 @@
       </c>
       <c r="G1319" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44029,7 +44029,7 @@
       </c>
       <c r="G1320" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44064,7 +44064,7 @@
       </c>
       <c r="G1321" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44099,7 +44099,7 @@
       </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44134,7 +44134,7 @@
       </c>
       <c r="G1323" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44169,7 +44169,7 @@
       </c>
       <c r="G1324" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44204,7 +44204,7 @@
       </c>
       <c r="G1325" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44239,7 +44239,7 @@
       </c>
       <c r="G1326" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44274,7 +44274,7 @@
       </c>
       <c r="G1327" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44309,7 +44309,7 @@
       </c>
       <c r="G1328" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44344,7 +44344,7 @@
       </c>
       <c r="G1329" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44379,7 +44379,7 @@
       </c>
       <c r="G1330" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44414,7 +44414,7 @@
       </c>
       <c r="G1331" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44449,7 +44449,7 @@
       </c>
       <c r="G1332" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44484,7 +44484,7 @@
       </c>
       <c r="G1333" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44519,7 +44519,7 @@
       </c>
       <c r="G1334" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44554,7 +44554,7 @@
       </c>
       <c r="G1335" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44589,7 +44589,7 @@
       </c>
       <c r="G1336" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44624,7 +44624,7 @@
       </c>
       <c r="G1337" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44659,7 +44659,7 @@
       </c>
       <c r="G1338" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44694,7 +44694,7 @@
       </c>
       <c r="G1339" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44729,7 +44729,7 @@
       </c>
       <c r="G1340" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44764,7 +44764,7 @@
       </c>
       <c r="G1341" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44799,7 +44799,7 @@
       </c>
       <c r="G1342" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44834,7 +44834,7 @@
       </c>
       <c r="G1343" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44869,7 +44869,7 @@
       </c>
       <c r="G1344" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44904,7 +44904,7 @@
       </c>
       <c r="G1345" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44939,7 +44939,7 @@
       </c>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -44974,7 +44974,7 @@
       </c>
       <c r="G1347" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45009,7 +45009,7 @@
       </c>
       <c r="G1348" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45044,7 +45044,7 @@
       </c>
       <c r="G1349" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45079,7 +45079,7 @@
       </c>
       <c r="G1350" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45114,7 +45114,7 @@
       </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45149,7 +45149,7 @@
       </c>
       <c r="G1352" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45184,7 +45184,7 @@
       </c>
       <c r="G1353" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45219,7 +45219,7 @@
       </c>
       <c r="G1354" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45254,7 +45254,7 @@
       </c>
       <c r="G1355" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45289,7 +45289,7 @@
       </c>
       <c r="G1356" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45324,7 +45324,7 @@
       </c>
       <c r="G1357" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45359,7 +45359,7 @@
       </c>
       <c r="G1358" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45394,7 +45394,7 @@
       </c>
       <c r="G1359" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45429,7 +45429,7 @@
       </c>
       <c r="G1360" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45464,7 +45464,7 @@
       </c>
       <c r="G1361" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45499,7 +45499,7 @@
       </c>
       <c r="G1362" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45534,7 +45534,7 @@
       </c>
       <c r="G1363" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45569,7 +45569,7 @@
       </c>
       <c r="G1364" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45604,7 +45604,7 @@
       </c>
       <c r="G1365" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45639,7 +45639,7 @@
       </c>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45674,7 +45674,7 @@
       </c>
       <c r="G1367" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45709,7 +45709,7 @@
       </c>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45744,7 +45744,7 @@
       </c>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45779,7 +45779,7 @@
       </c>
       <c r="G1370" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45814,7 +45814,7 @@
       </c>
       <c r="G1371" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45849,7 +45849,7 @@
       </c>
       <c r="G1372" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45884,7 +45884,7 @@
       </c>
       <c r="G1373" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45919,7 +45919,7 @@
       </c>
       <c r="G1374" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45954,7 +45954,7 @@
       </c>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -45989,7 +45989,7 @@
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46024,7 +46024,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46059,7 +46059,7 @@
       </c>
       <c r="G1378" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46094,7 +46094,7 @@
       </c>
       <c r="G1379" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46129,7 +46129,7 @@
       </c>
       <c r="G1380" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46164,7 +46164,7 @@
       </c>
       <c r="G1381" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46199,7 +46199,7 @@
       </c>
       <c r="G1382" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46234,7 +46234,7 @@
       </c>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46269,7 +46269,7 @@
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46304,7 +46304,7 @@
       </c>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46339,7 +46339,7 @@
       </c>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46374,7 +46374,7 @@
       </c>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46409,7 +46409,7 @@
       </c>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46444,7 +46444,7 @@
       </c>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46479,7 +46479,7 @@
       </c>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46514,7 +46514,7 @@
       </c>
       <c r="G1391" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46549,7 +46549,7 @@
       </c>
       <c r="G1392" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46584,7 +46584,7 @@
       </c>
       <c r="G1393" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46619,7 +46619,7 @@
       </c>
       <c r="G1394" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46654,7 +46654,7 @@
       </c>
       <c r="G1395" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46689,7 +46689,7 @@
       </c>
       <c r="G1396" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46724,7 +46724,7 @@
       </c>
       <c r="G1397" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46759,7 +46759,7 @@
       </c>
       <c r="G1398" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46794,7 +46794,7 @@
       </c>
       <c r="G1399" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46829,7 +46829,7 @@
       </c>
       <c r="G1400" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46864,7 +46864,7 @@
       </c>
       <c r="G1401" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46899,7 +46899,7 @@
       </c>
       <c r="G1402" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46934,7 +46934,7 @@
       </c>
       <c r="G1403" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -46969,7 +46969,7 @@
       </c>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47004,7 +47004,7 @@
       </c>
       <c r="G1405" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47039,7 +47039,7 @@
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47074,7 +47074,7 @@
       </c>
       <c r="G1407" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47109,7 +47109,7 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47144,7 +47144,7 @@
       </c>
       <c r="G1409" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47179,7 +47179,7 @@
       </c>
       <c r="G1410" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47214,7 +47214,7 @@
       </c>
       <c r="G1411" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47249,7 +47249,7 @@
       </c>
       <c r="G1412" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47284,7 +47284,7 @@
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47319,7 +47319,7 @@
       </c>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47354,7 +47354,7 @@
       </c>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47389,7 +47389,7 @@
       </c>
       <c r="G1416" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47424,7 +47424,7 @@
       </c>
       <c r="G1417" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47459,7 +47459,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47494,7 +47494,7 @@
       </c>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47529,7 +47529,7 @@
       </c>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47564,7 +47564,7 @@
       </c>
       <c r="G1421" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47599,7 +47599,7 @@
       </c>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47634,7 +47634,7 @@
       </c>
       <c r="G1423" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47669,7 +47669,7 @@
       </c>
       <c r="G1424" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47704,7 +47704,7 @@
       </c>
       <c r="G1425" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47739,7 +47739,7 @@
       </c>
       <c r="G1426" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47774,7 +47774,7 @@
       </c>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47809,7 +47809,7 @@
       </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47844,7 +47844,7 @@
       </c>
       <c r="G1429" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47879,7 +47879,7 @@
       </c>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47914,7 +47914,7 @@
       </c>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47949,7 +47949,7 @@
       </c>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -47984,7 +47984,7 @@
       </c>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48019,7 +48019,7 @@
       </c>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48054,7 +48054,7 @@
       </c>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48089,7 +48089,7 @@
       </c>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48124,7 +48124,7 @@
       </c>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48159,7 +48159,7 @@
       </c>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48194,7 +48194,7 @@
       </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48229,7 +48229,7 @@
       </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48264,7 +48264,7 @@
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48299,7 +48299,7 @@
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48334,7 +48334,7 @@
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48369,7 +48369,7 @@
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48404,7 +48404,7 @@
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48439,7 +48439,7 @@
       </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48474,7 +48474,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48509,7 +48509,7 @@
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48544,7 +48544,7 @@
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48579,7 +48579,7 @@
       </c>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48614,7 +48614,7 @@
       </c>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48649,7 +48649,7 @@
       </c>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48684,7 +48684,7 @@
       </c>
       <c r="G1453" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48719,7 +48719,7 @@
       </c>
       <c r="G1454" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48754,7 +48754,7 @@
       </c>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48789,7 +48789,7 @@
       </c>
       <c r="G1456" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48824,7 +48824,7 @@
       </c>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48859,7 +48859,7 @@
       </c>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48894,7 +48894,7 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48929,7 +48929,7 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48964,7 +48964,7 @@
       </c>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -48999,7 +48999,7 @@
       </c>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49034,7 +49034,7 @@
       </c>
       <c r="G1463" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49069,7 +49069,7 @@
       </c>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49104,7 +49104,7 @@
       </c>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49139,7 +49139,7 @@
       </c>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49174,7 +49174,7 @@
       </c>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49209,7 +49209,7 @@
       </c>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49244,7 +49244,7 @@
       </c>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49279,7 +49279,7 @@
       </c>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49314,7 +49314,7 @@
       </c>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49349,7 +49349,7 @@
       </c>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49384,7 +49384,7 @@
       </c>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49419,7 +49419,7 @@
       </c>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49454,7 +49454,7 @@
       </c>
       <c r="G1475" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49489,7 +49489,7 @@
       </c>
       <c r="G1476" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49524,7 +49524,7 @@
       </c>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49559,7 +49559,7 @@
       </c>
       <c r="G1478" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49594,7 +49594,7 @@
       </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49629,7 +49629,7 @@
       </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49664,7 +49664,7 @@
       </c>
       <c r="G1481" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49699,7 +49699,7 @@
       </c>
       <c r="G1482" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49734,7 +49734,7 @@
       </c>
       <c r="G1483" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49769,7 +49769,7 @@
       </c>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49804,7 +49804,7 @@
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49839,7 +49839,7 @@
       </c>
       <c r="G1486" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49874,7 +49874,7 @@
       </c>
       <c r="G1487" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49909,7 +49909,7 @@
       </c>
       <c r="G1488" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49944,7 +49944,7 @@
       </c>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -49979,7 +49979,7 @@
       </c>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50014,7 +50014,7 @@
       </c>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50049,7 +50049,7 @@
       </c>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50084,7 +50084,7 @@
       </c>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50119,7 +50119,7 @@
       </c>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50154,7 +50154,7 @@
       </c>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50189,7 +50189,7 @@
       </c>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50224,7 +50224,7 @@
       </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50259,7 +50259,7 @@
       </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50294,7 +50294,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50329,7 +50329,7 @@
       </c>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50364,7 +50364,7 @@
       </c>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50399,7 +50399,7 @@
       </c>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50434,7 +50434,7 @@
       </c>
       <c r="G1503" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50469,7 +50469,7 @@
       </c>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50504,7 +50504,7 @@
       </c>
       <c r="G1505" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50539,7 +50539,7 @@
       </c>
       <c r="G1506" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50574,7 +50574,7 @@
       </c>
       <c r="G1507" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50609,7 +50609,7 @@
       </c>
       <c r="G1508" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50644,7 +50644,7 @@
       </c>
       <c r="G1509" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50679,7 +50679,7 @@
       </c>
       <c r="G1510" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50714,7 +50714,7 @@
       </c>
       <c r="G1511" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50749,7 +50749,7 @@
       </c>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50784,7 +50784,7 @@
       </c>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50819,7 +50819,7 @@
       </c>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50854,7 +50854,7 @@
       </c>
       <c r="G1515" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50889,7 +50889,7 @@
       </c>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50924,7 +50924,7 @@
       </c>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50959,7 +50959,7 @@
       </c>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -50994,7 +50994,7 @@
       </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51029,7 +51029,7 @@
       </c>
       <c r="G1520" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51064,7 +51064,7 @@
       </c>
       <c r="G1521" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51099,7 +51099,7 @@
       </c>
       <c r="G1522" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51134,7 +51134,7 @@
       </c>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51169,7 +51169,7 @@
       </c>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51204,7 +51204,7 @@
       </c>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51239,7 +51239,7 @@
       </c>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51274,7 +51274,7 @@
       </c>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51309,7 +51309,7 @@
       </c>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51344,7 +51344,7 @@
       </c>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51379,7 +51379,7 @@
       </c>
       <c r="G1530" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51414,7 +51414,7 @@
       </c>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51449,7 +51449,7 @@
       </c>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51484,7 +51484,7 @@
       </c>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51519,7 +51519,7 @@
       </c>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51554,7 +51554,7 @@
       </c>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51589,7 +51589,7 @@
       </c>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51624,7 +51624,7 @@
       </c>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51659,7 +51659,7 @@
       </c>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51694,7 +51694,7 @@
       </c>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51729,7 +51729,7 @@
       </c>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51764,7 +51764,7 @@
       </c>
       <c r="G1541" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51799,7 +51799,7 @@
       </c>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51834,7 +51834,7 @@
       </c>
       <c r="G1543" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51869,7 +51869,7 @@
       </c>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51904,7 +51904,7 @@
       </c>
       <c r="G1545" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51939,7 +51939,7 @@
       </c>
       <c r="G1546" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -51974,7 +51974,7 @@
       </c>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52009,7 +52009,7 @@
       </c>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="G1549" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52079,7 +52079,7 @@
       </c>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52114,7 +52114,7 @@
       </c>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52149,7 +52149,7 @@
       </c>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52184,7 +52184,7 @@
       </c>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52219,7 +52219,7 @@
       </c>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52254,7 +52254,7 @@
       </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52289,7 +52289,7 @@
       </c>
       <c r="G1556" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52324,7 +52324,7 @@
       </c>
       <c r="G1557" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52359,7 +52359,7 @@
       </c>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52394,7 +52394,7 @@
       </c>
       <c r="G1559" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52429,7 +52429,7 @@
       </c>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52464,7 +52464,7 @@
       </c>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52499,7 +52499,7 @@
       </c>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52534,7 +52534,7 @@
       </c>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52569,7 +52569,7 @@
       </c>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52604,7 +52604,7 @@
       </c>
       <c r="G1565" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52639,7 +52639,7 @@
       </c>
       <c r="G1566" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52674,7 +52674,7 @@
       </c>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52709,7 +52709,7 @@
       </c>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52744,7 +52744,7 @@
       </c>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52779,7 +52779,7 @@
       </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52814,7 +52814,7 @@
       </c>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52849,7 +52849,7 @@
       </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52884,7 +52884,7 @@
       </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52919,7 +52919,7 @@
       </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52954,7 +52954,7 @@
       </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -52989,7 +52989,7 @@
       </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53024,7 +53024,7 @@
       </c>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53059,7 +53059,7 @@
       </c>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53094,7 +53094,7 @@
       </c>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53129,7 +53129,7 @@
       </c>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53164,7 +53164,7 @@
       </c>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53199,7 +53199,7 @@
       </c>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53234,7 +53234,7 @@
       </c>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53269,7 +53269,7 @@
       </c>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53304,7 +53304,7 @@
       </c>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53339,7 +53339,7 @@
       </c>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53374,7 +53374,7 @@
       </c>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53409,7 +53409,7 @@
       </c>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53444,7 +53444,7 @@
       </c>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53479,7 +53479,7 @@
       </c>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53514,7 +53514,7 @@
       </c>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53549,7 +53549,7 @@
       </c>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53584,7 +53584,7 @@
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53619,7 +53619,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53654,7 +53654,7 @@
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53689,7 +53689,7 @@
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53724,7 +53724,7 @@
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53759,7 +53759,7 @@
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53794,7 +53794,7 @@
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53829,7 +53829,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53864,7 +53864,7 @@
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53899,7 +53899,7 @@
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53934,7 +53934,7 @@
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -53969,7 +53969,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -54004,7 +54004,7 @@
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -54039,7 +54039,7 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -54074,7 +54074,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -54109,7 +54109,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -54144,7 +54144,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -54179,7 +54179,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -54214,7 +54214,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -54249,7 +54249,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -54284,7 +54284,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -54319,7 +54319,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -54354,7 +54354,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -54389,7 +54389,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>

--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -56914,7 +56914,7 @@
       </c>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -56949,7 +56949,7 @@
       </c>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -56984,7 +56984,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57019,7 +57019,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57054,7 +57054,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57089,7 +57089,7 @@
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57124,7 +57124,7 @@
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57159,7 +57159,7 @@
       </c>
       <c r="G1670" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57194,7 +57194,7 @@
       </c>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57229,7 +57229,7 @@
       </c>
       <c r="G1672" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57264,7 +57264,7 @@
       </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57299,7 +57299,7 @@
       </c>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57334,7 +57334,7 @@
       </c>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57369,7 +57369,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57404,7 +57404,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57439,7 +57439,7 @@
       </c>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57474,7 +57474,7 @@
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57509,7 +57509,7 @@
       </c>
       <c r="G1680" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57544,7 +57544,7 @@
       </c>
       <c r="G1681" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57579,7 +57579,7 @@
       </c>
       <c r="G1682" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57614,7 +57614,7 @@
       </c>
       <c r="G1683" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57649,7 +57649,7 @@
       </c>
       <c r="G1684" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57684,7 +57684,7 @@
       </c>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57719,7 +57719,7 @@
       </c>
       <c r="G1686" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57754,7 +57754,7 @@
       </c>
       <c r="G1687" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57789,7 +57789,7 @@
       </c>
       <c r="G1688" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57824,7 +57824,7 @@
       </c>
       <c r="G1689" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57859,7 +57859,7 @@
       </c>
       <c r="G1690" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57894,7 +57894,7 @@
       </c>
       <c r="G1691" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57929,7 +57929,7 @@
       </c>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57964,7 +57964,7 @@
       </c>
       <c r="G1693" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -57999,7 +57999,7 @@
       </c>
       <c r="G1694" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58034,7 +58034,7 @@
       </c>
       <c r="G1695" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58069,7 +58069,7 @@
       </c>
       <c r="G1696" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58104,7 +58104,7 @@
       </c>
       <c r="G1697" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58139,7 +58139,7 @@
       </c>
       <c r="G1698" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58174,7 +58174,7 @@
       </c>
       <c r="G1699" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58209,7 +58209,7 @@
       </c>
       <c r="G1700" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58244,7 +58244,7 @@
       </c>
       <c r="G1701" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58279,7 +58279,7 @@
       </c>
       <c r="G1702" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58314,7 +58314,7 @@
       </c>
       <c r="G1703" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58349,7 +58349,7 @@
       </c>
       <c r="G1704" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58384,7 +58384,7 @@
       </c>
       <c r="G1705" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58419,7 +58419,7 @@
       </c>
       <c r="G1706" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58454,7 +58454,7 @@
       </c>
       <c r="G1707" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58489,7 +58489,7 @@
       </c>
       <c r="G1708" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58524,7 +58524,7 @@
       </c>
       <c r="G1709" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58559,7 +58559,7 @@
       </c>
       <c r="G1710" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58594,7 +58594,7 @@
       </c>
       <c r="G1711" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58629,7 +58629,7 @@
       </c>
       <c r="G1712" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58664,7 +58664,7 @@
       </c>
       <c r="G1713" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58699,7 +58699,7 @@
       </c>
       <c r="G1714" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58734,7 +58734,7 @@
       </c>
       <c r="G1715" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58769,7 +58769,7 @@
       </c>
       <c r="G1716" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58804,7 +58804,7 @@
       </c>
       <c r="G1717" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58839,7 +58839,7 @@
       </c>
       <c r="G1718" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58874,7 +58874,7 @@
       </c>
       <c r="G1719" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58909,7 +58909,7 @@
       </c>
       <c r="G1720" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58944,7 +58944,7 @@
       </c>
       <c r="G1721" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -58979,7 +58979,7 @@
       </c>
       <c r="G1722" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59014,7 +59014,7 @@
       </c>
       <c r="G1723" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59049,7 +59049,7 @@
       </c>
       <c r="G1724" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59084,7 +59084,7 @@
       </c>
       <c r="G1725" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59119,7 +59119,7 @@
       </c>
       <c r="G1726" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59154,7 +59154,7 @@
       </c>
       <c r="G1727" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59189,7 +59189,7 @@
       </c>
       <c r="G1728" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59224,7 +59224,7 @@
       </c>
       <c r="G1729" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59259,7 +59259,7 @@
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59294,7 +59294,7 @@
       </c>
       <c r="G1731" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59329,7 +59329,7 @@
       </c>
       <c r="G1732" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59364,7 +59364,7 @@
       </c>
       <c r="G1733" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59399,7 +59399,7 @@
       </c>
       <c r="G1734" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59434,7 +59434,7 @@
       </c>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59469,7 +59469,7 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59504,7 +59504,7 @@
       </c>
       <c r="G1737" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59539,7 +59539,7 @@
       </c>
       <c r="G1738" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59574,7 +59574,7 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59609,7 +59609,7 @@
       </c>
       <c r="G1740" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59644,7 +59644,7 @@
       </c>
       <c r="G1741" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59679,7 +59679,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59714,7 +59714,7 @@
       </c>
       <c r="G1743" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59749,7 +59749,7 @@
       </c>
       <c r="G1744" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59784,7 +59784,7 @@
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59819,7 +59819,7 @@
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59854,7 +59854,7 @@
       </c>
       <c r="G1747" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59889,7 +59889,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59924,7 +59924,7 @@
       </c>
       <c r="G1749" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59959,7 +59959,7 @@
       </c>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -59994,7 +59994,7 @@
       </c>
       <c r="G1751" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60029,7 +60029,7 @@
       </c>
       <c r="G1752" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60064,7 +60064,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60099,7 +60099,7 @@
       </c>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60134,7 +60134,7 @@
       </c>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60169,7 +60169,7 @@
       </c>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60204,7 +60204,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60229,7 +60229,7 @@
       </c>
       <c r="E1758" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1758" t="inlineStr">
@@ -60239,7 +60239,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60264,7 +60264,7 @@
       </c>
       <c r="E1759" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1759" t="inlineStr">
@@ -60274,7 +60274,7 @@
       </c>
       <c r="G1759" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60299,7 +60299,7 @@
       </c>
       <c r="E1760" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1760" t="inlineStr">
@@ -60309,7 +60309,7 @@
       </c>
       <c r="G1760" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60334,7 +60334,7 @@
       </c>
       <c r="E1761" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1761" t="inlineStr">
@@ -60344,7 +60344,7 @@
       </c>
       <c r="G1761" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60369,7 +60369,7 @@
       </c>
       <c r="E1762" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1762" t="inlineStr">
@@ -60379,7 +60379,7 @@
       </c>
       <c r="G1762" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60404,7 +60404,7 @@
       </c>
       <c r="E1763" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1763" t="inlineStr">
@@ -60414,7 +60414,7 @@
       </c>
       <c r="G1763" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60439,7 +60439,7 @@
       </c>
       <c r="E1764" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1764" t="inlineStr">
@@ -60449,7 +60449,7 @@
       </c>
       <c r="G1764" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60474,7 +60474,7 @@
       </c>
       <c r="E1765" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1765" t="inlineStr">
@@ -60484,7 +60484,7 @@
       </c>
       <c r="G1765" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60509,7 +60509,7 @@
       </c>
       <c r="E1766" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1766" t="inlineStr">
@@ -60519,7 +60519,7 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60544,7 +60544,7 @@
       </c>
       <c r="E1767" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1767" t="inlineStr">
@@ -60554,7 +60554,7 @@
       </c>
       <c r="G1767" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60579,7 +60579,7 @@
       </c>
       <c r="E1768" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1768" t="inlineStr">
@@ -60589,7 +60589,7 @@
       </c>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60614,7 +60614,7 @@
       </c>
       <c r="E1769" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1769" t="inlineStr">
@@ -60624,7 +60624,7 @@
       </c>
       <c r="G1769" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60649,7 +60649,7 @@
       </c>
       <c r="E1770" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1770" t="inlineStr">
@@ -60659,7 +60659,7 @@
       </c>
       <c r="G1770" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="E1771" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1771" t="inlineStr">
@@ -60694,7 +60694,7 @@
       </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60719,7 +60719,7 @@
       </c>
       <c r="E1772" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1772" t="inlineStr">
@@ -60729,7 +60729,7 @@
       </c>
       <c r="G1772" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60754,7 +60754,7 @@
       </c>
       <c r="E1773" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1773" t="inlineStr">
@@ -60764,7 +60764,7 @@
       </c>
       <c r="G1773" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60789,7 +60789,7 @@
       </c>
       <c r="E1774" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1774" t="inlineStr">
@@ -60799,7 +60799,7 @@
       </c>
       <c r="G1774" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60824,7 +60824,7 @@
       </c>
       <c r="E1775" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1775" t="inlineStr">
@@ -60834,7 +60834,7 @@
       </c>
       <c r="G1775" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60859,7 +60859,7 @@
       </c>
       <c r="E1776" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1776" t="inlineStr">
@@ -60869,7 +60869,7 @@
       </c>
       <c r="G1776" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60894,7 +60894,7 @@
       </c>
       <c r="E1777" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1777" t="inlineStr">
@@ -60904,7 +60904,7 @@
       </c>
       <c r="G1777" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60929,7 +60929,7 @@
       </c>
       <c r="E1778" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1778" t="inlineStr">
@@ -60939,7 +60939,7 @@
       </c>
       <c r="G1778" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60964,7 +60964,7 @@
       </c>
       <c r="E1779" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1779" t="inlineStr">
@@ -60974,7 +60974,7 @@
       </c>
       <c r="G1779" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -60999,7 +60999,7 @@
       </c>
       <c r="E1780" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1780" t="inlineStr">
@@ -61009,7 +61009,7 @@
       </c>
       <c r="G1780" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61034,7 +61034,7 @@
       </c>
       <c r="E1781" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1781" t="inlineStr">
@@ -61044,7 +61044,7 @@
       </c>
       <c r="G1781" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61069,7 +61069,7 @@
       </c>
       <c r="E1782" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1782" t="inlineStr">
@@ -61079,7 +61079,7 @@
       </c>
       <c r="G1782" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61104,7 +61104,7 @@
       </c>
       <c r="E1783" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1783" t="inlineStr">
@@ -61114,7 +61114,7 @@
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61139,7 +61139,7 @@
       </c>
       <c r="E1784" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1784" t="inlineStr">
@@ -61149,7 +61149,7 @@
       </c>
       <c r="G1784" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61174,7 +61174,7 @@
       </c>
       <c r="E1785" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1785" t="inlineStr">
@@ -61184,7 +61184,7 @@
       </c>
       <c r="G1785" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61209,7 +61209,7 @@
       </c>
       <c r="E1786" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1786" t="inlineStr">
@@ -61219,7 +61219,7 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61254,7 +61254,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61289,7 +61289,7 @@
       </c>
       <c r="G1788" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61324,7 +61324,7 @@
       </c>
       <c r="G1789" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61359,7 +61359,7 @@
       </c>
       <c r="G1790" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61394,7 +61394,7 @@
       </c>
       <c r="G1791" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61429,7 +61429,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61464,7 +61464,7 @@
       </c>
       <c r="G1793" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61499,7 +61499,7 @@
       </c>
       <c r="G1794" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61534,7 +61534,7 @@
       </c>
       <c r="G1795" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61569,7 +61569,7 @@
       </c>
       <c r="G1796" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61604,7 +61604,7 @@
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61639,7 +61639,7 @@
       </c>
       <c r="G1798" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61674,7 +61674,7 @@
       </c>
       <c r="G1799" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61709,7 +61709,7 @@
       </c>
       <c r="G1800" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61744,7 +61744,7 @@
       </c>
       <c r="G1801" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61779,7 +61779,7 @@
       </c>
       <c r="G1802" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61814,7 +61814,7 @@
       </c>
       <c r="G1803" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61849,7 +61849,7 @@
       </c>
       <c r="G1804" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61884,7 +61884,7 @@
       </c>
       <c r="G1805" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61919,7 +61919,7 @@
       </c>
       <c r="G1806" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61954,7 +61954,7 @@
       </c>
       <c r="G1807" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -61989,7 +61989,7 @@
       </c>
       <c r="G1808" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62014,7 +62014,7 @@
       </c>
       <c r="E1809" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1809" t="inlineStr">
@@ -62024,7 +62024,7 @@
       </c>
       <c r="G1809" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62049,7 +62049,7 @@
       </c>
       <c r="E1810" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1810" t="inlineStr">
@@ -62059,7 +62059,7 @@
       </c>
       <c r="G1810" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62084,7 +62084,7 @@
       </c>
       <c r="E1811" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1811" t="inlineStr">
@@ -62094,7 +62094,7 @@
       </c>
       <c r="G1811" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62119,7 +62119,7 @@
       </c>
       <c r="E1812" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1812" t="inlineStr">
@@ -62129,7 +62129,7 @@
       </c>
       <c r="G1812" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62154,7 +62154,7 @@
       </c>
       <c r="E1813" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1813" t="inlineStr">
@@ -62164,7 +62164,7 @@
       </c>
       <c r="G1813" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62189,7 +62189,7 @@
       </c>
       <c r="E1814" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1814" t="inlineStr">
@@ -62199,7 +62199,7 @@
       </c>
       <c r="G1814" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62224,7 +62224,7 @@
       </c>
       <c r="E1815" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1815" t="inlineStr">
@@ -62234,7 +62234,7 @@
       </c>
       <c r="G1815" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62259,7 +62259,7 @@
       </c>
       <c r="E1816" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1816" t="inlineStr">
@@ -62269,7 +62269,7 @@
       </c>
       <c r="G1816" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62294,7 +62294,7 @@
       </c>
       <c r="E1817" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1817" t="inlineStr">
@@ -62304,7 +62304,7 @@
       </c>
       <c r="G1817" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62329,7 +62329,7 @@
       </c>
       <c r="E1818" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1818" t="inlineStr">
@@ -62339,7 +62339,7 @@
       </c>
       <c r="G1818" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62364,7 +62364,7 @@
       </c>
       <c r="E1819" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1819" t="inlineStr">
@@ -62374,7 +62374,7 @@
       </c>
       <c r="G1819" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62399,7 +62399,7 @@
       </c>
       <c r="E1820" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1820" t="inlineStr">
@@ -62409,7 +62409,7 @@
       </c>
       <c r="G1820" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62434,7 +62434,7 @@
       </c>
       <c r="E1821" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1821" t="inlineStr">
@@ -62444,7 +62444,7 @@
       </c>
       <c r="G1821" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62469,7 +62469,7 @@
       </c>
       <c r="E1822" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1822" t="inlineStr">
@@ -62479,7 +62479,7 @@
       </c>
       <c r="G1822" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62504,7 +62504,7 @@
       </c>
       <c r="E1823" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1823" t="inlineStr">
@@ -62514,7 +62514,7 @@
       </c>
       <c r="G1823" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62539,7 +62539,7 @@
       </c>
       <c r="E1824" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1824" t="inlineStr">
@@ -62549,7 +62549,7 @@
       </c>
       <c r="G1824" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62574,7 +62574,7 @@
       </c>
       <c r="E1825" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1825" t="inlineStr">
@@ -62584,7 +62584,7 @@
       </c>
       <c r="G1825" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62609,7 +62609,7 @@
       </c>
       <c r="E1826" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1826" t="inlineStr">
@@ -62619,7 +62619,7 @@
       </c>
       <c r="G1826" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62644,7 +62644,7 @@
       </c>
       <c r="E1827" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1827" t="inlineStr">
@@ -62654,7 +62654,7 @@
       </c>
       <c r="G1827" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62679,7 +62679,7 @@
       </c>
       <c r="E1828" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1828" t="inlineStr">
@@ -62689,7 +62689,7 @@
       </c>
       <c r="G1828" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62714,7 +62714,7 @@
       </c>
       <c r="E1829" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1829" t="inlineStr">
@@ -62724,7 +62724,7 @@
       </c>
       <c r="G1829" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62749,7 +62749,7 @@
       </c>
       <c r="E1830" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1830" t="inlineStr">
@@ -62759,7 +62759,7 @@
       </c>
       <c r="G1830" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62784,7 +62784,7 @@
       </c>
       <c r="E1831" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1831" t="inlineStr">
@@ -62794,7 +62794,7 @@
       </c>
       <c r="G1831" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62819,7 +62819,7 @@
       </c>
       <c r="E1832" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1832" t="inlineStr">
@@ -62829,7 +62829,7 @@
       </c>
       <c r="G1832" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62854,7 +62854,7 @@
       </c>
       <c r="E1833" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1833" t="inlineStr">
@@ -62864,7 +62864,7 @@
       </c>
       <c r="G1833" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62889,7 +62889,7 @@
       </c>
       <c r="E1834" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1834" t="inlineStr">
@@ -62899,7 +62899,7 @@
       </c>
       <c r="G1834" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62924,7 +62924,7 @@
       </c>
       <c r="E1835" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1835" t="inlineStr">
@@ -62934,7 +62934,7 @@
       </c>
       <c r="G1835" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62959,7 +62959,7 @@
       </c>
       <c r="E1836" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1836" t="inlineStr">
@@ -62969,7 +62969,7 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -62994,7 +62994,7 @@
       </c>
       <c r="E1837" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1837" t="inlineStr">
@@ -63004,7 +63004,7 @@
       </c>
       <c r="G1837" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63029,7 +63029,7 @@
       </c>
       <c r="E1838" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1838" t="inlineStr">
@@ -63039,7 +63039,7 @@
       </c>
       <c r="G1838" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63064,7 +63064,7 @@
       </c>
       <c r="E1839" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1839" t="inlineStr">
@@ -63074,7 +63074,7 @@
       </c>
       <c r="G1839" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63099,7 +63099,7 @@
       </c>
       <c r="E1840" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1840" t="inlineStr">
@@ -63109,7 +63109,7 @@
       </c>
       <c r="G1840" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63134,7 +63134,7 @@
       </c>
       <c r="E1841" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1841" t="inlineStr">
@@ -63144,7 +63144,7 @@
       </c>
       <c r="G1841" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63169,7 +63169,7 @@
       </c>
       <c r="E1842" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1842" t="inlineStr">
@@ -63179,7 +63179,7 @@
       </c>
       <c r="G1842" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="E1843" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1843" t="inlineStr">
@@ -63214,7 +63214,7 @@
       </c>
       <c r="G1843" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63239,7 +63239,7 @@
       </c>
       <c r="E1844" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1844" t="inlineStr">
@@ -63249,7 +63249,7 @@
       </c>
       <c r="G1844" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63274,7 +63274,7 @@
       </c>
       <c r="E1845" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1845" t="inlineStr">
@@ -63284,7 +63284,7 @@
       </c>
       <c r="G1845" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63309,7 +63309,7 @@
       </c>
       <c r="E1846" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1846" t="inlineStr">
@@ -63319,7 +63319,7 @@
       </c>
       <c r="G1846" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63344,7 +63344,7 @@
       </c>
       <c r="E1847" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1847" t="inlineStr">
@@ -63354,7 +63354,7 @@
       </c>
       <c r="G1847" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63379,7 +63379,7 @@
       </c>
       <c r="E1848" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1848" t="inlineStr">
@@ -63389,7 +63389,7 @@
       </c>
       <c r="G1848" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63414,7 +63414,7 @@
       </c>
       <c r="E1849" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1849" t="inlineStr">
@@ -63424,7 +63424,7 @@
       </c>
       <c r="G1849" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63449,7 +63449,7 @@
       </c>
       <c r="E1850" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1850" t="inlineStr">
@@ -63459,7 +63459,7 @@
       </c>
       <c r="G1850" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63484,7 +63484,7 @@
       </c>
       <c r="E1851" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1851" t="inlineStr">
@@ -63494,7 +63494,7 @@
       </c>
       <c r="G1851" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63519,7 +63519,7 @@
       </c>
       <c r="E1852" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1852" t="inlineStr">
@@ -63529,7 +63529,7 @@
       </c>
       <c r="G1852" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63554,7 +63554,7 @@
       </c>
       <c r="E1853" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1853" t="inlineStr">
@@ -63564,7 +63564,7 @@
       </c>
       <c r="G1853" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63589,7 +63589,7 @@
       </c>
       <c r="E1854" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1854" t="inlineStr">
@@ -63599,7 +63599,7 @@
       </c>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63624,7 +63624,7 @@
       </c>
       <c r="E1855" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1855" t="inlineStr">
@@ -63634,7 +63634,7 @@
       </c>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63659,7 +63659,7 @@
       </c>
       <c r="E1856" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1856" t="inlineStr">
@@ -63669,7 +63669,7 @@
       </c>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63694,7 +63694,7 @@
       </c>
       <c r="E1857" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1857" t="inlineStr">
@@ -63704,7 +63704,7 @@
       </c>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63729,7 +63729,7 @@
       </c>
       <c r="E1858" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1858" t="inlineStr">
@@ -63739,7 +63739,7 @@
       </c>
       <c r="G1858" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63764,7 +63764,7 @@
       </c>
       <c r="E1859" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1859" t="inlineStr">
@@ -63774,7 +63774,7 @@
       </c>
       <c r="G1859" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63799,7 +63799,7 @@
       </c>
       <c r="E1860" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1860" t="inlineStr">
@@ -63809,7 +63809,7 @@
       </c>
       <c r="G1860" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63834,7 +63834,7 @@
       </c>
       <c r="E1861" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1861" t="inlineStr">
@@ -63844,7 +63844,7 @@
       </c>
       <c r="G1861" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63869,7 +63869,7 @@
       </c>
       <c r="E1862" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1862" t="inlineStr">
@@ -63879,7 +63879,7 @@
       </c>
       <c r="G1862" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63904,7 +63904,7 @@
       </c>
       <c r="E1863" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1863" t="inlineStr">
@@ -63914,7 +63914,7 @@
       </c>
       <c r="G1863" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63939,7 +63939,7 @@
       </c>
       <c r="E1864" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1864" t="inlineStr">
@@ -63949,7 +63949,7 @@
       </c>
       <c r="G1864" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -63974,7 +63974,7 @@
       </c>
       <c r="E1865" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1865" t="inlineStr">
@@ -63984,7 +63984,7 @@
       </c>
       <c r="G1865" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64019,7 +64019,7 @@
       </c>
       <c r="G1866" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64054,7 +64054,7 @@
       </c>
       <c r="G1867" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64089,7 +64089,7 @@
       </c>
       <c r="G1868" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64124,7 +64124,7 @@
       </c>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64159,7 +64159,7 @@
       </c>
       <c r="G1870" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64194,7 +64194,7 @@
       </c>
       <c r="G1871" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64229,7 +64229,7 @@
       </c>
       <c r="G1872" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64264,7 +64264,7 @@
       </c>
       <c r="G1873" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64299,7 +64299,7 @@
       </c>
       <c r="G1874" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64334,7 +64334,7 @@
       </c>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64369,7 +64369,7 @@
       </c>
       <c r="G1876" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64404,7 +64404,7 @@
       </c>
       <c r="G1877" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64439,7 +64439,7 @@
       </c>
       <c r="G1878" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64474,7 +64474,7 @@
       </c>
       <c r="G1879" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64509,7 +64509,7 @@
       </c>
       <c r="G1880" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64544,7 +64544,7 @@
       </c>
       <c r="G1881" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64579,7 +64579,7 @@
       </c>
       <c r="G1882" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64614,7 +64614,7 @@
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64649,7 +64649,7 @@
       </c>
       <c r="G1884" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64684,7 +64684,7 @@
       </c>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64719,7 +64719,7 @@
       </c>
       <c r="G1886" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64754,7 +64754,7 @@
       </c>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64789,7 +64789,7 @@
       </c>
       <c r="G1888" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64824,7 +64824,7 @@
       </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64859,7 +64859,7 @@
       </c>
       <c r="G1890" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64894,7 +64894,7 @@
       </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64929,7 +64929,7 @@
       </c>
       <c r="G1892" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64964,7 +64964,7 @@
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -64999,7 +64999,7 @@
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65034,7 +65034,7 @@
       </c>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65069,7 +65069,7 @@
       </c>
       <c r="G1896" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65104,7 +65104,7 @@
       </c>
       <c r="G1897" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65139,7 +65139,7 @@
       </c>
       <c r="G1898" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65174,7 +65174,7 @@
       </c>
       <c r="G1899" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65209,7 +65209,7 @@
       </c>
       <c r="G1900" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65244,7 +65244,7 @@
       </c>
       <c r="G1901" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65279,7 +65279,7 @@
       </c>
       <c r="G1902" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65314,7 +65314,7 @@
       </c>
       <c r="G1903" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65349,7 +65349,7 @@
       </c>
       <c r="G1904" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65384,7 +65384,7 @@
       </c>
       <c r="G1905" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65419,7 +65419,7 @@
       </c>
       <c r="G1906" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65454,7 +65454,7 @@
       </c>
       <c r="G1907" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65489,7 +65489,7 @@
       </c>
       <c r="G1908" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65524,7 +65524,7 @@
       </c>
       <c r="G1909" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65559,7 +65559,7 @@
       </c>
       <c r="G1910" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65594,7 +65594,7 @@
       </c>
       <c r="G1911" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65629,7 +65629,7 @@
       </c>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65664,7 +65664,7 @@
       </c>
       <c r="G1913" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65699,7 +65699,7 @@
       </c>
       <c r="G1914" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65734,7 +65734,7 @@
       </c>
       <c r="G1915" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65769,7 +65769,7 @@
       </c>
       <c r="G1916" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65804,7 +65804,7 @@
       </c>
       <c r="G1917" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65839,7 +65839,7 @@
       </c>
       <c r="G1918" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65874,7 +65874,7 @@
       </c>
       <c r="G1919" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65909,7 +65909,7 @@
       </c>
       <c r="G1920" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65944,7 +65944,7 @@
       </c>
       <c r="G1921" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -65979,7 +65979,7 @@
       </c>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66014,7 +66014,7 @@
       </c>
       <c r="G1923" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66049,7 +66049,7 @@
       </c>
       <c r="G1924" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="G1925" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66119,7 +66119,7 @@
       </c>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66154,7 +66154,7 @@
       </c>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66189,7 +66189,7 @@
       </c>
       <c r="G1928" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66224,7 +66224,7 @@
       </c>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66259,7 +66259,7 @@
       </c>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66294,7 +66294,7 @@
       </c>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66329,7 +66329,7 @@
       </c>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66364,7 +66364,7 @@
       </c>
       <c r="G1933" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66399,7 +66399,7 @@
       </c>
       <c r="G1934" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66434,7 +66434,7 @@
       </c>
       <c r="G1935" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66469,7 +66469,7 @@
       </c>
       <c r="G1936" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66504,7 +66504,7 @@
       </c>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66539,7 +66539,7 @@
       </c>
       <c r="G1938" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66574,7 +66574,7 @@
       </c>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66609,7 +66609,7 @@
       </c>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66644,7 +66644,7 @@
       </c>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66679,7 +66679,7 @@
       </c>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66714,7 +66714,7 @@
       </c>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66749,7 +66749,7 @@
       </c>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66784,7 +66784,7 @@
       </c>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66819,7 +66819,7 @@
       </c>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66854,7 +66854,7 @@
       </c>
       <c r="G1947" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66889,7 +66889,7 @@
       </c>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66924,7 +66924,7 @@
       </c>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66959,7 +66959,7 @@
       </c>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -66994,7 +66994,7 @@
       </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67029,7 +67029,7 @@
       </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67064,7 +67064,7 @@
       </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67099,7 +67099,7 @@
       </c>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67134,7 +67134,7 @@
       </c>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67169,7 +67169,7 @@
       </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67204,7 +67204,7 @@
       </c>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67239,7 +67239,7 @@
       </c>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67274,7 +67274,7 @@
       </c>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67309,7 +67309,7 @@
       </c>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67344,7 +67344,7 @@
       </c>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67379,7 +67379,7 @@
       </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67414,7 +67414,7 @@
       </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67449,7 +67449,7 @@
       </c>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67484,7 +67484,7 @@
       </c>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67519,7 +67519,7 @@
       </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67554,7 +67554,7 @@
       </c>
       <c r="G1967" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67589,7 +67589,7 @@
       </c>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67624,7 +67624,7 @@
       </c>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67659,7 +67659,7 @@
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67694,7 +67694,7 @@
       </c>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67729,7 +67729,7 @@
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67764,7 +67764,7 @@
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67799,7 +67799,7 @@
       </c>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67834,7 +67834,7 @@
       </c>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67859,7 +67859,7 @@
       </c>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr">
@@ -67869,7 +67869,7 @@
       </c>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67894,7 +67894,7 @@
       </c>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr">
@@ -67904,7 +67904,7 @@
       </c>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67929,7 +67929,7 @@
       </c>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr">
@@ -67939,7 +67939,7 @@
       </c>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67964,7 +67964,7 @@
       </c>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr">
@@ -67974,7 +67974,7 @@
       </c>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -67999,7 +67999,7 @@
       </c>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr">
@@ -68009,7 +68009,7 @@
       </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68044,7 +68044,7 @@
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68079,7 +68079,7 @@
       </c>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68114,7 +68114,7 @@
       </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68149,7 +68149,7 @@
       </c>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68184,7 +68184,7 @@
       </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68219,7 +68219,7 @@
       </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68254,7 +68254,7 @@
       </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68289,7 +68289,7 @@
       </c>
       <c r="G1988" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68324,7 +68324,7 @@
       </c>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68359,7 +68359,7 @@
       </c>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68394,7 +68394,7 @@
       </c>
       <c r="G1991" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68429,7 +68429,7 @@
       </c>
       <c r="G1992" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68464,7 +68464,7 @@
       </c>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68499,7 +68499,7 @@
       </c>
       <c r="G1994" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68534,7 +68534,7 @@
       </c>
       <c r="G1995" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68569,7 +68569,7 @@
       </c>
       <c r="G1996" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68604,7 +68604,7 @@
       </c>
       <c r="G1997" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68639,7 +68639,7 @@
       </c>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68674,7 +68674,7 @@
       </c>
       <c r="G1999" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68709,7 +68709,7 @@
       </c>
       <c r="G2000" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68744,7 +68744,7 @@
       </c>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68779,7 +68779,7 @@
       </c>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68814,7 +68814,7 @@
       </c>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68849,7 +68849,7 @@
       </c>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68884,7 +68884,7 @@
       </c>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68919,7 +68919,7 @@
       </c>
       <c r="G2006" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68954,7 +68954,7 @@
       </c>
       <c r="G2007" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -68979,7 +68979,7 @@
       </c>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr">
@@ -68989,7 +68989,7 @@
       </c>
       <c r="G2008" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -69014,7 +69014,7 @@
       </c>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr">
@@ -69024,7 +69024,7 @@
       </c>
       <c r="G2009" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
@@ -69049,7 +69049,7 @@
       </c>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>Migros(CSS)</t>
+          <t>Migros(V1)</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr">
@@ -69059,7 +69059,7 @@
       </c>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>

--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -56914,7 +56914,7 @@
       </c>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -56949,7 +56949,7 @@
       </c>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -56984,7 +56984,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57019,7 +57019,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57054,7 +57054,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57089,7 +57089,7 @@
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57124,7 +57124,7 @@
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57159,7 +57159,7 @@
       </c>
       <c r="G1670" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57194,7 +57194,7 @@
       </c>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57229,7 +57229,7 @@
       </c>
       <c r="G1672" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57264,7 +57264,7 @@
       </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57299,7 +57299,7 @@
       </c>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57334,7 +57334,7 @@
       </c>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57369,7 +57369,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57404,7 +57404,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57439,7 +57439,7 @@
       </c>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57474,7 +57474,7 @@
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57509,7 +57509,7 @@
       </c>
       <c r="G1680" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57544,7 +57544,7 @@
       </c>
       <c r="G1681" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57579,7 +57579,7 @@
       </c>
       <c r="G1682" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57614,7 +57614,7 @@
       </c>
       <c r="G1683" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57649,7 +57649,7 @@
       </c>
       <c r="G1684" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57684,7 +57684,7 @@
       </c>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57719,7 +57719,7 @@
       </c>
       <c r="G1686" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57754,7 +57754,7 @@
       </c>
       <c r="G1687" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57789,7 +57789,7 @@
       </c>
       <c r="G1688" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57824,7 +57824,7 @@
       </c>
       <c r="G1689" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57859,7 +57859,7 @@
       </c>
       <c r="G1690" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57894,7 +57894,7 @@
       </c>
       <c r="G1691" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57929,7 +57929,7 @@
       </c>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57964,7 +57964,7 @@
       </c>
       <c r="G1693" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -57999,7 +57999,7 @@
       </c>
       <c r="G1694" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58034,7 +58034,7 @@
       </c>
       <c r="G1695" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58069,7 +58069,7 @@
       </c>
       <c r="G1696" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58104,7 +58104,7 @@
       </c>
       <c r="G1697" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58139,7 +58139,7 @@
       </c>
       <c r="G1698" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58174,7 +58174,7 @@
       </c>
       <c r="G1699" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58209,7 +58209,7 @@
       </c>
       <c r="G1700" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58244,7 +58244,7 @@
       </c>
       <c r="G1701" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58279,7 +58279,7 @@
       </c>
       <c r="G1702" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58314,7 +58314,7 @@
       </c>
       <c r="G1703" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58349,7 +58349,7 @@
       </c>
       <c r="G1704" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58384,7 +58384,7 @@
       </c>
       <c r="G1705" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58419,7 +58419,7 @@
       </c>
       <c r="G1706" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58454,7 +58454,7 @@
       </c>
       <c r="G1707" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58489,7 +58489,7 @@
       </c>
       <c r="G1708" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58524,7 +58524,7 @@
       </c>
       <c r="G1709" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58559,7 +58559,7 @@
       </c>
       <c r="G1710" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58594,7 +58594,7 @@
       </c>
       <c r="G1711" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58629,7 +58629,7 @@
       </c>
       <c r="G1712" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58664,7 +58664,7 @@
       </c>
       <c r="G1713" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58699,7 +58699,7 @@
       </c>
       <c r="G1714" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58734,7 +58734,7 @@
       </c>
       <c r="G1715" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58769,7 +58769,7 @@
       </c>
       <c r="G1716" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58804,7 +58804,7 @@
       </c>
       <c r="G1717" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58839,7 +58839,7 @@
       </c>
       <c r="G1718" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58874,7 +58874,7 @@
       </c>
       <c r="G1719" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58909,7 +58909,7 @@
       </c>
       <c r="G1720" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58944,7 +58944,7 @@
       </c>
       <c r="G1721" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -58979,7 +58979,7 @@
       </c>
       <c r="G1722" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59014,7 +59014,7 @@
       </c>
       <c r="G1723" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59049,7 +59049,7 @@
       </c>
       <c r="G1724" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59084,7 +59084,7 @@
       </c>
       <c r="G1725" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59119,7 +59119,7 @@
       </c>
       <c r="G1726" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59154,7 +59154,7 @@
       </c>
       <c r="G1727" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59189,7 +59189,7 @@
       </c>
       <c r="G1728" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59224,7 +59224,7 @@
       </c>
       <c r="G1729" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59259,7 +59259,7 @@
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59294,7 +59294,7 @@
       </c>
       <c r="G1731" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59329,7 +59329,7 @@
       </c>
       <c r="G1732" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59364,7 +59364,7 @@
       </c>
       <c r="G1733" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59399,7 +59399,7 @@
       </c>
       <c r="G1734" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59434,7 +59434,7 @@
       </c>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59469,7 +59469,7 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59504,7 +59504,7 @@
       </c>
       <c r="G1737" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59539,7 +59539,7 @@
       </c>
       <c r="G1738" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59574,7 +59574,7 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59609,7 +59609,7 @@
       </c>
       <c r="G1740" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59644,7 +59644,7 @@
       </c>
       <c r="G1741" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59679,7 +59679,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59714,7 +59714,7 @@
       </c>
       <c r="G1743" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59749,7 +59749,7 @@
       </c>
       <c r="G1744" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59784,7 +59784,7 @@
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59819,7 +59819,7 @@
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59854,7 +59854,7 @@
       </c>
       <c r="G1747" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59889,7 +59889,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59924,7 +59924,7 @@
       </c>
       <c r="G1749" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59959,7 +59959,7 @@
       </c>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -59994,7 +59994,7 @@
       </c>
       <c r="G1751" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60029,7 +60029,7 @@
       </c>
       <c r="G1752" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60064,7 +60064,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60099,7 +60099,7 @@
       </c>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60134,7 +60134,7 @@
       </c>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60169,7 +60169,7 @@
       </c>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60204,7 +60204,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60229,7 +60229,7 @@
       </c>
       <c r="E1758" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1758" t="inlineStr">
@@ -60239,7 +60239,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60264,7 +60264,7 @@
       </c>
       <c r="E1759" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1759" t="inlineStr">
@@ -60274,7 +60274,7 @@
       </c>
       <c r="G1759" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60295,11 +60295,11 @@
         </is>
       </c>
       <c r="D1760" t="n">
-        <v>67.95</v>
+        <v>299.95</v>
       </c>
       <c r="E1760" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1760" t="inlineStr">
@@ -60309,7 +60309,7 @@
       </c>
       <c r="G1760" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60334,7 +60334,7 @@
       </c>
       <c r="E1761" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1761" t="inlineStr">
@@ -60344,7 +60344,7 @@
       </c>
       <c r="G1761" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60369,7 +60369,7 @@
       </c>
       <c r="E1762" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1762" t="inlineStr">
@@ -60379,7 +60379,7 @@
       </c>
       <c r="G1762" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60404,7 +60404,7 @@
       </c>
       <c r="E1763" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1763" t="inlineStr">
@@ -60414,7 +60414,7 @@
       </c>
       <c r="G1763" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60439,7 +60439,7 @@
       </c>
       <c r="E1764" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1764" t="inlineStr">
@@ -60449,7 +60449,7 @@
       </c>
       <c r="G1764" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60474,7 +60474,7 @@
       </c>
       <c r="E1765" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1765" t="inlineStr">
@@ -60484,7 +60484,7 @@
       </c>
       <c r="G1765" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60509,7 +60509,7 @@
       </c>
       <c r="E1766" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1766" t="inlineStr">
@@ -60519,7 +60519,7 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60544,7 +60544,7 @@
       </c>
       <c r="E1767" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1767" t="inlineStr">
@@ -60554,7 +60554,7 @@
       </c>
       <c r="G1767" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60579,7 +60579,7 @@
       </c>
       <c r="E1768" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1768" t="inlineStr">
@@ -60589,7 +60589,7 @@
       </c>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60614,7 +60614,7 @@
       </c>
       <c r="E1769" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1769" t="inlineStr">
@@ -60624,7 +60624,7 @@
       </c>
       <c r="G1769" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60649,7 +60649,7 @@
       </c>
       <c r="E1770" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1770" t="inlineStr">
@@ -60659,7 +60659,7 @@
       </c>
       <c r="G1770" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="E1771" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1771" t="inlineStr">
@@ -60694,7 +60694,7 @@
       </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60719,7 +60719,7 @@
       </c>
       <c r="E1772" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1772" t="inlineStr">
@@ -60729,7 +60729,7 @@
       </c>
       <c r="G1772" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60750,11 +60750,11 @@
         </is>
       </c>
       <c r="D1773" t="n">
-        <v>744.95</v>
+        <v>649.95</v>
       </c>
       <c r="E1773" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1773" t="inlineStr">
@@ -60764,7 +60764,7 @@
       </c>
       <c r="G1773" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60789,7 +60789,7 @@
       </c>
       <c r="E1774" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1774" t="inlineStr">
@@ -60799,7 +60799,7 @@
       </c>
       <c r="G1774" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60824,7 +60824,7 @@
       </c>
       <c r="E1775" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1775" t="inlineStr">
@@ -60834,7 +60834,7 @@
       </c>
       <c r="G1775" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60859,7 +60859,7 @@
       </c>
       <c r="E1776" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1776" t="inlineStr">
@@ -60869,7 +60869,7 @@
       </c>
       <c r="G1776" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60894,7 +60894,7 @@
       </c>
       <c r="E1777" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1777" t="inlineStr">
@@ -60904,7 +60904,7 @@
       </c>
       <c r="G1777" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60925,11 +60925,11 @@
         </is>
       </c>
       <c r="D1778" t="n">
-        <v>59.95</v>
+        <v>114.9</v>
       </c>
       <c r="E1778" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1778" t="inlineStr">
@@ -60939,7 +60939,7 @@
       </c>
       <c r="G1778" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60964,7 +60964,7 @@
       </c>
       <c r="E1779" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1779" t="inlineStr">
@@ -60974,7 +60974,7 @@
       </c>
       <c r="G1779" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -60999,7 +60999,7 @@
       </c>
       <c r="E1780" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1780" t="inlineStr">
@@ -61009,7 +61009,7 @@
       </c>
       <c r="G1780" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61034,7 +61034,7 @@
       </c>
       <c r="E1781" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1781" t="inlineStr">
@@ -61044,7 +61044,7 @@
       </c>
       <c r="G1781" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61069,7 +61069,7 @@
       </c>
       <c r="E1782" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1782" t="inlineStr">
@@ -61079,7 +61079,7 @@
       </c>
       <c r="G1782" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61104,7 +61104,7 @@
       </c>
       <c r="E1783" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1783" t="inlineStr">
@@ -61114,7 +61114,7 @@
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61139,7 +61139,7 @@
       </c>
       <c r="E1784" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1784" t="inlineStr">
@@ -61149,7 +61149,7 @@
       </c>
       <c r="G1784" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61174,7 +61174,7 @@
       </c>
       <c r="E1785" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1785" t="inlineStr">
@@ -61184,7 +61184,7 @@
       </c>
       <c r="G1785" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61209,7 +61209,7 @@
       </c>
       <c r="E1786" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1786" t="inlineStr">
@@ -61219,7 +61219,7 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61254,7 +61254,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61289,7 +61289,7 @@
       </c>
       <c r="G1788" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61324,7 +61324,7 @@
       </c>
       <c r="G1789" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61359,7 +61359,7 @@
       </c>
       <c r="G1790" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61394,7 +61394,7 @@
       </c>
       <c r="G1791" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61429,7 +61429,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61464,7 +61464,7 @@
       </c>
       <c r="G1793" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61499,7 +61499,7 @@
       </c>
       <c r="G1794" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61534,7 +61534,7 @@
       </c>
       <c r="G1795" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61569,7 +61569,7 @@
       </c>
       <c r="G1796" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61604,7 +61604,7 @@
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61639,7 +61639,7 @@
       </c>
       <c r="G1798" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61674,7 +61674,7 @@
       </c>
       <c r="G1799" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61709,7 +61709,7 @@
       </c>
       <c r="G1800" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61744,7 +61744,7 @@
       </c>
       <c r="G1801" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61779,7 +61779,7 @@
       </c>
       <c r="G1802" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61814,7 +61814,7 @@
       </c>
       <c r="G1803" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61849,7 +61849,7 @@
       </c>
       <c r="G1804" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61884,7 +61884,7 @@
       </c>
       <c r="G1805" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61919,7 +61919,7 @@
       </c>
       <c r="G1806" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61954,7 +61954,7 @@
       </c>
       <c r="G1807" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -61989,7 +61989,7 @@
       </c>
       <c r="G1808" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62014,7 +62014,7 @@
       </c>
       <c r="E1809" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1809" t="inlineStr">
@@ -62024,7 +62024,7 @@
       </c>
       <c r="G1809" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62049,7 +62049,7 @@
       </c>
       <c r="E1810" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1810" t="inlineStr">
@@ -62059,7 +62059,7 @@
       </c>
       <c r="G1810" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62084,7 +62084,7 @@
       </c>
       <c r="E1811" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1811" t="inlineStr">
@@ -62094,7 +62094,7 @@
       </c>
       <c r="G1811" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62119,7 +62119,7 @@
       </c>
       <c r="E1812" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1812" t="inlineStr">
@@ -62129,7 +62129,7 @@
       </c>
       <c r="G1812" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62154,7 +62154,7 @@
       </c>
       <c r="E1813" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1813" t="inlineStr">
@@ -62164,7 +62164,7 @@
       </c>
       <c r="G1813" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62189,7 +62189,7 @@
       </c>
       <c r="E1814" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1814" t="inlineStr">
@@ -62199,7 +62199,7 @@
       </c>
       <c r="G1814" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62224,7 +62224,7 @@
       </c>
       <c r="E1815" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1815" t="inlineStr">
@@ -62234,7 +62234,7 @@
       </c>
       <c r="G1815" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62255,11 +62255,11 @@
         </is>
       </c>
       <c r="D1816" t="n">
-        <v>59.95</v>
+        <v>69.95</v>
       </c>
       <c r="E1816" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1816" t="inlineStr">
@@ -62269,7 +62269,7 @@
       </c>
       <c r="G1816" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62294,7 +62294,7 @@
       </c>
       <c r="E1817" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1817" t="inlineStr">
@@ -62304,7 +62304,7 @@
       </c>
       <c r="G1817" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62329,7 +62329,7 @@
       </c>
       <c r="E1818" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1818" t="inlineStr">
@@ -62339,7 +62339,7 @@
       </c>
       <c r="G1818" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62364,7 +62364,7 @@
       </c>
       <c r="E1819" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1819" t="inlineStr">
@@ -62374,7 +62374,7 @@
       </c>
       <c r="G1819" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62399,7 +62399,7 @@
       </c>
       <c r="E1820" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1820" t="inlineStr">
@@ -62409,7 +62409,7 @@
       </c>
       <c r="G1820" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62434,7 +62434,7 @@
       </c>
       <c r="E1821" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1821" t="inlineStr">
@@ -62444,7 +62444,7 @@
       </c>
       <c r="G1821" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62469,7 +62469,7 @@
       </c>
       <c r="E1822" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1822" t="inlineStr">
@@ -62479,7 +62479,7 @@
       </c>
       <c r="G1822" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62504,7 +62504,7 @@
       </c>
       <c r="E1823" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1823" t="inlineStr">
@@ -62514,7 +62514,7 @@
       </c>
       <c r="G1823" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62539,7 +62539,7 @@
       </c>
       <c r="E1824" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1824" t="inlineStr">
@@ -62549,7 +62549,7 @@
       </c>
       <c r="G1824" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62574,7 +62574,7 @@
       </c>
       <c r="E1825" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1825" t="inlineStr">
@@ -62584,7 +62584,7 @@
       </c>
       <c r="G1825" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62609,7 +62609,7 @@
       </c>
       <c r="E1826" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1826" t="inlineStr">
@@ -62619,7 +62619,7 @@
       </c>
       <c r="G1826" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62644,7 +62644,7 @@
       </c>
       <c r="E1827" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1827" t="inlineStr">
@@ -62654,7 +62654,7 @@
       </c>
       <c r="G1827" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62675,11 +62675,11 @@
         </is>
       </c>
       <c r="D1828" t="n">
-        <v>54.95</v>
+        <v>29.95</v>
       </c>
       <c r="E1828" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1828" t="inlineStr">
@@ -62689,7 +62689,7 @@
       </c>
       <c r="G1828" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62714,7 +62714,7 @@
       </c>
       <c r="E1829" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1829" t="inlineStr">
@@ -62724,7 +62724,7 @@
       </c>
       <c r="G1829" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62749,7 +62749,7 @@
       </c>
       <c r="E1830" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1830" t="inlineStr">
@@ -62759,7 +62759,7 @@
       </c>
       <c r="G1830" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62784,7 +62784,7 @@
       </c>
       <c r="E1831" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1831" t="inlineStr">
@@ -62794,7 +62794,7 @@
       </c>
       <c r="G1831" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62819,7 +62819,7 @@
       </c>
       <c r="E1832" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1832" t="inlineStr">
@@ -62829,7 +62829,7 @@
       </c>
       <c r="G1832" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62854,7 +62854,7 @@
       </c>
       <c r="E1833" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1833" t="inlineStr">
@@ -62864,7 +62864,7 @@
       </c>
       <c r="G1833" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62889,7 +62889,7 @@
       </c>
       <c r="E1834" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1834" t="inlineStr">
@@ -62899,7 +62899,7 @@
       </c>
       <c r="G1834" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62924,7 +62924,7 @@
       </c>
       <c r="E1835" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1835" t="inlineStr">
@@ -62934,7 +62934,7 @@
       </c>
       <c r="G1835" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62959,7 +62959,7 @@
       </c>
       <c r="E1836" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1836" t="inlineStr">
@@ -62969,7 +62969,7 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -62994,7 +62994,7 @@
       </c>
       <c r="E1837" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1837" t="inlineStr">
@@ -63004,7 +63004,7 @@
       </c>
       <c r="G1837" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63029,7 +63029,7 @@
       </c>
       <c r="E1838" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1838" t="inlineStr">
@@ -63039,7 +63039,7 @@
       </c>
       <c r="G1838" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63064,7 +63064,7 @@
       </c>
       <c r="E1839" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1839" t="inlineStr">
@@ -63074,7 +63074,7 @@
       </c>
       <c r="G1839" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63095,11 +63095,11 @@
         </is>
       </c>
       <c r="D1840" t="n">
-        <v>13.95</v>
+        <v>34.95</v>
       </c>
       <c r="E1840" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1840" t="inlineStr">
@@ -63109,7 +63109,7 @@
       </c>
       <c r="G1840" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63134,7 +63134,7 @@
       </c>
       <c r="E1841" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1841" t="inlineStr">
@@ -63144,7 +63144,7 @@
       </c>
       <c r="G1841" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63169,7 +63169,7 @@
       </c>
       <c r="E1842" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1842" t="inlineStr">
@@ -63179,7 +63179,7 @@
       </c>
       <c r="G1842" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="E1843" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1843" t="inlineStr">
@@ -63214,7 +63214,7 @@
       </c>
       <c r="G1843" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63239,7 +63239,7 @@
       </c>
       <c r="E1844" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1844" t="inlineStr">
@@ -63249,7 +63249,7 @@
       </c>
       <c r="G1844" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63274,7 +63274,7 @@
       </c>
       <c r="E1845" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1845" t="inlineStr">
@@ -63284,7 +63284,7 @@
       </c>
       <c r="G1845" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63309,7 +63309,7 @@
       </c>
       <c r="E1846" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1846" t="inlineStr">
@@ -63319,7 +63319,7 @@
       </c>
       <c r="G1846" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63344,7 +63344,7 @@
       </c>
       <c r="E1847" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1847" t="inlineStr">
@@ -63354,7 +63354,7 @@
       </c>
       <c r="G1847" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63379,7 +63379,7 @@
       </c>
       <c r="E1848" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1848" t="inlineStr">
@@ -63389,7 +63389,7 @@
       </c>
       <c r="G1848" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63414,7 +63414,7 @@
       </c>
       <c r="E1849" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1849" t="inlineStr">
@@ -63424,7 +63424,7 @@
       </c>
       <c r="G1849" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63449,7 +63449,7 @@
       </c>
       <c r="E1850" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1850" t="inlineStr">
@@ -63459,7 +63459,7 @@
       </c>
       <c r="G1850" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63484,7 +63484,7 @@
       </c>
       <c r="E1851" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1851" t="inlineStr">
@@ -63494,7 +63494,7 @@
       </c>
       <c r="G1851" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63519,7 +63519,7 @@
       </c>
       <c r="E1852" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1852" t="inlineStr">
@@ -63529,7 +63529,7 @@
       </c>
       <c r="G1852" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63554,7 +63554,7 @@
       </c>
       <c r="E1853" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1853" t="inlineStr">
@@ -63564,7 +63564,7 @@
       </c>
       <c r="G1853" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63589,7 +63589,7 @@
       </c>
       <c r="E1854" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1854" t="inlineStr">
@@ -63599,7 +63599,7 @@
       </c>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63624,7 +63624,7 @@
       </c>
       <c r="E1855" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1855" t="inlineStr">
@@ -63634,7 +63634,7 @@
       </c>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63659,7 +63659,7 @@
       </c>
       <c r="E1856" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1856" t="inlineStr">
@@ -63669,7 +63669,7 @@
       </c>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63694,7 +63694,7 @@
       </c>
       <c r="E1857" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1857" t="inlineStr">
@@ -63704,7 +63704,7 @@
       </c>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63729,7 +63729,7 @@
       </c>
       <c r="E1858" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1858" t="inlineStr">
@@ -63739,7 +63739,7 @@
       </c>
       <c r="G1858" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63764,7 +63764,7 @@
       </c>
       <c r="E1859" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1859" t="inlineStr">
@@ -63774,7 +63774,7 @@
       </c>
       <c r="G1859" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63799,7 +63799,7 @@
       </c>
       <c r="E1860" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1860" t="inlineStr">
@@ -63809,7 +63809,7 @@
       </c>
       <c r="G1860" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63834,7 +63834,7 @@
       </c>
       <c r="E1861" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1861" t="inlineStr">
@@ -63844,7 +63844,7 @@
       </c>
       <c r="G1861" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63869,7 +63869,7 @@
       </c>
       <c r="E1862" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1862" t="inlineStr">
@@ -63879,7 +63879,7 @@
       </c>
       <c r="G1862" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63904,7 +63904,7 @@
       </c>
       <c r="E1863" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1863" t="inlineStr">
@@ -63914,7 +63914,7 @@
       </c>
       <c r="G1863" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63939,7 +63939,7 @@
       </c>
       <c r="E1864" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1864" t="inlineStr">
@@ -63949,7 +63949,7 @@
       </c>
       <c r="G1864" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -63974,7 +63974,7 @@
       </c>
       <c r="E1865" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1865" t="inlineStr">
@@ -63984,7 +63984,7 @@
       </c>
       <c r="G1865" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64019,7 +64019,7 @@
       </c>
       <c r="G1866" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64054,7 +64054,7 @@
       </c>
       <c r="G1867" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64089,7 +64089,7 @@
       </c>
       <c r="G1868" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64124,7 +64124,7 @@
       </c>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64159,7 +64159,7 @@
       </c>
       <c r="G1870" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64194,7 +64194,7 @@
       </c>
       <c r="G1871" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64229,7 +64229,7 @@
       </c>
       <c r="G1872" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64264,7 +64264,7 @@
       </c>
       <c r="G1873" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64299,7 +64299,7 @@
       </c>
       <c r="G1874" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64334,7 +64334,7 @@
       </c>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64369,7 +64369,7 @@
       </c>
       <c r="G1876" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64404,7 +64404,7 @@
       </c>
       <c r="G1877" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64439,7 +64439,7 @@
       </c>
       <c r="G1878" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64474,7 +64474,7 @@
       </c>
       <c r="G1879" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64509,7 +64509,7 @@
       </c>
       <c r="G1880" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64544,7 +64544,7 @@
       </c>
       <c r="G1881" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64579,7 +64579,7 @@
       </c>
       <c r="G1882" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64614,7 +64614,7 @@
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64649,7 +64649,7 @@
       </c>
       <c r="G1884" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64684,7 +64684,7 @@
       </c>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64719,7 +64719,7 @@
       </c>
       <c r="G1886" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64754,7 +64754,7 @@
       </c>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64789,7 +64789,7 @@
       </c>
       <c r="G1888" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64824,7 +64824,7 @@
       </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64859,7 +64859,7 @@
       </c>
       <c r="G1890" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64894,7 +64894,7 @@
       </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64929,7 +64929,7 @@
       </c>
       <c r="G1892" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64964,7 +64964,7 @@
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -64999,7 +64999,7 @@
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65034,7 +65034,7 @@
       </c>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65069,7 +65069,7 @@
       </c>
       <c r="G1896" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65104,7 +65104,7 @@
       </c>
       <c r="G1897" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65139,7 +65139,7 @@
       </c>
       <c r="G1898" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65174,7 +65174,7 @@
       </c>
       <c r="G1899" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65209,7 +65209,7 @@
       </c>
       <c r="G1900" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65244,7 +65244,7 @@
       </c>
       <c r="G1901" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65279,7 +65279,7 @@
       </c>
       <c r="G1902" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65314,7 +65314,7 @@
       </c>
       <c r="G1903" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65349,7 +65349,7 @@
       </c>
       <c r="G1904" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65384,7 +65384,7 @@
       </c>
       <c r="G1905" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65419,7 +65419,7 @@
       </c>
       <c r="G1906" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65454,7 +65454,7 @@
       </c>
       <c r="G1907" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65489,7 +65489,7 @@
       </c>
       <c r="G1908" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65524,7 +65524,7 @@
       </c>
       <c r="G1909" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65559,7 +65559,7 @@
       </c>
       <c r="G1910" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65594,7 +65594,7 @@
       </c>
       <c r="G1911" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65629,7 +65629,7 @@
       </c>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65664,7 +65664,7 @@
       </c>
       <c r="G1913" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65699,7 +65699,7 @@
       </c>
       <c r="G1914" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65734,7 +65734,7 @@
       </c>
       <c r="G1915" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65769,7 +65769,7 @@
       </c>
       <c r="G1916" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65804,7 +65804,7 @@
       </c>
       <c r="G1917" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65839,7 +65839,7 @@
       </c>
       <c r="G1918" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65874,7 +65874,7 @@
       </c>
       <c r="G1919" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65909,7 +65909,7 @@
       </c>
       <c r="G1920" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65944,7 +65944,7 @@
       </c>
       <c r="G1921" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -65979,7 +65979,7 @@
       </c>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66014,7 +66014,7 @@
       </c>
       <c r="G1923" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66049,7 +66049,7 @@
       </c>
       <c r="G1924" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="G1925" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66119,7 +66119,7 @@
       </c>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66154,7 +66154,7 @@
       </c>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66189,7 +66189,7 @@
       </c>
       <c r="G1928" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66224,7 +66224,7 @@
       </c>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66259,7 +66259,7 @@
       </c>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66294,7 +66294,7 @@
       </c>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66329,7 +66329,7 @@
       </c>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66364,7 +66364,7 @@
       </c>
       <c r="G1933" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66399,7 +66399,7 @@
       </c>
       <c r="G1934" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66434,7 +66434,7 @@
       </c>
       <c r="G1935" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66469,7 +66469,7 @@
       </c>
       <c r="G1936" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66504,7 +66504,7 @@
       </c>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66539,7 +66539,7 @@
       </c>
       <c r="G1938" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66574,7 +66574,7 @@
       </c>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66609,7 +66609,7 @@
       </c>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66644,7 +66644,7 @@
       </c>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66679,7 +66679,7 @@
       </c>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66714,7 +66714,7 @@
       </c>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66749,7 +66749,7 @@
       </c>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66784,7 +66784,7 @@
       </c>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66819,7 +66819,7 @@
       </c>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66854,7 +66854,7 @@
       </c>
       <c r="G1947" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66889,7 +66889,7 @@
       </c>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66924,7 +66924,7 @@
       </c>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66959,7 +66959,7 @@
       </c>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -66994,7 +66994,7 @@
       </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67029,7 +67029,7 @@
       </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67064,7 +67064,7 @@
       </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67099,7 +67099,7 @@
       </c>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67134,7 +67134,7 @@
       </c>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67169,7 +67169,7 @@
       </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67204,7 +67204,7 @@
       </c>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67239,7 +67239,7 @@
       </c>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67274,7 +67274,7 @@
       </c>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67309,7 +67309,7 @@
       </c>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67344,7 +67344,7 @@
       </c>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67379,7 +67379,7 @@
       </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67414,7 +67414,7 @@
       </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67449,7 +67449,7 @@
       </c>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67484,7 +67484,7 @@
       </c>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67519,7 +67519,7 @@
       </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67554,7 +67554,7 @@
       </c>
       <c r="G1967" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67589,7 +67589,7 @@
       </c>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67624,7 +67624,7 @@
       </c>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67659,7 +67659,7 @@
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67694,7 +67694,7 @@
       </c>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67729,7 +67729,7 @@
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67764,7 +67764,7 @@
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67799,7 +67799,7 @@
       </c>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67834,7 +67834,7 @@
       </c>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67859,7 +67859,7 @@
       </c>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr">
@@ -67869,7 +67869,7 @@
       </c>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67894,7 +67894,7 @@
       </c>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr">
@@ -67904,7 +67904,7 @@
       </c>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67929,7 +67929,7 @@
       </c>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr">
@@ -67939,7 +67939,7 @@
       </c>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67964,7 +67964,7 @@
       </c>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr">
@@ -67974,7 +67974,7 @@
       </c>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -67999,7 +67999,7 @@
       </c>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr">
@@ -68009,7 +68009,7 @@
       </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68044,7 +68044,7 @@
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68079,7 +68079,7 @@
       </c>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68114,7 +68114,7 @@
       </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68149,7 +68149,7 @@
       </c>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68184,7 +68184,7 @@
       </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68219,7 +68219,7 @@
       </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68254,7 +68254,7 @@
       </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68289,7 +68289,7 @@
       </c>
       <c r="G1988" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68324,7 +68324,7 @@
       </c>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68359,7 +68359,7 @@
       </c>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68394,7 +68394,7 @@
       </c>
       <c r="G1991" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68429,7 +68429,7 @@
       </c>
       <c r="G1992" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68464,7 +68464,7 @@
       </c>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68499,7 +68499,7 @@
       </c>
       <c r="G1994" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68534,7 +68534,7 @@
       </c>
       <c r="G1995" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68569,7 +68569,7 @@
       </c>
       <c r="G1996" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68604,7 +68604,7 @@
       </c>
       <c r="G1997" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68639,7 +68639,7 @@
       </c>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68674,7 +68674,7 @@
       </c>
       <c r="G1999" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68709,7 +68709,7 @@
       </c>
       <c r="G2000" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68744,7 +68744,7 @@
       </c>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68779,7 +68779,7 @@
       </c>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68814,7 +68814,7 @@
       </c>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68849,7 +68849,7 @@
       </c>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68884,7 +68884,7 @@
       </c>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68919,7 +68919,7 @@
       </c>
       <c r="G2006" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68954,7 +68954,7 @@
       </c>
       <c r="G2007" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -68979,7 +68979,7 @@
       </c>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr">
@@ -68989,7 +68989,7 @@
       </c>
       <c r="G2008" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -69014,7 +69014,7 @@
       </c>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr">
@@ -69024,7 +69024,7 @@
       </c>
       <c r="G2009" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>
@@ -69049,7 +69049,7 @@
       </c>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>Migros(V1)</t>
+          <t>Migros(HTML-V1)</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr">
@@ -69059,7 +69059,7 @@
       </c>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>11:54</t>
+          <t>11:59</t>
         </is>
       </c>
     </row>

--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -56914,7 +56914,7 @@
       </c>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -56949,7 +56949,7 @@
       </c>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -56984,7 +56984,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57019,7 +57019,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57054,7 +57054,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57089,7 +57089,7 @@
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57124,7 +57124,7 @@
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57159,7 +57159,7 @@
       </c>
       <c r="G1670" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57194,7 +57194,7 @@
       </c>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57229,7 +57229,7 @@
       </c>
       <c r="G1672" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57264,7 +57264,7 @@
       </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57299,7 +57299,7 @@
       </c>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57334,7 +57334,7 @@
       </c>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57369,7 +57369,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57404,7 +57404,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57439,7 +57439,7 @@
       </c>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57474,7 +57474,7 @@
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57509,7 +57509,7 @@
       </c>
       <c r="G1680" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57544,7 +57544,7 @@
       </c>
       <c r="G1681" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57579,7 +57579,7 @@
       </c>
       <c r="G1682" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57614,7 +57614,7 @@
       </c>
       <c r="G1683" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57649,7 +57649,7 @@
       </c>
       <c r="G1684" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57684,7 +57684,7 @@
       </c>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57719,7 +57719,7 @@
       </c>
       <c r="G1686" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57754,7 +57754,7 @@
       </c>
       <c r="G1687" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57789,7 +57789,7 @@
       </c>
       <c r="G1688" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57824,7 +57824,7 @@
       </c>
       <c r="G1689" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57859,7 +57859,7 @@
       </c>
       <c r="G1690" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57894,7 +57894,7 @@
       </c>
       <c r="G1691" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57929,7 +57929,7 @@
       </c>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57964,7 +57964,7 @@
       </c>
       <c r="G1693" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -57999,7 +57999,7 @@
       </c>
       <c r="G1694" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58034,7 +58034,7 @@
       </c>
       <c r="G1695" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58069,7 +58069,7 @@
       </c>
       <c r="G1696" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58104,7 +58104,7 @@
       </c>
       <c r="G1697" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58139,7 +58139,7 @@
       </c>
       <c r="G1698" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58174,7 +58174,7 @@
       </c>
       <c r="G1699" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58209,7 +58209,7 @@
       </c>
       <c r="G1700" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58244,7 +58244,7 @@
       </c>
       <c r="G1701" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58279,7 +58279,7 @@
       </c>
       <c r="G1702" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58314,7 +58314,7 @@
       </c>
       <c r="G1703" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58349,7 +58349,7 @@
       </c>
       <c r="G1704" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58384,7 +58384,7 @@
       </c>
       <c r="G1705" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58419,7 +58419,7 @@
       </c>
       <c r="G1706" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58454,7 +58454,7 @@
       </c>
       <c r="G1707" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58489,7 +58489,7 @@
       </c>
       <c r="G1708" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58524,7 +58524,7 @@
       </c>
       <c r="G1709" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58559,7 +58559,7 @@
       </c>
       <c r="G1710" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58594,7 +58594,7 @@
       </c>
       <c r="G1711" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58629,7 +58629,7 @@
       </c>
       <c r="G1712" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58664,7 +58664,7 @@
       </c>
       <c r="G1713" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58699,7 +58699,7 @@
       </c>
       <c r="G1714" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58734,7 +58734,7 @@
       </c>
       <c r="G1715" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58769,7 +58769,7 @@
       </c>
       <c r="G1716" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58804,7 +58804,7 @@
       </c>
       <c r="G1717" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58839,7 +58839,7 @@
       </c>
       <c r="G1718" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58874,7 +58874,7 @@
       </c>
       <c r="G1719" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58909,7 +58909,7 @@
       </c>
       <c r="G1720" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58944,7 +58944,7 @@
       </c>
       <c r="G1721" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -58979,7 +58979,7 @@
       </c>
       <c r="G1722" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59014,7 +59014,7 @@
       </c>
       <c r="G1723" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59049,7 +59049,7 @@
       </c>
       <c r="G1724" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59084,7 +59084,7 @@
       </c>
       <c r="G1725" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59119,7 +59119,7 @@
       </c>
       <c r="G1726" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59154,7 +59154,7 @@
       </c>
       <c r="G1727" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59189,7 +59189,7 @@
       </c>
       <c r="G1728" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59224,7 +59224,7 @@
       </c>
       <c r="G1729" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59259,7 +59259,7 @@
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59294,7 +59294,7 @@
       </c>
       <c r="G1731" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59329,7 +59329,7 @@
       </c>
       <c r="G1732" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59364,7 +59364,7 @@
       </c>
       <c r="G1733" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59399,7 +59399,7 @@
       </c>
       <c r="G1734" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59434,7 +59434,7 @@
       </c>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59469,7 +59469,7 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59504,7 +59504,7 @@
       </c>
       <c r="G1737" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59539,7 +59539,7 @@
       </c>
       <c r="G1738" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59574,7 +59574,7 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59609,7 +59609,7 @@
       </c>
       <c r="G1740" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59644,7 +59644,7 @@
       </c>
       <c r="G1741" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59679,7 +59679,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59714,7 +59714,7 @@
       </c>
       <c r="G1743" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59749,7 +59749,7 @@
       </c>
       <c r="G1744" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59784,7 +59784,7 @@
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59819,7 +59819,7 @@
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59854,7 +59854,7 @@
       </c>
       <c r="G1747" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59889,7 +59889,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59924,7 +59924,7 @@
       </c>
       <c r="G1749" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59959,7 +59959,7 @@
       </c>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -59994,7 +59994,7 @@
       </c>
       <c r="G1751" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60029,7 +60029,7 @@
       </c>
       <c r="G1752" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60064,7 +60064,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60099,7 +60099,7 @@
       </c>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60134,7 +60134,7 @@
       </c>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60169,7 +60169,7 @@
       </c>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60204,7 +60204,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60229,7 +60229,7 @@
       </c>
       <c r="E1758" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1758" t="inlineStr">
@@ -60239,7 +60239,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60260,11 +60260,11 @@
         </is>
       </c>
       <c r="D1759" t="n">
-        <v>63.5</v>
+        <v>114.9</v>
       </c>
       <c r="E1759" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1759" t="inlineStr">
@@ -60274,7 +60274,7 @@
       </c>
       <c r="G1759" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60299,7 +60299,7 @@
       </c>
       <c r="E1760" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1760" t="inlineStr">
@@ -60309,7 +60309,7 @@
       </c>
       <c r="G1760" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60334,7 +60334,7 @@
       </c>
       <c r="E1761" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1761" t="inlineStr">
@@ -60344,7 +60344,7 @@
       </c>
       <c r="G1761" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60365,11 +60365,11 @@
         </is>
       </c>
       <c r="D1762" t="n">
-        <v>15</v>
+        <v>59.9</v>
       </c>
       <c r="E1762" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1762" t="inlineStr">
@@ -60379,7 +60379,7 @@
       </c>
       <c r="G1762" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60404,7 +60404,7 @@
       </c>
       <c r="E1763" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1763" t="inlineStr">
@@ -60414,7 +60414,7 @@
       </c>
       <c r="G1763" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60439,7 +60439,7 @@
       </c>
       <c r="E1764" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1764" t="inlineStr">
@@ -60449,7 +60449,7 @@
       </c>
       <c r="G1764" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60474,7 +60474,7 @@
       </c>
       <c r="E1765" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1765" t="inlineStr">
@@ -60484,7 +60484,7 @@
       </c>
       <c r="G1765" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60505,11 +60505,11 @@
         </is>
       </c>
       <c r="D1766" t="n">
-        <v>644.9</v>
+        <v>119.95</v>
       </c>
       <c r="E1766" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1766" t="inlineStr">
@@ -60519,7 +60519,7 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60540,11 +60540,11 @@
         </is>
       </c>
       <c r="D1767" t="n">
-        <v>169.95</v>
+        <v>250.57</v>
       </c>
       <c r="E1767" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1767" t="inlineStr">
@@ -60554,7 +60554,7 @@
       </c>
       <c r="G1767" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60579,7 +60579,7 @@
       </c>
       <c r="E1768" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1768" t="inlineStr">
@@ -60589,7 +60589,7 @@
       </c>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60610,11 +60610,11 @@
         </is>
       </c>
       <c r="D1769" t="n">
-        <v>22.25</v>
+        <v>459.95</v>
       </c>
       <c r="E1769" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1769" t="inlineStr">
@@ -60624,7 +60624,7 @@
       </c>
       <c r="G1769" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60645,11 +60645,11 @@
         </is>
       </c>
       <c r="D1770" t="n">
-        <v>140</v>
+        <v>119.9</v>
       </c>
       <c r="E1770" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1770" t="inlineStr">
@@ -60659,7 +60659,7 @@
       </c>
       <c r="G1770" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60680,11 +60680,11 @@
         </is>
       </c>
       <c r="D1771" t="n">
-        <v>1085.95</v>
+        <v>119.95</v>
       </c>
       <c r="E1771" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1771" t="inlineStr">
@@ -60694,7 +60694,7 @@
       </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60715,11 +60715,11 @@
         </is>
       </c>
       <c r="D1772" t="n">
-        <v>249.95</v>
+        <v>119.95</v>
       </c>
       <c r="E1772" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1772" t="inlineStr">
@@ -60729,7 +60729,7 @@
       </c>
       <c r="G1772" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60754,7 +60754,7 @@
       </c>
       <c r="E1773" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1773" t="inlineStr">
@@ -60764,7 +60764,7 @@
       </c>
       <c r="G1773" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60785,11 +60785,11 @@
         </is>
       </c>
       <c r="D1774" t="n">
-        <v>200</v>
+        <v>114.9</v>
       </c>
       <c r="E1774" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1774" t="inlineStr">
@@ -60799,7 +60799,7 @@
       </c>
       <c r="G1774" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60820,11 +60820,11 @@
         </is>
       </c>
       <c r="D1775" t="n">
-        <v>326.5</v>
+        <v>175</v>
       </c>
       <c r="E1775" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1775" t="inlineStr">
@@ -60834,7 +60834,7 @@
       </c>
       <c r="G1775" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60855,11 +60855,11 @@
         </is>
       </c>
       <c r="D1776" t="n">
-        <v>59.95</v>
+        <v>109.9</v>
       </c>
       <c r="E1776" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1776" t="inlineStr">
@@ -60869,7 +60869,7 @@
       </c>
       <c r="G1776" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60890,11 +60890,11 @@
         </is>
       </c>
       <c r="D1777" t="n">
-        <v>309.9</v>
+        <v>109.9</v>
       </c>
       <c r="E1777" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1777" t="inlineStr">
@@ -60904,7 +60904,7 @@
       </c>
       <c r="G1777" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60929,7 +60929,7 @@
       </c>
       <c r="E1778" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1778" t="inlineStr">
@@ -60939,7 +60939,7 @@
       </c>
       <c r="G1778" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60960,11 +60960,11 @@
         </is>
       </c>
       <c r="D1779" t="n">
-        <v>89.25</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E1779" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1779" t="inlineStr">
@@ -60974,7 +60974,7 @@
       </c>
       <c r="G1779" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -60999,7 +60999,7 @@
       </c>
       <c r="E1780" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1780" t="inlineStr">
@@ -61009,7 +61009,7 @@
       </c>
       <c r="G1780" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61034,7 +61034,7 @@
       </c>
       <c r="E1781" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1781" t="inlineStr">
@@ -61044,7 +61044,7 @@
       </c>
       <c r="G1781" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61065,11 +61065,11 @@
         </is>
       </c>
       <c r="D1782" t="n">
-        <v>57.75</v>
+        <v>89.95</v>
       </c>
       <c r="E1782" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1782" t="inlineStr">
@@ -61079,7 +61079,7 @@
       </c>
       <c r="G1782" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61100,11 +61100,11 @@
         </is>
       </c>
       <c r="D1783" t="n">
-        <v>52.95</v>
+        <v>69.95</v>
       </c>
       <c r="E1783" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1783" t="inlineStr">
@@ -61114,7 +61114,7 @@
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61135,11 +61135,11 @@
         </is>
       </c>
       <c r="D1784" t="n">
-        <v>129.95</v>
+        <v>89.95</v>
       </c>
       <c r="E1784" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1784" t="inlineStr">
@@ -61149,7 +61149,7 @@
       </c>
       <c r="G1784" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61170,11 +61170,11 @@
         </is>
       </c>
       <c r="D1785" t="n">
-        <v>129.95</v>
+        <v>49.95</v>
       </c>
       <c r="E1785" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1785" t="inlineStr">
@@ -61184,7 +61184,7 @@
       </c>
       <c r="G1785" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61205,11 +61205,11 @@
         </is>
       </c>
       <c r="D1786" t="n">
-        <v>149.95</v>
+        <v>69.95</v>
       </c>
       <c r="E1786" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1786" t="inlineStr">
@@ -61219,7 +61219,7 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61254,7 +61254,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61289,7 +61289,7 @@
       </c>
       <c r="G1788" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61324,7 +61324,7 @@
       </c>
       <c r="G1789" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61359,7 +61359,7 @@
       </c>
       <c r="G1790" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61394,7 +61394,7 @@
       </c>
       <c r="G1791" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61429,7 +61429,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61464,7 +61464,7 @@
       </c>
       <c r="G1793" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61499,7 +61499,7 @@
       </c>
       <c r="G1794" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61534,7 +61534,7 @@
       </c>
       <c r="G1795" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61569,7 +61569,7 @@
       </c>
       <c r="G1796" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61604,7 +61604,7 @@
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61639,7 +61639,7 @@
       </c>
       <c r="G1798" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61674,7 +61674,7 @@
       </c>
       <c r="G1799" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61709,7 +61709,7 @@
       </c>
       <c r="G1800" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61744,7 +61744,7 @@
       </c>
       <c r="G1801" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61779,7 +61779,7 @@
       </c>
       <c r="G1802" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61814,7 +61814,7 @@
       </c>
       <c r="G1803" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61849,7 +61849,7 @@
       </c>
       <c r="G1804" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61884,7 +61884,7 @@
       </c>
       <c r="G1805" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61919,7 +61919,7 @@
       </c>
       <c r="G1806" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61954,7 +61954,7 @@
       </c>
       <c r="G1807" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -61989,7 +61989,7 @@
       </c>
       <c r="G1808" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62010,11 +62010,11 @@
         </is>
       </c>
       <c r="D1809" t="n">
-        <v>99.95</v>
+        <v>69.95</v>
       </c>
       <c r="E1809" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1809" t="inlineStr">
@@ -62024,7 +62024,7 @@
       </c>
       <c r="G1809" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62045,11 +62045,11 @@
         </is>
       </c>
       <c r="D1810" t="n">
-        <v>139.95</v>
+        <v>99.95</v>
       </c>
       <c r="E1810" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1810" t="inlineStr">
@@ -62059,7 +62059,7 @@
       </c>
       <c r="G1810" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62084,7 +62084,7 @@
       </c>
       <c r="E1811" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1811" t="inlineStr">
@@ -62094,7 +62094,7 @@
       </c>
       <c r="G1811" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62115,11 +62115,11 @@
         </is>
       </c>
       <c r="D1812" t="n">
-        <v>139.95</v>
+        <v>69.95</v>
       </c>
       <c r="E1812" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1812" t="inlineStr">
@@ -62129,7 +62129,7 @@
       </c>
       <c r="G1812" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62150,11 +62150,11 @@
         </is>
       </c>
       <c r="D1813" t="n">
-        <v>69.95</v>
+        <v>99.95</v>
       </c>
       <c r="E1813" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1813" t="inlineStr">
@@ -62164,7 +62164,7 @@
       </c>
       <c r="G1813" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62185,11 +62185,11 @@
         </is>
       </c>
       <c r="D1814" t="n">
-        <v>29.95</v>
+        <v>59.95</v>
       </c>
       <c r="E1814" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1814" t="inlineStr">
@@ -62199,7 +62199,7 @@
       </c>
       <c r="G1814" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62224,7 +62224,7 @@
       </c>
       <c r="E1815" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1815" t="inlineStr">
@@ -62234,7 +62234,7 @@
       </c>
       <c r="G1815" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62259,7 +62259,7 @@
       </c>
       <c r="E1816" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1816" t="inlineStr">
@@ -62269,7 +62269,7 @@
       </c>
       <c r="G1816" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62294,7 +62294,7 @@
       </c>
       <c r="E1817" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1817" t="inlineStr">
@@ -62304,7 +62304,7 @@
       </c>
       <c r="G1817" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62325,11 +62325,11 @@
         </is>
       </c>
       <c r="D1818" t="n">
-        <v>294.95</v>
+        <v>235.9</v>
       </c>
       <c r="E1818" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1818" t="inlineStr">
@@ -62339,7 +62339,7 @@
       </c>
       <c r="G1818" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62364,7 +62364,7 @@
       </c>
       <c r="E1819" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1819" t="inlineStr">
@@ -62374,7 +62374,7 @@
       </c>
       <c r="G1819" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62395,11 +62395,11 @@
         </is>
       </c>
       <c r="D1820" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1820" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1820" t="inlineStr">
@@ -62409,7 +62409,7 @@
       </c>
       <c r="G1820" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62434,7 +62434,7 @@
       </c>
       <c r="E1821" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1821" t="inlineStr">
@@ -62444,7 +62444,7 @@
       </c>
       <c r="G1821" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62469,7 +62469,7 @@
       </c>
       <c r="E1822" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1822" t="inlineStr">
@@ -62479,7 +62479,7 @@
       </c>
       <c r="G1822" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62500,11 +62500,11 @@
         </is>
       </c>
       <c r="D1823" t="n">
-        <v>19.95</v>
+        <v>39.95</v>
       </c>
       <c r="E1823" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1823" t="inlineStr">
@@ -62514,7 +62514,7 @@
       </c>
       <c r="G1823" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62535,11 +62535,11 @@
         </is>
       </c>
       <c r="D1824" t="n">
-        <v>124.95</v>
+        <v>94.47</v>
       </c>
       <c r="E1824" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1824" t="inlineStr">
@@ -62549,7 +62549,7 @@
       </c>
       <c r="G1824" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62570,11 +62570,11 @@
         </is>
       </c>
       <c r="D1825" t="n">
-        <v>49.95</v>
+        <v>29.95</v>
       </c>
       <c r="E1825" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1825" t="inlineStr">
@@ -62584,7 +62584,7 @@
       </c>
       <c r="G1825" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62605,11 +62605,11 @@
         </is>
       </c>
       <c r="D1826" t="n">
-        <v>13.95</v>
+        <v>39.95</v>
       </c>
       <c r="E1826" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1826" t="inlineStr">
@@ -62619,7 +62619,7 @@
       </c>
       <c r="G1826" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62640,11 +62640,11 @@
         </is>
       </c>
       <c r="D1827" t="n">
-        <v>24.95</v>
+        <v>29.95</v>
       </c>
       <c r="E1827" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1827" t="inlineStr">
@@ -62654,7 +62654,7 @@
       </c>
       <c r="G1827" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62679,7 +62679,7 @@
       </c>
       <c r="E1828" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1828" t="inlineStr">
@@ -62689,7 +62689,7 @@
       </c>
       <c r="G1828" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62714,7 +62714,7 @@
       </c>
       <c r="E1829" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1829" t="inlineStr">
@@ -62724,7 +62724,7 @@
       </c>
       <c r="G1829" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62749,7 +62749,7 @@
       </c>
       <c r="E1830" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1830" t="inlineStr">
@@ -62759,7 +62759,7 @@
       </c>
       <c r="G1830" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62784,7 +62784,7 @@
       </c>
       <c r="E1831" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1831" t="inlineStr">
@@ -62794,7 +62794,7 @@
       </c>
       <c r="G1831" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62815,11 +62815,11 @@
         </is>
       </c>
       <c r="D1832" t="n">
-        <v>49.95</v>
+        <v>39.95</v>
       </c>
       <c r="E1832" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1832" t="inlineStr">
@@ -62829,7 +62829,7 @@
       </c>
       <c r="G1832" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62850,11 +62850,11 @@
         </is>
       </c>
       <c r="D1833" t="n">
-        <v>49.95</v>
+        <v>29.95</v>
       </c>
       <c r="E1833" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1833" t="inlineStr">
@@ -62864,7 +62864,7 @@
       </c>
       <c r="G1833" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62889,7 +62889,7 @@
       </c>
       <c r="E1834" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1834" t="inlineStr">
@@ -62899,7 +62899,7 @@
       </c>
       <c r="G1834" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62920,11 +62920,11 @@
         </is>
       </c>
       <c r="D1835" t="n">
-        <v>49.95</v>
+        <v>29.95</v>
       </c>
       <c r="E1835" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1835" t="inlineStr">
@@ -62934,7 +62934,7 @@
       </c>
       <c r="G1835" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62955,11 +62955,11 @@
         </is>
       </c>
       <c r="D1836" t="n">
-        <v>204.95</v>
+        <v>119.95</v>
       </c>
       <c r="E1836" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1836" t="inlineStr">
@@ -62969,7 +62969,7 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -62990,11 +62990,11 @@
         </is>
       </c>
       <c r="D1837" t="n">
-        <v>44.95</v>
+        <v>29.95</v>
       </c>
       <c r="E1837" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1837" t="inlineStr">
@@ -63004,7 +63004,7 @@
       </c>
       <c r="G1837" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63025,11 +63025,11 @@
         </is>
       </c>
       <c r="D1838" t="n">
-        <v>56.95</v>
+        <v>114.9</v>
       </c>
       <c r="E1838" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1838" t="inlineStr">
@@ -63039,7 +63039,7 @@
       </c>
       <c r="G1838" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63060,11 +63060,11 @@
         </is>
       </c>
       <c r="D1839" t="n">
-        <v>43.95</v>
+        <v>104.95</v>
       </c>
       <c r="E1839" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1839" t="inlineStr">
@@ -63074,7 +63074,7 @@
       </c>
       <c r="G1839" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63099,7 +63099,7 @@
       </c>
       <c r="E1840" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1840" t="inlineStr">
@@ -63109,7 +63109,7 @@
       </c>
       <c r="G1840" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63130,11 +63130,11 @@
         </is>
       </c>
       <c r="D1841" t="n">
-        <v>119.95</v>
+        <v>83.97</v>
       </c>
       <c r="E1841" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1841" t="inlineStr">
@@ -63144,7 +63144,7 @@
       </c>
       <c r="G1841" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63165,11 +63165,11 @@
         </is>
       </c>
       <c r="D1842" t="n">
-        <v>199.95</v>
+        <v>74.95</v>
       </c>
       <c r="E1842" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1842" t="inlineStr">
@@ -63179,7 +63179,7 @@
       </c>
       <c r="G1842" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="E1843" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1843" t="inlineStr">
@@ -63214,7 +63214,7 @@
       </c>
       <c r="G1843" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63239,7 +63239,7 @@
       </c>
       <c r="E1844" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1844" t="inlineStr">
@@ -63249,7 +63249,7 @@
       </c>
       <c r="G1844" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63270,11 +63270,11 @@
         </is>
       </c>
       <c r="D1845" t="n">
-        <v>51.95</v>
+        <v>104.95</v>
       </c>
       <c r="E1845" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1845" t="inlineStr">
@@ -63284,7 +63284,7 @@
       </c>
       <c r="G1845" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63305,11 +63305,11 @@
         </is>
       </c>
       <c r="D1846" t="n">
-        <v>67.95</v>
+        <v>49.95</v>
       </c>
       <c r="E1846" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1846" t="inlineStr">
@@ -63319,7 +63319,7 @@
       </c>
       <c r="G1846" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63340,11 +63340,11 @@
         </is>
       </c>
       <c r="D1847" t="n">
-        <v>217.95</v>
+        <v>49.95</v>
       </c>
       <c r="E1847" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1847" t="inlineStr">
@@ -63354,7 +63354,7 @@
       </c>
       <c r="G1847" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63375,11 +63375,11 @@
         </is>
       </c>
       <c r="D1848" t="n">
-        <v>154.95</v>
+        <v>124.5</v>
       </c>
       <c r="E1848" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1848" t="inlineStr">
@@ -63389,7 +63389,7 @@
       </c>
       <c r="G1848" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63414,7 +63414,7 @@
       </c>
       <c r="E1849" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1849" t="inlineStr">
@@ -63424,7 +63424,7 @@
       </c>
       <c r="G1849" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63449,7 +63449,7 @@
       </c>
       <c r="E1850" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1850" t="inlineStr">
@@ -63459,7 +63459,7 @@
       </c>
       <c r="G1850" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63484,7 +63484,7 @@
       </c>
       <c r="E1851" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1851" t="inlineStr">
@@ -63494,7 +63494,7 @@
       </c>
       <c r="G1851" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63519,7 +63519,7 @@
       </c>
       <c r="E1852" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1852" t="inlineStr">
@@ -63529,7 +63529,7 @@
       </c>
       <c r="G1852" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63550,11 +63550,11 @@
         </is>
       </c>
       <c r="D1853" t="n">
-        <v>33.95</v>
+        <v>129.95</v>
       </c>
       <c r="E1853" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1853" t="inlineStr">
@@ -63564,7 +63564,7 @@
       </c>
       <c r="G1853" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63585,11 +63585,11 @@
         </is>
       </c>
       <c r="D1854" t="n">
-        <v>149.95</v>
+        <v>119.95</v>
       </c>
       <c r="E1854" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1854" t="inlineStr">
@@ -63599,7 +63599,7 @@
       </c>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63620,11 +63620,11 @@
         </is>
       </c>
       <c r="D1855" t="n">
-        <v>100</v>
+        <v>114.9</v>
       </c>
       <c r="E1855" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1855" t="inlineStr">
@@ -63634,7 +63634,7 @@
       </c>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63655,11 +63655,11 @@
         </is>
       </c>
       <c r="D1856" t="n">
-        <v>83.45</v>
+        <v>249.9</v>
       </c>
       <c r="E1856" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1856" t="inlineStr">
@@ -63669,7 +63669,7 @@
       </c>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63690,11 +63690,11 @@
         </is>
       </c>
       <c r="D1857" t="n">
-        <v>295.95</v>
+        <v>129.95</v>
       </c>
       <c r="E1857" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1857" t="inlineStr">
@@ -63704,7 +63704,7 @@
       </c>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63725,11 +63725,11 @@
         </is>
       </c>
       <c r="D1858" t="n">
-        <v>27.45</v>
+        <v>54.95</v>
       </c>
       <c r="E1858" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1858" t="inlineStr">
@@ -63739,7 +63739,7 @@
       </c>
       <c r="G1858" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63764,7 +63764,7 @@
       </c>
       <c r="E1859" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1859" t="inlineStr">
@@ -63774,7 +63774,7 @@
       </c>
       <c r="G1859" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63799,7 +63799,7 @@
       </c>
       <c r="E1860" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1860" t="inlineStr">
@@ -63809,7 +63809,7 @@
       </c>
       <c r="G1860" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63830,11 +63830,11 @@
         </is>
       </c>
       <c r="D1861" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E1861" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1861" t="inlineStr">
@@ -63844,7 +63844,7 @@
       </c>
       <c r="G1861" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63865,11 +63865,11 @@
         </is>
       </c>
       <c r="D1862" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E1862" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1862" t="inlineStr">
@@ -63879,7 +63879,7 @@
       </c>
       <c r="G1862" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63900,11 +63900,11 @@
         </is>
       </c>
       <c r="D1863" t="n">
-        <v>54.95</v>
+        <v>109.9</v>
       </c>
       <c r="E1863" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1863" t="inlineStr">
@@ -63914,7 +63914,7 @@
       </c>
       <c r="G1863" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63935,11 +63935,11 @@
         </is>
       </c>
       <c r="D1864" t="n">
-        <v>11.5</v>
+        <v>30.75</v>
       </c>
       <c r="E1864" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1864" t="inlineStr">
@@ -63949,7 +63949,7 @@
       </c>
       <c r="G1864" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -63970,11 +63970,11 @@
         </is>
       </c>
       <c r="D1865" t="n">
-        <v>64.95</v>
+        <v>49</v>
       </c>
       <c r="E1865" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1865" t="inlineStr">
@@ -63984,7 +63984,7 @@
       </c>
       <c r="G1865" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64019,7 +64019,7 @@
       </c>
       <c r="G1866" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64054,7 +64054,7 @@
       </c>
       <c r="G1867" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64089,7 +64089,7 @@
       </c>
       <c r="G1868" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64124,7 +64124,7 @@
       </c>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64159,7 +64159,7 @@
       </c>
       <c r="G1870" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64194,7 +64194,7 @@
       </c>
       <c r="G1871" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64229,7 +64229,7 @@
       </c>
       <c r="G1872" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64264,7 +64264,7 @@
       </c>
       <c r="G1873" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64299,7 +64299,7 @@
       </c>
       <c r="G1874" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64334,7 +64334,7 @@
       </c>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64369,7 +64369,7 @@
       </c>
       <c r="G1876" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64404,7 +64404,7 @@
       </c>
       <c r="G1877" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64439,7 +64439,7 @@
       </c>
       <c r="G1878" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64474,7 +64474,7 @@
       </c>
       <c r="G1879" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64509,7 +64509,7 @@
       </c>
       <c r="G1880" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64544,7 +64544,7 @@
       </c>
       <c r="G1881" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64579,7 +64579,7 @@
       </c>
       <c r="G1882" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64614,7 +64614,7 @@
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64649,7 +64649,7 @@
       </c>
       <c r="G1884" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64684,7 +64684,7 @@
       </c>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64719,7 +64719,7 @@
       </c>
       <c r="G1886" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64754,7 +64754,7 @@
       </c>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64789,7 +64789,7 @@
       </c>
       <c r="G1888" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64824,7 +64824,7 @@
       </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64859,7 +64859,7 @@
       </c>
       <c r="G1890" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64894,7 +64894,7 @@
       </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64929,7 +64929,7 @@
       </c>
       <c r="G1892" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64964,7 +64964,7 @@
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -64999,7 +64999,7 @@
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65034,7 +65034,7 @@
       </c>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65069,7 +65069,7 @@
       </c>
       <c r="G1896" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65104,7 +65104,7 @@
       </c>
       <c r="G1897" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65139,7 +65139,7 @@
       </c>
       <c r="G1898" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65174,7 +65174,7 @@
       </c>
       <c r="G1899" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65209,7 +65209,7 @@
       </c>
       <c r="G1900" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65244,7 +65244,7 @@
       </c>
       <c r="G1901" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65279,7 +65279,7 @@
       </c>
       <c r="G1902" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65314,7 +65314,7 @@
       </c>
       <c r="G1903" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65349,7 +65349,7 @@
       </c>
       <c r="G1904" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65384,7 +65384,7 @@
       </c>
       <c r="G1905" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65419,7 +65419,7 @@
       </c>
       <c r="G1906" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65454,7 +65454,7 @@
       </c>
       <c r="G1907" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65489,7 +65489,7 @@
       </c>
       <c r="G1908" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65524,7 +65524,7 @@
       </c>
       <c r="G1909" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65559,7 +65559,7 @@
       </c>
       <c r="G1910" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65594,7 +65594,7 @@
       </c>
       <c r="G1911" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65629,7 +65629,7 @@
       </c>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65664,7 +65664,7 @@
       </c>
       <c r="G1913" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65699,7 +65699,7 @@
       </c>
       <c r="G1914" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65734,7 +65734,7 @@
       </c>
       <c r="G1915" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65769,7 +65769,7 @@
       </c>
       <c r="G1916" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65804,7 +65804,7 @@
       </c>
       <c r="G1917" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65839,7 +65839,7 @@
       </c>
       <c r="G1918" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65874,7 +65874,7 @@
       </c>
       <c r="G1919" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65909,7 +65909,7 @@
       </c>
       <c r="G1920" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65944,7 +65944,7 @@
       </c>
       <c r="G1921" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -65979,7 +65979,7 @@
       </c>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66014,7 +66014,7 @@
       </c>
       <c r="G1923" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66049,7 +66049,7 @@
       </c>
       <c r="G1924" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="G1925" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66119,7 +66119,7 @@
       </c>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66154,7 +66154,7 @@
       </c>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66189,7 +66189,7 @@
       </c>
       <c r="G1928" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66224,7 +66224,7 @@
       </c>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66259,7 +66259,7 @@
       </c>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66294,7 +66294,7 @@
       </c>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66329,7 +66329,7 @@
       </c>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66364,7 +66364,7 @@
       </c>
       <c r="G1933" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66399,7 +66399,7 @@
       </c>
       <c r="G1934" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66434,7 +66434,7 @@
       </c>
       <c r="G1935" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66469,7 +66469,7 @@
       </c>
       <c r="G1936" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66504,7 +66504,7 @@
       </c>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66539,7 +66539,7 @@
       </c>
       <c r="G1938" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66574,7 +66574,7 @@
       </c>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66609,7 +66609,7 @@
       </c>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66644,7 +66644,7 @@
       </c>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66679,7 +66679,7 @@
       </c>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66714,7 +66714,7 @@
       </c>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66749,7 +66749,7 @@
       </c>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66784,7 +66784,7 @@
       </c>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66819,7 +66819,7 @@
       </c>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66854,7 +66854,7 @@
       </c>
       <c r="G1947" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66889,7 +66889,7 @@
       </c>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66924,7 +66924,7 @@
       </c>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66959,7 +66959,7 @@
       </c>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -66994,7 +66994,7 @@
       </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67029,7 +67029,7 @@
       </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67064,7 +67064,7 @@
       </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67099,7 +67099,7 @@
       </c>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67134,7 +67134,7 @@
       </c>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67169,7 +67169,7 @@
       </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67204,7 +67204,7 @@
       </c>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67239,7 +67239,7 @@
       </c>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67274,7 +67274,7 @@
       </c>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67309,7 +67309,7 @@
       </c>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67344,7 +67344,7 @@
       </c>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67379,7 +67379,7 @@
       </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67414,7 +67414,7 @@
       </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67449,7 +67449,7 @@
       </c>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67484,7 +67484,7 @@
       </c>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67519,7 +67519,7 @@
       </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67554,7 +67554,7 @@
       </c>
       <c r="G1967" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67589,7 +67589,7 @@
       </c>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67624,7 +67624,7 @@
       </c>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67659,7 +67659,7 @@
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67694,7 +67694,7 @@
       </c>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67729,7 +67729,7 @@
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67764,7 +67764,7 @@
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67799,7 +67799,7 @@
       </c>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67834,7 +67834,7 @@
       </c>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67859,7 +67859,7 @@
       </c>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr">
@@ -67869,7 +67869,7 @@
       </c>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67890,11 +67890,11 @@
         </is>
       </c>
       <c r="D1977" t="n">
-        <v>99.95</v>
+        <v>69.95</v>
       </c>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr">
@@ -67904,7 +67904,7 @@
       </c>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67925,11 +67925,11 @@
         </is>
       </c>
       <c r="D1978" t="n">
-        <v>29.95</v>
+        <v>89.95</v>
       </c>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr">
@@ -67939,7 +67939,7 @@
       </c>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67960,11 +67960,11 @@
         </is>
       </c>
       <c r="D1979" t="n">
-        <v>134.95</v>
+        <v>99.95</v>
       </c>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr">
@@ -67974,7 +67974,7 @@
       </c>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -67999,7 +67999,7 @@
       </c>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr">
@@ -68009,7 +68009,7 @@
       </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68044,7 +68044,7 @@
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68079,7 +68079,7 @@
       </c>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68114,7 +68114,7 @@
       </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68149,7 +68149,7 @@
       </c>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68184,7 +68184,7 @@
       </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68219,7 +68219,7 @@
       </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68254,7 +68254,7 @@
       </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68289,7 +68289,7 @@
       </c>
       <c r="G1988" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68324,7 +68324,7 @@
       </c>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68359,7 +68359,7 @@
       </c>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68394,7 +68394,7 @@
       </c>
       <c r="G1991" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68429,7 +68429,7 @@
       </c>
       <c r="G1992" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68464,7 +68464,7 @@
       </c>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68499,7 +68499,7 @@
       </c>
       <c r="G1994" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68534,7 +68534,7 @@
       </c>
       <c r="G1995" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68569,7 +68569,7 @@
       </c>
       <c r="G1996" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68604,7 +68604,7 @@
       </c>
       <c r="G1997" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68639,7 +68639,7 @@
       </c>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68674,7 +68674,7 @@
       </c>
       <c r="G1999" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68709,7 +68709,7 @@
       </c>
       <c r="G2000" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68744,7 +68744,7 @@
       </c>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68779,7 +68779,7 @@
       </c>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68814,7 +68814,7 @@
       </c>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68849,7 +68849,7 @@
       </c>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68884,7 +68884,7 @@
       </c>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68919,7 +68919,7 @@
       </c>
       <c r="G2006" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68954,7 +68954,7 @@
       </c>
       <c r="G2007" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -68979,7 +68979,7 @@
       </c>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr">
@@ -68989,7 +68989,7 @@
       </c>
       <c r="G2008" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -69014,7 +69014,7 @@
       </c>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr">
@@ -69024,7 +69024,7 @@
       </c>
       <c r="G2009" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>
@@ -69049,7 +69049,7 @@
       </c>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>Migros(HTML-V1)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr">
@@ -69059,7 +69059,7 @@
       </c>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:04</t>
         </is>
       </c>
     </row>

--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -56891,25 +56891,27 @@
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>0211001</t>
+          <t>0111208</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>Rakı</t>
-        </is>
-      </c>
-      <c r="D1663" t="n">
-        <v>1450</v>
+          <t>Bebek Sütü (Toz Karışım)</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>299.95</t>
+        </is>
       </c>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1663" t="inlineStr">
         <is>
-          <t>https://www.akademikpersonel.org/alkol-fiyatlari/</t>
+          <t>https://www.migros.com.tr/bebelac-bebek-devam-sutu-1-400-g-p-4cec83</t>
         </is>
       </c>
       <c r="G1663" t="inlineStr">
@@ -56926,25 +56928,27 @@
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>0211002</t>
+          <t>0114402</t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
         <is>
-          <t>Votka</t>
-        </is>
-      </c>
-      <c r="D1664" t="n">
-        <v>575</v>
+          <t>Kaşar Peyniri</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>114.9</t>
+        </is>
       </c>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1664" t="inlineStr">
         <is>
-          <t>https://www.akademikpersonel.org/alkol-fiyatlari/</t>
+          <t>https://www.migros.com.tr/bahcivan-kasar-peyniri-taze-700-g-p-9a1da1</t>
         </is>
       </c>
       <c r="G1664" t="inlineStr">
@@ -56961,25 +56965,27 @@
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>0211006</t>
+          <t>0117150</t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Viski</t>
-        </is>
-      </c>
-      <c r="D1665" t="n">
-        <v>775</v>
+          <t>Kırmızı Lahana</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
       </c>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr">
         <is>
-          <t>https://www.akademikpersonel.org/alkol-fiyatlari/</t>
+          <t>https://www.migros.com.tr/lahana-kirmizi-kg-p-1aec170</t>
         </is>
       </c>
       <c r="G1665" t="inlineStr">
@@ -56996,16 +57002,16 @@
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>0212101</t>
+          <t>0211001</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t>Şarap</t>
+          <t>Rakı</t>
         </is>
       </c>
       <c r="D1666" t="n">
-        <v>1080</v>
+        <v>1450</v>
       </c>
       <c r="E1666" t="inlineStr">
         <is>
@@ -57019,7 +57025,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57031,16 +57037,16 @@
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>0213001</t>
+          <t>0211002</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>Bira</t>
+          <t>Votka</t>
         </is>
       </c>
       <c r="D1667" t="n">
-        <v>85</v>
+        <v>575</v>
       </c>
       <c r="E1667" t="inlineStr">
         <is>
@@ -57054,7 +57060,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57066,16 +57072,16 @@
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>0220100</t>
+          <t>0211006</t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Sigaralar</t>
+          <t>Viski</t>
         </is>
       </c>
       <c r="D1668" t="n">
-        <v>105</v>
+        <v>775</v>
       </c>
       <c r="E1668" t="inlineStr">
         <is>
@@ -57084,12 +57090,12 @@
       </c>
       <c r="F1668" t="inlineStr">
         <is>
-          <t>https://www.antalyahurses.com/guncel-zamli-sigara-fiyatlari/530457</t>
+          <t>https://www.akademikpersonel.org/alkol-fiyatlari/</t>
         </is>
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57101,16 +57107,16 @@
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>0314005</t>
+          <t>0212101</t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t>Giysi Tamir Ücretleri</t>
+          <t>Şarap</t>
         </is>
       </c>
       <c r="D1669" t="n">
-        <v>195</v>
+        <v>1080</v>
       </c>
       <c r="E1669" t="inlineStr">
         <is>
@@ -57119,12 +57125,12 @@
       </c>
       <c r="F1669" t="inlineStr">
         <is>
-          <t>https://drycenter.com/fiyatlar/kuru-temizleme-fiyatlari</t>
+          <t>https://www.akademikpersonel.org/alkol-fiyatlari/</t>
         </is>
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57136,16 +57142,16 @@
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>0314007</t>
+          <t>0213001</t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
         <is>
-          <t>Kuru Temizleme Ücreti</t>
+          <t>Bira</t>
         </is>
       </c>
       <c r="D1670" t="n">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="E1670" t="inlineStr">
         <is>
@@ -57154,12 +57160,12 @@
       </c>
       <c r="F1670" t="inlineStr">
         <is>
-          <t>https://drycenter.com/fiyatlar/kuru-temizleme-fiyatlari</t>
+          <t>https://www.akademikpersonel.org/alkol-fiyatlari/</t>
         </is>
       </c>
       <c r="G1670" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57171,16 +57177,16 @@
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>0322001</t>
+          <t>0220100</t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>Ayakkabı Tamiri (Erkek)</t>
+          <t>Sigaralar</t>
         </is>
       </c>
       <c r="D1671" t="n">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="E1671" t="inlineStr">
         <is>
@@ -57189,12 +57195,12 @@
       </c>
       <c r="F1671" t="inlineStr">
         <is>
-          <t>https://drycenter.com/fiyatlar/kuru-temizleme-fiyatlari</t>
+          <t>https://www.antalyahurses.com/guncel-zamli-sigara-fiyatlari/530457</t>
         </is>
       </c>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57206,16 +57212,16 @@
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>0322002</t>
+          <t>0314005</t>
         </is>
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t>Ayakkabı Tamiri (Kadın)</t>
+          <t>Giysi Tamir Ücretleri</t>
         </is>
       </c>
       <c r="D1672" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="E1672" t="inlineStr">
         <is>
@@ -57229,7 +57235,7 @@
       </c>
       <c r="G1672" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57241,16 +57247,16 @@
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>0411101</t>
+          <t>0314007</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>Kiracı Tarafından Ödenen Gerçek Kira</t>
+          <t>Kuru Temizleme Ücreti</t>
         </is>
       </c>
       <c r="D1673" t="n">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="E1673" t="inlineStr">
         <is>
@@ -57259,12 +57265,12 @@
       </c>
       <c r="F1673" t="inlineStr">
         <is>
-          <t>https://www.emlakjet.com/ilan/besiktas-abbasaga-parkinda-80m2-21-deniz-manzarali-daire-ceyhun-emlak-18274020</t>
+          <t>https://drycenter.com/fiyatlar/kuru-temizleme-fiyatlari</t>
         </is>
       </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57276,16 +57282,16 @@
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>0441001</t>
+          <t>0322001</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>Su Faturası</t>
+          <t>Ayakkabı Tamiri (Erkek)</t>
         </is>
       </c>
       <c r="D1674" t="n">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="E1674" t="inlineStr">
         <is>
@@ -57294,12 +57300,12 @@
       </c>
       <c r="F1674" t="inlineStr">
         <is>
-          <t>https://iski.istanbul/abone-hizmetleri/abone-rehberi/su-birim-fiyatlari/</t>
+          <t>https://drycenter.com/fiyatlar/kuru-temizleme-fiyatlari</t>
         </is>
       </c>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57311,16 +57317,16 @@
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>0451001</t>
+          <t>0322002</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>Elektrik Ücreti</t>
+          <t>Ayakkabı Tamiri (Kadın)</t>
         </is>
       </c>
       <c r="D1675" t="n">
-        <v>2.59</v>
+        <v>250</v>
       </c>
       <c r="E1675" t="inlineStr">
         <is>
@@ -57329,12 +57335,12 @@
       </c>
       <c r="F1675" t="inlineStr">
         <is>
-          <t>https://solaravm.com/1-kw-kac-tl</t>
+          <t>https://drycenter.com/fiyatlar/kuru-temizleme-fiyatlari</t>
         </is>
       </c>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57346,16 +57352,16 @@
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>0452101</t>
+          <t>0411101</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
         <is>
-          <t>Doğalgaz Ücreti</t>
+          <t>Kiracı Tarafından Ödenen Gerçek Kira</t>
         </is>
       </c>
       <c r="D1676" t="n">
-        <v>1.58707641</v>
+        <v>30</v>
       </c>
       <c r="E1676" t="inlineStr">
         <is>
@@ -57364,12 +57370,12 @@
       </c>
       <c r="F1676" t="inlineStr">
         <is>
-          <t>https://www.bahcesehirgaz.com.tr/dogal-gaz-birim-fiyat-tarifesi/</t>
+          <t>https://www.emlakjet.com/ilan/besiktas-abbasaga-parkinda-80m2-21-deniz-manzarali-daire-ceyhun-emlak-18274020</t>
         </is>
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57381,16 +57387,16 @@
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>0452102</t>
+          <t>0441001</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>Doğalgaz Abonman Ücreti</t>
+          <t>Su Faturası</t>
         </is>
       </c>
       <c r="D1677" t="n">
-        <v>0.90773327</v>
+        <v>52</v>
       </c>
       <c r="E1677" t="inlineStr">
         <is>
@@ -57399,12 +57405,12 @@
       </c>
       <c r="F1677" t="inlineStr">
         <is>
-          <t>https://www.bahcesehirgaz.com.tr/dogal-gaz-birim-fiyat-tarifesi/</t>
+          <t>https://iski.istanbul/abone-hizmetleri/abone-rehberi/su-birim-fiyatlari/</t>
         </is>
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57416,16 +57422,16 @@
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>0562104</t>
+          <t>0451001</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t>Gündelikçi Ücreti</t>
+          <t>Elektrik Ücreti</t>
         </is>
       </c>
       <c r="D1678" t="n">
-        <v>558</v>
+        <v>2.59</v>
       </c>
       <c r="E1678" t="inlineStr">
         <is>
@@ -57434,12 +57440,12 @@
       </c>
       <c r="F1678" t="inlineStr">
         <is>
-          <t>https://armut.com/fiyatlari/istanbul-ev-temizligi_191_34</t>
+          <t>https://solaravm.com/1-kw-kac-tl</t>
         </is>
       </c>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57451,16 +57457,16 @@
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>0562202</t>
+          <t>0452101</t>
         </is>
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>Halı Temizleme</t>
+          <t>Doğalgaz Ücreti</t>
         </is>
       </c>
       <c r="D1679" t="n">
-        <v>500</v>
+        <v>1.58707641</v>
       </c>
       <c r="E1679" t="inlineStr">
         <is>
@@ -57469,12 +57475,12 @@
       </c>
       <c r="F1679" t="inlineStr">
         <is>
-          <t>https://armut.com/fiyatlari/istanbul-hali-yikama-temizleme_87_34</t>
+          <t>https://www.bahcesehirgaz.com.tr/dogal-gaz-birim-fiyat-tarifesi/</t>
         </is>
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57486,16 +57492,16 @@
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>0611001</t>
+          <t>0452102</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
         <is>
-          <t>İlaçlar</t>
+          <t>Doğalgaz Abonman Ücreti</t>
         </is>
       </c>
       <c r="D1680" t="n">
-        <v>57</v>
+        <v>0.90773327</v>
       </c>
       <c r="E1680" t="inlineStr">
         <is>
@@ -57504,12 +57510,12 @@
       </c>
       <c r="F1680" t="inlineStr">
         <is>
-          <t>https://selcukecza.com.tr/sayfa/ilac-fiyat-ve-barkod-arama/ilac-ve-barkod-arama?barcode=8699717010109&amp;firma=0&amp;ilacname=&amp;kdv=0&amp;gun=01&amp;ay=01&amp;yil=2023</t>
+          <t>https://www.bahcesehirgaz.com.tr/dogal-gaz-birim-fiyat-tarifesi/</t>
         </is>
       </c>
       <c r="G1680" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57521,16 +57527,16 @@
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>0621201</t>
+          <t>0562104</t>
         </is>
       </c>
       <c r="C1681" t="inlineStr">
         <is>
-          <t>Doktor Muayene Ücreti ve Katılım Payları</t>
+          <t>Gündelikçi Ücreti</t>
         </is>
       </c>
       <c r="D1681" t="n">
-        <v>800</v>
+        <v>558</v>
       </c>
       <c r="E1681" t="inlineStr">
         <is>
@@ -57539,12 +57545,12 @@
       </c>
       <c r="F1681" t="inlineStr">
         <is>
-          <t>https://www.magdeburger.com.tr/blog/ozel-hastane-muayene-tahlil-ameliyat-ucretleri-ne-kadar#:~:text=Genel%20olarak%20doktor%20unvanlar%C4%B1na%20g%C3%B6re,muayene%20%C3%BCcretleri%3A%201000%20%E2%80%93%203000%20TL</t>
+          <t>https://armut.com/fiyatlari/istanbul-ev-temizligi_191_34</t>
         </is>
       </c>
       <c r="G1681" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57556,16 +57562,16 @@
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>0622001</t>
+          <t>0562202</t>
         </is>
       </c>
       <c r="C1682" t="inlineStr">
         <is>
-          <t>Diş Çekme Ücreti</t>
+          <t>Halı Temizleme</t>
         </is>
       </c>
       <c r="D1682" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E1682" t="inlineStr">
         <is>
@@ -57574,12 +57580,12 @@
       </c>
       <c r="F1682" t="inlineStr">
         <is>
-          <t>https://www.magdeburger.com.tr/blog/ozel-hastane-muayene-tahlil-ameliyat-ucretleri-ne-kadar#:~:text=Genel%20olarak%20doktor%20unvanlar%C4%B1na%20g%C3%B6re,muayene%20%C3%BCcretleri%3A%201000%20%E2%80%93%203000%20TL</t>
+          <t>https://armut.com/fiyatlari/istanbul-hali-yikama-temizleme_87_34</t>
         </is>
       </c>
       <c r="G1682" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57591,16 +57597,16 @@
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>0622002</t>
+          <t>0611001</t>
         </is>
       </c>
       <c r="C1683" t="inlineStr">
         <is>
-          <t>Diş Dolgu Ücreti</t>
+          <t>İlaçlar</t>
         </is>
       </c>
       <c r="D1683" t="n">
-        <v>750</v>
+        <v>57</v>
       </c>
       <c r="E1683" t="inlineStr">
         <is>
@@ -57609,12 +57615,12 @@
       </c>
       <c r="F1683" t="inlineStr">
         <is>
-          <t>https://www.magdeburger.com.tr/blog/ozel-hastane-muayene-tahlil-ameliyat-ucretleri-ne-kadar#:~:text=Genel%20olarak%20doktor%20unvanlar%C4%B1na%20g%C3%B6re,muayene%20%C3%BCcretleri%3A%201000%20%E2%80%93%203000%20TL</t>
+          <t>https://selcukecza.com.tr/sayfa/ilac-fiyat-ve-barkod-arama/ilac-ve-barkod-arama?barcode=8699717010109&amp;firma=0&amp;ilacname=&amp;kdv=0&amp;gun=01&amp;ay=01&amp;yil=2023</t>
         </is>
       </c>
       <c r="G1683" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57626,16 +57632,16 @@
       </c>
       <c r="B1684" t="inlineStr">
         <is>
-          <t>0622007</t>
+          <t>0621201</t>
         </is>
       </c>
       <c r="C1684" t="inlineStr">
         <is>
-          <t>İmplant Tedavisi (Muayenehane)</t>
+          <t>Doktor Muayene Ücreti ve Katılım Payları</t>
         </is>
       </c>
       <c r="D1684" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="E1684" t="inlineStr">
         <is>
@@ -57649,7 +57655,7 @@
       </c>
       <c r="G1684" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57661,16 +57667,16 @@
       </c>
       <c r="B1685" t="inlineStr">
         <is>
-          <t>0623101</t>
+          <t>0622001</t>
         </is>
       </c>
       <c r="C1685" t="inlineStr">
         <is>
-          <t>Röntgen Ücreti</t>
+          <t>Diş Çekme Ücreti</t>
         </is>
       </c>
       <c r="D1685" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="E1685" t="inlineStr">
         <is>
@@ -57684,7 +57690,7 @@
       </c>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57696,16 +57702,16 @@
       </c>
       <c r="B1686" t="inlineStr">
         <is>
-          <t>0623102</t>
+          <t>0622002</t>
         </is>
       </c>
       <c r="C1686" t="inlineStr">
         <is>
-          <t>Ultrason Ücreti</t>
+          <t>Diş Dolgu Ücreti</t>
         </is>
       </c>
       <c r="D1686" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E1686" t="inlineStr">
         <is>
@@ -57719,7 +57725,7 @@
       </c>
       <c r="G1686" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57731,16 +57737,16 @@
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t>0623105</t>
+          <t>0622007</t>
         </is>
       </c>
       <c r="C1687" t="inlineStr">
         <is>
-          <t>Emar Ücreti</t>
+          <t>İmplant Tedavisi (Muayenehane)</t>
         </is>
       </c>
       <c r="D1687" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="E1687" t="inlineStr">
         <is>
@@ -57754,7 +57760,7 @@
       </c>
       <c r="G1687" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57766,12 +57772,12 @@
       </c>
       <c r="B1688" t="inlineStr">
         <is>
-          <t>0623108</t>
+          <t>0623101</t>
         </is>
       </c>
       <c r="C1688" t="inlineStr">
         <is>
-          <t>Labaratuvar Tahlil Ücretleri</t>
+          <t>Röntgen Ücreti</t>
         </is>
       </c>
       <c r="D1688" t="n">
@@ -57789,7 +57795,7 @@
       </c>
       <c r="G1688" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57801,16 +57807,16 @@
       </c>
       <c r="B1689" t="inlineStr">
         <is>
-          <t>0630002</t>
+          <t>0623102</t>
         </is>
       </c>
       <c r="C1689" t="inlineStr">
         <is>
-          <t>Ameliyat Ücreti</t>
+          <t>Ultrason Ücreti</t>
         </is>
       </c>
       <c r="D1689" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E1689" t="inlineStr">
         <is>
@@ -57824,7 +57830,7 @@
       </c>
       <c r="G1689" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57836,16 +57842,16 @@
       </c>
       <c r="B1690" t="inlineStr">
         <is>
-          <t>0630003</t>
+          <t>0623105</t>
         </is>
       </c>
       <c r="C1690" t="inlineStr">
         <is>
-          <t>Doğum Ücreti (Normal Doğum)</t>
+          <t>Emar Ücreti</t>
         </is>
       </c>
       <c r="D1690" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E1690" t="inlineStr">
         <is>
@@ -57859,7 +57865,7 @@
       </c>
       <c r="G1690" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57871,16 +57877,16 @@
       </c>
       <c r="B1691" t="inlineStr">
         <is>
-          <t>0630004</t>
+          <t>0623108</t>
         </is>
       </c>
       <c r="C1691" t="inlineStr">
         <is>
-          <t>Doğum Ücreti (Sezaryen)</t>
+          <t>Labaratuvar Tahlil Ücretleri</t>
         </is>
       </c>
       <c r="D1691" t="n">
-        <v>7000</v>
+        <v>750</v>
       </c>
       <c r="E1691" t="inlineStr">
         <is>
@@ -57894,7 +57900,7 @@
       </c>
       <c r="G1691" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57906,16 +57912,16 @@
       </c>
       <c r="B1692" t="inlineStr">
         <is>
-          <t>0711101</t>
+          <t>0630002</t>
         </is>
       </c>
       <c r="C1692" t="inlineStr">
         <is>
-          <t>Otomobil (Dizel)</t>
+          <t>Ameliyat Ücreti</t>
         </is>
       </c>
       <c r="D1692" t="n">
-        <v>2240000</v>
+        <v>2000</v>
       </c>
       <c r="E1692" t="inlineStr">
         <is>
@@ -57924,12 +57930,12 @@
       </c>
       <c r="F1692" t="inlineStr">
         <is>
-          <t>https://www.sifiraracal.com/fiat-modelleri/egea</t>
+          <t>https://www.magdeburger.com.tr/blog/ozel-hastane-muayene-tahlil-ameliyat-ucretleri-ne-kadar#:~:text=Genel%20olarak%20doktor%20unvanlar%C4%B1na%20g%C3%B6re,muayene%20%C3%BCcretleri%3A%201000%20%E2%80%93%203000%20TL</t>
         </is>
       </c>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57941,16 +57947,16 @@
       </c>
       <c r="B1693" t="inlineStr">
         <is>
-          <t>0711301</t>
+          <t>0630003</t>
         </is>
       </c>
       <c r="C1693" t="inlineStr">
         <is>
-          <t>Otomobil (Benzinli)</t>
+          <t>Doğum Ücreti (Normal Doğum)</t>
         </is>
       </c>
       <c r="D1693" t="n">
-        <v>2722000</v>
+        <v>1500</v>
       </c>
       <c r="E1693" t="inlineStr">
         <is>
@@ -57959,12 +57965,12 @@
       </c>
       <c r="F1693" t="inlineStr">
         <is>
-          <t>https://www.sifiraracal.com/renault-modelleri/clio</t>
+          <t>https://www.magdeburger.com.tr/blog/ozel-hastane-muayene-tahlil-ameliyat-ucretleri-ne-kadar#:~:text=Genel%20olarak%20doktor%20unvanlar%C4%B1na%20g%C3%B6re,muayene%20%C3%BCcretleri%3A%201000%20%E2%80%93%203000%20TL</t>
         </is>
       </c>
       <c r="G1693" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -57976,16 +57982,16 @@
       </c>
       <c r="B1694" t="inlineStr">
         <is>
-          <t>0711302</t>
+          <t>0630004</t>
         </is>
       </c>
       <c r="C1694" t="inlineStr">
         <is>
-          <t>Otomobil (Elektrikli)</t>
+          <t>Doğum Ücreti (Sezaryen)</t>
         </is>
       </c>
       <c r="D1694" t="n">
-        <v>1399000</v>
+        <v>7000</v>
       </c>
       <c r="E1694" t="inlineStr">
         <is>
@@ -57994,12 +58000,12 @@
       </c>
       <c r="F1694" t="inlineStr">
         <is>
-          <t>https://www.sifiraracal.com/togg-modelleri/t10x</t>
+          <t>https://www.magdeburger.com.tr/blog/ozel-hastane-muayene-tahlil-ameliyat-ucretleri-ne-kadar#:~:text=Genel%20olarak%20doktor%20unvanlar%C4%B1na%20g%C3%B6re,muayene%20%C3%BCcretleri%3A%201000%20%E2%80%93%203000%20TL</t>
         </is>
       </c>
       <c r="G1694" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58011,16 +58017,16 @@
       </c>
       <c r="B1695" t="inlineStr">
         <is>
-          <t>0712001</t>
+          <t>0711101</t>
         </is>
       </c>
       <c r="C1695" t="inlineStr">
         <is>
-          <t>Motorsiklet</t>
+          <t>Otomobil (Dizel)</t>
         </is>
       </c>
       <c r="D1695" t="n">
-        <v>215</v>
+        <v>2240000</v>
       </c>
       <c r="E1695" t="inlineStr">
         <is>
@@ -58029,12 +58035,12 @@
       </c>
       <c r="F1695" t="inlineStr">
         <is>
-          <t>https://www.sifiraracal.com/yamaha/r7-fiyati</t>
+          <t>https://www.sifiraracal.com/fiat-modelleri/egea</t>
         </is>
       </c>
       <c r="G1695" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58046,16 +58052,16 @@
       </c>
       <c r="B1696" t="inlineStr">
         <is>
-          <t>0722001</t>
+          <t>0711301</t>
         </is>
       </c>
       <c r="C1696" t="inlineStr">
         <is>
-          <t>Benzin</t>
+          <t>Otomobil (Benzinli)</t>
         </is>
       </c>
       <c r="D1696" t="n">
-        <v>54.99</v>
+        <v>2722000</v>
       </c>
       <c r="E1696" t="inlineStr">
         <is>
@@ -58064,12 +58070,12 @@
       </c>
       <c r="F1696" t="inlineStr">
         <is>
-          <t>https://www.petrolofisi.com.tr/akaryakit-fiyatlari</t>
+          <t>https://www.sifiraracal.com/renault-modelleri/clio</t>
         </is>
       </c>
       <c r="G1696" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58081,16 +58087,16 @@
       </c>
       <c r="B1697" t="inlineStr">
         <is>
-          <t>0722002</t>
+          <t>0711302</t>
         </is>
       </c>
       <c r="C1697" t="inlineStr">
         <is>
-          <t>LPG (Araba Tüpü Dolum) Ücreti</t>
+          <t>Otomobil (Elektrikli)</t>
         </is>
       </c>
       <c r="D1697" t="n">
-        <v>27.71</v>
+        <v>1399000</v>
       </c>
       <c r="E1697" t="inlineStr">
         <is>
@@ -58099,12 +58105,12 @@
       </c>
       <c r="F1697" t="inlineStr">
         <is>
-          <t>https://www.petrolofisi.com.tr/akaryakit-fiyatlari</t>
+          <t>https://www.sifiraracal.com/togg-modelleri/t10x</t>
         </is>
       </c>
       <c r="G1697" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58116,16 +58122,16 @@
       </c>
       <c r="B1698" t="inlineStr">
         <is>
-          <t>0722003</t>
+          <t>0712001</t>
         </is>
       </c>
       <c r="C1698" t="inlineStr">
         <is>
-          <t>Motorin</t>
+          <t>Motorsiklet</t>
         </is>
       </c>
       <c r="D1698" t="n">
-        <v>57.07</v>
+        <v>215</v>
       </c>
       <c r="E1698" t="inlineStr">
         <is>
@@ -58134,12 +58140,12 @@
       </c>
       <c r="F1698" t="inlineStr">
         <is>
-          <t>https://www.petrolofisi.com.tr/akaryakit-fiyatlari</t>
+          <t>https://www.sifiraracal.com/yamaha/r7-fiyati</t>
         </is>
       </c>
       <c r="G1698" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58151,16 +58157,16 @@
       </c>
       <c r="B1699" t="inlineStr">
         <is>
-          <t>0723001</t>
+          <t>0722001</t>
         </is>
       </c>
       <c r="C1699" t="inlineStr">
         <is>
-          <t>Araçların Tamirine ve Bakımına Ödenen Ücretler (Malzeme ve işçilik)</t>
+          <t>Benzin</t>
         </is>
       </c>
       <c r="D1699" t="n">
-        <v>1</v>
+        <v>54.99</v>
       </c>
       <c r="E1699" t="inlineStr">
         <is>
@@ -58169,12 +58175,12 @@
       </c>
       <c r="F1699" t="inlineStr">
         <is>
-          <t>https://armut.com/fiyatlari/istanbul-oto-tamir_733_34</t>
+          <t>https://www.petrolofisi.com.tr/akaryakit-fiyatlari</t>
         </is>
       </c>
       <c r="G1699" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58186,16 +58192,16 @@
       </c>
       <c r="B1700" t="inlineStr">
         <is>
-          <t>0723002</t>
+          <t>0722002</t>
         </is>
       </c>
       <c r="C1700" t="inlineStr">
         <is>
-          <t>Araçların Tamirine ve Bakımına Ödenen Ücretler (işçilik)</t>
+          <t>LPG (Araba Tüpü Dolum) Ücreti</t>
         </is>
       </c>
       <c r="D1700" t="n">
-        <v>1</v>
+        <v>27.71</v>
       </c>
       <c r="E1700" t="inlineStr">
         <is>
@@ -58204,12 +58210,12 @@
       </c>
       <c r="F1700" t="inlineStr">
         <is>
-          <t>https://armut.com/fiyatlari/istanbul-oto-tamir_733_34</t>
+          <t>https://www.petrolofisi.com.tr/akaryakit-fiyatlari</t>
         </is>
       </c>
       <c r="G1700" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58221,16 +58227,16 @@
       </c>
       <c r="B1701" t="inlineStr">
         <is>
-          <t>0724001</t>
+          <t>0722003</t>
         </is>
       </c>
       <c r="C1701" t="inlineStr">
         <is>
-          <t>Araba Kiralama Ücreti</t>
+          <t>Motorin</t>
         </is>
       </c>
       <c r="D1701" t="n">
-        <v>1.25</v>
+        <v>57.07</v>
       </c>
       <c r="E1701" t="inlineStr">
         <is>
@@ -58239,12 +58245,12 @@
       </c>
       <c r="F1701" t="inlineStr">
         <is>
-          <t>https://armut.com/fiyatlari/soforlu-arac-kiralama_40350</t>
+          <t>https://www.petrolofisi.com.tr/akaryakit-fiyatlari</t>
         </is>
       </c>
       <c r="G1701" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58256,16 +58262,16 @@
       </c>
       <c r="B1702" t="inlineStr">
         <is>
-          <t>0724005</t>
+          <t>0723001</t>
         </is>
       </c>
       <c r="C1702" t="inlineStr">
         <is>
-          <t>Otopark Ücreti</t>
+          <t>Araçların Tamirine ve Bakımına Ödenen Ücretler (Malzeme ve işçilik)</t>
         </is>
       </c>
       <c r="D1702" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="E1702" t="inlineStr">
         <is>
@@ -58274,12 +58280,12 @@
       </c>
       <c r="F1702" t="inlineStr">
         <is>
-          <t>https://www.eleman.net/is-rehberi/guncel/ispark-2025-park-ucretleri-h5019</t>
+          <t>https://armut.com/fiyatlari/istanbul-oto-tamir_733_34</t>
         </is>
       </c>
       <c r="G1702" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58291,16 +58297,16 @@
       </c>
       <c r="B1703" t="inlineStr">
         <is>
-          <t>0724006</t>
+          <t>0723002</t>
         </is>
       </c>
       <c r="C1703" t="inlineStr">
         <is>
-          <t>Otoban Geçiş Ücreti</t>
+          <t>Araçların Tamirine ve Bakımına Ödenen Ücretler (işçilik)</t>
         </is>
       </c>
       <c r="D1703" t="n">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="E1703" t="inlineStr">
         <is>
@@ -58309,12 +58315,12 @@
       </c>
       <c r="F1703" t="inlineStr">
         <is>
-          <t>https://www.hedeffilo.com/blog/otoyol-ve-kopru-gecis-ucretleri</t>
+          <t>https://armut.com/fiyatlari/istanbul-oto-tamir_733_34</t>
         </is>
       </c>
       <c r="G1703" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58326,16 +58332,16 @@
       </c>
       <c r="B1704" t="inlineStr">
         <is>
-          <t>0724008</t>
+          <t>0724001</t>
         </is>
       </c>
       <c r="C1704" t="inlineStr">
         <is>
-          <t>Köprü Geçiş Ücreti</t>
+          <t>Araba Kiralama Ücreti</t>
         </is>
       </c>
       <c r="D1704" t="n">
-        <v>47</v>
+        <v>1.25</v>
       </c>
       <c r="E1704" t="inlineStr">
         <is>
@@ -58344,12 +58350,12 @@
       </c>
       <c r="F1704" t="inlineStr">
         <is>
-          <t>https://www.hedeffilo.com/blog/otoyol-ve-kopru-gecis-ucretleri</t>
+          <t>https://armut.com/fiyatlari/soforlu-arac-kiralama_40350</t>
         </is>
       </c>
       <c r="G1704" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58361,16 +58367,16 @@
       </c>
       <c r="B1705" t="inlineStr">
         <is>
-          <t>0724009</t>
+          <t>0724005</t>
         </is>
       </c>
       <c r="C1705" t="inlineStr">
         <is>
-          <t>Sürücü Eğitim Kurs Ücreti</t>
+          <t>Otopark Ücreti</t>
         </is>
       </c>
       <c r="D1705" t="n">
-        <v>11235.6</v>
+        <v>150</v>
       </c>
       <c r="E1705" t="inlineStr">
         <is>
@@ -58379,12 +58385,12 @@
       </c>
       <c r="F1705" t="inlineStr">
         <is>
-          <t>https://kadimhukuk.com.tr/makale/ehliyet-fiyatlari/</t>
+          <t>https://www.eleman.net/is-rehberi/guncel/ispark-2025-park-ucretleri-h5019</t>
         </is>
       </c>
       <c r="G1705" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58396,16 +58402,16 @@
       </c>
       <c r="B1706" t="inlineStr">
         <is>
-          <t>0731101</t>
+          <t>0724006</t>
         </is>
       </c>
       <c r="C1706" t="inlineStr">
         <is>
-          <t>Tren Ücreti Banliyo</t>
+          <t>Otoban Geçiş Ücreti</t>
         </is>
       </c>
       <c r="D1706" t="n">
-        <v>59.76</v>
+        <v>175</v>
       </c>
       <c r="E1706" t="inlineStr">
         <is>
@@ -58414,12 +58420,12 @@
       </c>
       <c r="F1706" t="inlineStr">
         <is>
-          <t>https://www.enuygun.com/bilgi/buyuksehirlerde-toplu-tasima-ucretleri/</t>
+          <t>https://www.hedeffilo.com/blog/otoyol-ve-kopru-gecis-ucretleri</t>
         </is>
       </c>
       <c r="G1706" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58431,16 +58437,16 @@
       </c>
       <c r="B1707" t="inlineStr">
         <is>
-          <t>0731102</t>
+          <t>0724008</t>
         </is>
       </c>
       <c r="C1707" t="inlineStr">
         <is>
-          <t>Metro Ücreti</t>
+          <t>Köprü Geçiş Ücreti</t>
         </is>
       </c>
       <c r="D1707" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E1707" t="inlineStr">
         <is>
@@ -58449,12 +58455,12 @@
       </c>
       <c r="F1707" t="inlineStr">
         <is>
-          <t>https://www.enuygun.com/bilgi/buyuksehirlerde-toplu-tasima-ucretleri/</t>
+          <t>https://www.hedeffilo.com/blog/otoyol-ve-kopru-gecis-ucretleri</t>
         </is>
       </c>
       <c r="G1707" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58466,16 +58472,16 @@
       </c>
       <c r="B1708" t="inlineStr">
         <is>
-          <t>0731104</t>
+          <t>0724009</t>
         </is>
       </c>
       <c r="C1708" t="inlineStr">
         <is>
-          <t>Tramvay Ücreti</t>
+          <t>Sürücü Eğitim Kurs Ücreti</t>
         </is>
       </c>
       <c r="D1708" t="n">
-        <v>35</v>
+        <v>11235.6</v>
       </c>
       <c r="E1708" t="inlineStr">
         <is>
@@ -58484,12 +58490,12 @@
       </c>
       <c r="F1708" t="inlineStr">
         <is>
-          <t>https://www.enuygun.com/bilgi/buyuksehirlerde-toplu-tasima-ucretleri/</t>
+          <t>https://kadimhukuk.com.tr/makale/ehliyet-fiyatlari/</t>
         </is>
       </c>
       <c r="G1708" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58501,16 +58507,16 @@
       </c>
       <c r="B1709" t="inlineStr">
         <is>
-          <t>0731201</t>
+          <t>0731101</t>
         </is>
       </c>
       <c r="C1709" t="inlineStr">
         <is>
-          <t>Tren Ücreti (Şehirlerarası)</t>
+          <t>Tren Ücreti Banliyo</t>
         </is>
       </c>
       <c r="D1709" t="n">
-        <v>780</v>
+        <v>59.76</v>
       </c>
       <c r="E1709" t="inlineStr">
         <is>
@@ -58519,12 +58525,12 @@
       </c>
       <c r="F1709" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=istanbuyl+ankara+tren+%C3%BCcreti&amp;rlz=1C1GCOV_enTR1159TR1159&amp;oq=istanbuyl+ankara+tren+%C3%BCcreti&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIJCAEQABgNGIAEMggIAhAAGBYYHjIICAMQABgWGB4yCAgEEAAYFhgeMggIBRAAGBYYHjIICAYQABgWGB4yCAgHEAAYFhgeMggICBAAGBYYHjIICAkQABgWGB7SAQgzNzc1ajBqNKgCALACAQ&amp;sourceid=chrome&amp;ie=UTF-8</t>
+          <t>https://www.enuygun.com/bilgi/buyuksehirlerde-toplu-tasima-ucretleri/</t>
         </is>
       </c>
       <c r="G1709" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58536,12 +58542,12 @@
       </c>
       <c r="B1710" t="inlineStr">
         <is>
-          <t>0732101</t>
+          <t>0731102</t>
         </is>
       </c>
       <c r="C1710" t="inlineStr">
         <is>
-          <t>Belediye Otobüs Ücreti</t>
+          <t>Metro Ücreti</t>
         </is>
       </c>
       <c r="D1710" t="n">
@@ -58559,7 +58565,7 @@
       </c>
       <c r="G1710" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58571,12 +58577,12 @@
       </c>
       <c r="B1711" t="inlineStr">
         <is>
-          <t>0732104</t>
+          <t>0731104</t>
         </is>
       </c>
       <c r="C1711" t="inlineStr">
         <is>
-          <t>Dolmuş Ücreti</t>
+          <t>Tramvay Ücreti</t>
         </is>
       </c>
       <c r="D1711" t="n">
@@ -58594,7 +58600,7 @@
       </c>
       <c r="G1711" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58606,16 +58612,16 @@
       </c>
       <c r="B1712" t="inlineStr">
         <is>
-          <t>0732105</t>
+          <t>0731201</t>
         </is>
       </c>
       <c r="C1712" t="inlineStr">
         <is>
-          <t>Servis Ücreti</t>
+          <t>Tren Ücreti (Şehirlerarası)</t>
         </is>
       </c>
       <c r="D1712" t="n">
-        <v>2.42</v>
+        <v>780</v>
       </c>
       <c r="E1712" t="inlineStr">
         <is>
@@ -58624,12 +58630,12 @@
       </c>
       <c r="F1712" t="inlineStr">
         <is>
-          <t>https://www.eleman.net/is-rehberi/guncel/okul-servis-ucreti-ne-kadar-h3939</t>
+          <t>https://www.google.com/search?q=istanbuyl+ankara+tren+%C3%BCcreti&amp;rlz=1C1GCOV_enTR1159TR1159&amp;oq=istanbuyl+ankara+tren+%C3%BCcreti&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIJCAEQABgNGIAEMggIAhAAGBYYHjIICAMQABgWGB4yCAgEEAAYFhgeMggIBRAAGBYYHjIICAYQABgWGB4yCAgHEAAYFhgeMggICBAAGBYYHjIICAkQABgWGB7SAQgzNzc1ajBqNKgCALACAQ&amp;sourceid=chrome&amp;ie=UTF-8</t>
         </is>
       </c>
       <c r="G1712" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58641,16 +58647,16 @@
       </c>
       <c r="B1713" t="inlineStr">
         <is>
-          <t>0732201</t>
+          <t>0732101</t>
         </is>
       </c>
       <c r="C1713" t="inlineStr">
         <is>
-          <t>Taksi Ücreti</t>
+          <t>Belediye Otobüs Ücreti</t>
         </is>
       </c>
       <c r="D1713" t="n">
-        <v>54.5</v>
+        <v>35</v>
       </c>
       <c r="E1713" t="inlineStr">
         <is>
@@ -58659,12 +58665,12 @@
       </c>
       <c r="F1713" t="inlineStr">
         <is>
-          <t>https://www.eleman.net/is-rehberi/guncel/istanbul-toplu-ulasim-ve-taksi-ucretleri-tarifesi-h3216</t>
+          <t>https://www.enuygun.com/bilgi/buyuksehirlerde-toplu-tasima-ucretleri/</t>
         </is>
       </c>
       <c r="G1713" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58676,16 +58682,16 @@
       </c>
       <c r="B1714" t="inlineStr">
         <is>
-          <t>0732301</t>
+          <t>0732104</t>
         </is>
       </c>
       <c r="C1714" t="inlineStr">
         <is>
-          <t xml:space="preserve">Şehirlerarası Otobüs Ücreti </t>
+          <t>Dolmuş Ücreti</t>
         </is>
       </c>
       <c r="D1714" t="n">
-        <v>379</v>
+        <v>35</v>
       </c>
       <c r="E1714" t="inlineStr">
         <is>
@@ -58694,12 +58700,12 @@
       </c>
       <c r="F1714" t="inlineStr">
         <is>
-          <t>https://www.enuygun.com/otobus-bileti/istanbul-ankara/</t>
+          <t>https://www.enuygun.com/bilgi/buyuksehirlerde-toplu-tasima-ucretleri/</t>
         </is>
       </c>
       <c r="G1714" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58711,16 +58717,16 @@
       </c>
       <c r="B1715" t="inlineStr">
         <is>
-          <t>0733001</t>
+          <t>0732105</t>
         </is>
       </c>
       <c r="C1715" t="inlineStr">
         <is>
-          <t>Uçak Bileti Ücreti</t>
+          <t>Servis Ücreti</t>
         </is>
       </c>
       <c r="D1715" t="n">
-        <v>838</v>
+        <v>2.42</v>
       </c>
       <c r="E1715" t="inlineStr">
         <is>
@@ -58729,12 +58735,12 @@
       </c>
       <c r="F1715" t="inlineStr">
         <is>
-          <t>https://www.enuygun.com/ucak-bileti/istanbul-ankara-ista-anka/</t>
+          <t>https://www.eleman.net/is-rehberi/guncel/okul-servis-ucreti-ne-kadar-h3939</t>
         </is>
       </c>
       <c r="G1715" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58746,16 +58752,16 @@
       </c>
       <c r="B1716" t="inlineStr">
         <is>
-          <t>0734001</t>
+          <t>0732201</t>
         </is>
       </c>
       <c r="C1716" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vapur Bilet Ücreti </t>
+          <t>Taksi Ücreti</t>
         </is>
       </c>
       <c r="D1716" t="n">
-        <v>35</v>
+        <v>54.5</v>
       </c>
       <c r="E1716" t="inlineStr">
         <is>
@@ -58764,12 +58770,12 @@
       </c>
       <c r="F1716" t="inlineStr">
         <is>
-          <t>https://www.enuygun.com/bilgi/buyuksehirlerde-toplu-tasima-ucretleri/</t>
+          <t>https://www.eleman.net/is-rehberi/guncel/istanbul-toplu-ulasim-ve-taksi-ucretleri-tarifesi-h3216</t>
         </is>
       </c>
       <c r="G1716" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58781,16 +58787,16 @@
       </c>
       <c r="B1717" t="inlineStr">
         <is>
-          <t>0736002</t>
+          <t>0732301</t>
         </is>
       </c>
       <c r="C1717" t="inlineStr">
         <is>
-          <t>Kargo Gönderme Ücreti</t>
+          <t xml:space="preserve">Şehirlerarası Otobüs Ücreti </t>
         </is>
       </c>
       <c r="D1717" t="n">
-        <v>123.49</v>
+        <v>379</v>
       </c>
       <c r="E1717" t="inlineStr">
         <is>
@@ -58799,12 +58805,12 @@
       </c>
       <c r="F1717" t="inlineStr">
         <is>
-          <t>https://www.vepara.com.tr/e-ticaret-kargo-ucretleri/</t>
+          <t>https://www.enuygun.com/otobus-bileti/istanbul-ankara/</t>
         </is>
       </c>
       <c r="G1717" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58816,16 +58822,16 @@
       </c>
       <c r="B1718" t="inlineStr">
         <is>
-          <t>0736003</t>
+          <t>0733001</t>
         </is>
       </c>
       <c r="C1718" t="inlineStr">
         <is>
-          <t>Nakliye Ücreti (Şehiriçi)</t>
+          <t>Uçak Bileti Ücreti</t>
         </is>
       </c>
       <c r="D1718" t="n">
-        <v>176.42</v>
+        <v>838</v>
       </c>
       <c r="E1718" t="inlineStr">
         <is>
@@ -58834,12 +58840,12 @@
       </c>
       <c r="F1718" t="inlineStr">
         <is>
-          <t>https://www.vepara.com.tr/e-ticaret-kargo-ucretleri/</t>
+          <t>https://www.enuygun.com/ucak-bileti/istanbul-ankara-ista-anka/</t>
         </is>
       </c>
       <c r="G1718" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58851,16 +58857,16 @@
       </c>
       <c r="B1719" t="inlineStr">
         <is>
-          <t>0810002</t>
+          <t>0734001</t>
         </is>
       </c>
       <c r="C1719" t="inlineStr">
         <is>
-          <t>Koli Gönderme Ücreti</t>
+          <t xml:space="preserve">Vapur Bilet Ücreti </t>
         </is>
       </c>
       <c r="D1719" t="n">
-        <v>302.82</v>
+        <v>35</v>
       </c>
       <c r="E1719" t="inlineStr">
         <is>
@@ -58869,12 +58875,12 @@
       </c>
       <c r="F1719" t="inlineStr">
         <is>
-          <t>https://www.vepara.com.tr/e-ticaret-kargo-ucretleri/</t>
+          <t>https://www.enuygun.com/bilgi/buyuksehirlerde-toplu-tasima-ucretleri/</t>
         </is>
       </c>
       <c r="G1719" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58886,16 +58892,16 @@
       </c>
       <c r="B1720" t="inlineStr">
         <is>
-          <t>0830001</t>
+          <t>0736002</t>
         </is>
       </c>
       <c r="C1720" t="inlineStr">
         <is>
-          <t xml:space="preserve">Telefon Görüşme Ücreti </t>
+          <t>Kargo Gönderme Ücreti</t>
         </is>
       </c>
       <c r="D1720" t="n">
-        <v>4.11</v>
+        <v>123.49</v>
       </c>
       <c r="E1720" t="inlineStr">
         <is>
@@ -58904,12 +58910,12 @@
       </c>
       <c r="F1720" t="inlineStr">
         <is>
-          <t>https://www.turkcell.com.tr/paket-ve-tarifeler/konusma/ses-ve-sms-birim-ucretleri</t>
+          <t>https://www.vepara.com.tr/e-ticaret-kargo-ucretleri/</t>
         </is>
       </c>
       <c r="G1720" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58921,16 +58927,16 @@
       </c>
       <c r="B1721" t="inlineStr">
         <is>
-          <t>0830004</t>
+          <t>0736003</t>
         </is>
       </c>
       <c r="C1721" t="inlineStr">
         <is>
-          <t>Cep Telefonu Görüşme Ücreti</t>
+          <t>Nakliye Ücreti (Şehiriçi)</t>
         </is>
       </c>
       <c r="D1721" t="n">
-        <v>4.11</v>
+        <v>176.42</v>
       </c>
       <c r="E1721" t="inlineStr">
         <is>
@@ -58939,12 +58945,12 @@
       </c>
       <c r="F1721" t="inlineStr">
         <is>
-          <t>https://www.turkcell.com.tr/paket-ve-tarifeler/konusma/ses-ve-sms-birim-ucretleri</t>
+          <t>https://www.vepara.com.tr/e-ticaret-kargo-ucretleri/</t>
         </is>
       </c>
       <c r="G1721" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58956,16 +58962,16 @@
       </c>
       <c r="B1722" t="inlineStr">
         <is>
-          <t>0830008</t>
+          <t>0810002</t>
         </is>
       </c>
       <c r="C1722" t="inlineStr">
         <is>
-          <t>Telefon Aboneliğine İlişkin Hizmetler</t>
+          <t>Koli Gönderme Ücreti</t>
         </is>
       </c>
       <c r="D1722" t="n">
-        <v>260</v>
+        <v>302.82</v>
       </c>
       <c r="E1722" t="inlineStr">
         <is>
@@ -58974,12 +58980,12 @@
       </c>
       <c r="F1722" t="inlineStr">
         <is>
-          <t>https://www.turkcell.com.tr/trc/turkcellli-olmak/paket-secimi</t>
+          <t>https://www.vepara.com.tr/e-ticaret-kargo-ucretleri/</t>
         </is>
       </c>
       <c r="G1722" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -58991,16 +58997,16 @@
       </c>
       <c r="B1723" t="inlineStr">
         <is>
-          <t>0830009</t>
+          <t>0830001</t>
         </is>
       </c>
       <c r="C1723" t="inlineStr">
         <is>
-          <t>İnternet Ücreti</t>
+          <t xml:space="preserve">Telefon Görüşme Ücreti </t>
         </is>
       </c>
       <c r="D1723" t="n">
-        <v>650</v>
+        <v>4.11</v>
       </c>
       <c r="E1723" t="inlineStr">
         <is>
@@ -59009,12 +59015,12 @@
       </c>
       <c r="F1723" t="inlineStr">
         <is>
-          <t>https://www.superonline.net/ev-interneti/fiber-internet?from=turkcell</t>
+          <t>https://www.turkcell.com.tr/paket-ve-tarifeler/konusma/ses-ve-sms-birim-ucretleri</t>
         </is>
       </c>
       <c r="G1723" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59026,16 +59032,16 @@
       </c>
       <c r="B1724" t="inlineStr">
         <is>
-          <t>0935001</t>
+          <t>0830004</t>
         </is>
       </c>
       <c r="C1724" t="inlineStr">
         <is>
-          <t>Veteriner Ücreti</t>
+          <t>Cep Telefonu Görüşme Ücreti</t>
         </is>
       </c>
       <c r="D1724" t="n">
-        <v>1.25</v>
+        <v>4.11</v>
       </c>
       <c r="E1724" t="inlineStr">
         <is>
@@ -59044,12 +59050,12 @@
       </c>
       <c r="F1724" t="inlineStr">
         <is>
-          <t>https://leylekvet.com/veteriner-ucretleri-muayene-fiyatlari</t>
+          <t>https://www.turkcell.com.tr/paket-ve-tarifeler/konusma/ses-ve-sms-birim-ucretleri</t>
         </is>
       </c>
       <c r="G1724" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59061,16 +59067,16 @@
       </c>
       <c r="B1725" t="inlineStr">
         <is>
-          <t>0941001</t>
+          <t>0830008</t>
         </is>
       </c>
       <c r="C1725" t="inlineStr">
         <is>
-          <t>Spor Müsabakalarına Giriş Ücreti</t>
+          <t>Telefon Aboneliğine İlişkin Hizmetler</t>
         </is>
       </c>
       <c r="D1725" t="n">
-        <v>835</v>
+        <v>260</v>
       </c>
       <c r="E1725" t="inlineStr">
         <is>
@@ -59079,12 +59085,12 @@
       </c>
       <c r="F1725" t="inlineStr">
         <is>
-          <t>https://biletalsat.com/</t>
+          <t>https://www.turkcell.com.tr/trc/turkcellli-olmak/paket-secimi</t>
         </is>
       </c>
       <c r="G1725" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59096,16 +59102,16 @@
       </c>
       <c r="B1726" t="inlineStr">
         <is>
-          <t>0941002</t>
+          <t>0830009</t>
         </is>
       </c>
       <c r="C1726" t="inlineStr">
         <is>
-          <t>Sportif Faaliyetler İçin Yapılan Ödemeler</t>
+          <t>İnternet Ücreti</t>
         </is>
       </c>
       <c r="D1726" t="n">
-        <v>1364</v>
+        <v>650</v>
       </c>
       <c r="E1726" t="inlineStr">
         <is>
@@ -59114,12 +59120,12 @@
       </c>
       <c r="F1726" t="inlineStr">
         <is>
-          <t>https://www.macfit.com/fiyat-listesi</t>
+          <t>https://www.superonline.net/ev-interneti/fiber-internet?from=turkcell</t>
         </is>
       </c>
       <c r="G1726" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59131,16 +59137,16 @@
       </c>
       <c r="B1727" t="inlineStr">
         <is>
-          <t>0941006</t>
+          <t>0935001</t>
         </is>
       </c>
       <c r="C1727" t="inlineStr">
         <is>
-          <t>Düğün, Nişan vb. Toplantılar İçin Salon Kirası</t>
+          <t>Veteriner Ücreti</t>
         </is>
       </c>
       <c r="D1727" t="n">
-        <v>75000</v>
+        <v>1.25</v>
       </c>
       <c r="E1727" t="inlineStr">
         <is>
@@ -59149,12 +59155,12 @@
       </c>
       <c r="F1727" t="inlineStr">
         <is>
-          <t>https://dugun.com/dugun-salonlari/istanbul/yuvam-dugun-davet-salonu</t>
+          <t>https://leylekvet.com/veteriner-ucretleri-muayene-fiyatlari</t>
         </is>
       </c>
       <c r="G1727" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59166,16 +59172,16 @@
       </c>
       <c r="B1728" t="inlineStr">
         <is>
-          <t>0942105</t>
+          <t>0941001</t>
         </is>
       </c>
       <c r="C1728" t="inlineStr">
         <is>
-          <t>Resim Çektirme Ücreti</t>
+          <t>Spor Müsabakalarına Giriş Ücreti</t>
         </is>
       </c>
       <c r="D1728" t="n">
-        <v>250</v>
+        <v>835</v>
       </c>
       <c r="E1728" t="inlineStr">
         <is>
@@ -59184,12 +59190,12 @@
       </c>
       <c r="F1728" t="inlineStr">
         <is>
-          <t>https://armut.com/fiyatlari/istanbul-biyometrik-fotograf-cekimi_75194_34</t>
+          <t>https://biletalsat.com/</t>
         </is>
       </c>
       <c r="G1728" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59201,16 +59207,16 @@
       </c>
       <c r="B1729" t="inlineStr">
         <is>
-          <t>0942203</t>
+          <t>0941002</t>
         </is>
       </c>
       <c r="C1729" t="inlineStr">
         <is>
-          <t>Özel Televizyon ve Çevrimiçi Yayın Hizmetleri</t>
+          <t>Sportif Faaliyetler İçin Yapılan Ödemeler</t>
         </is>
       </c>
       <c r="D1729" t="n">
-        <v>569</v>
+        <v>1364</v>
       </c>
       <c r="E1729" t="inlineStr">
         <is>
@@ -59219,12 +59225,12 @@
       </c>
       <c r="F1729" t="inlineStr">
         <is>
-          <t>https://www.digiturkbasvurusu.com/kampanya/taraftar-paketi/index.html?gad_source=1&amp;gad_campaignid=13922630396&amp;gbraid=0AAAAABPx1eSOaQSZn6L8zoMpvPgXvEykH&amp;gclid=CjwKCAiAuIDJBhBoEiwAxhgyFp0KJdylrjnyJCk8V2fU2uSL5q8vuzxBSAUDLWHxy9vJkd8wXnbODBoCjdsQAvD_BwE</t>
+          <t>https://www.macfit.com/fiyat-listesi</t>
         </is>
       </c>
       <c r="G1729" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59236,16 +59242,16 @@
       </c>
       <c r="B1730" t="inlineStr">
         <is>
-          <t>0942204</t>
+          <t>0941006</t>
         </is>
       </c>
       <c r="C1730" t="inlineStr">
         <is>
-          <t>Sinema</t>
+          <t>Düğün, Nişan vb. Toplantılar İçin Salon Kirası</t>
         </is>
       </c>
       <c r="D1730" t="n">
-        <v>299</v>
+        <v>75000</v>
       </c>
       <c r="E1730" t="inlineStr">
         <is>
@@ -59254,12 +59260,12 @@
       </c>
       <c r="F1730" t="inlineStr">
         <is>
-          <t>https://www.viaportmarina.com/pages/sinema/ucretler</t>
+          <t>https://dugun.com/dugun-salonlari/istanbul/yuvam-dugun-davet-salonu</t>
         </is>
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59271,16 +59277,16 @@
       </c>
       <c r="B1731" t="inlineStr">
         <is>
-          <t>0942205</t>
+          <t>0942105</t>
         </is>
       </c>
       <c r="C1731" t="inlineStr">
         <is>
-          <t>Tiyatro</t>
+          <t>Resim Çektirme Ücreti</t>
         </is>
       </c>
       <c r="D1731" t="n">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="E1731" t="inlineStr">
         <is>
@@ -59289,12 +59295,12 @@
       </c>
       <c r="F1731" t="inlineStr">
         <is>
-          <t>https://www.viaportmarina.com/pages/sinema/ucretler</t>
+          <t>https://armut.com/fiyatlari/istanbul-biyometrik-fotograf-cekimi_75194_34</t>
         </is>
       </c>
       <c r="G1731" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59306,16 +59312,16 @@
       </c>
       <c r="B1732" t="inlineStr">
         <is>
-          <t>0943000</t>
+          <t>0942203</t>
         </is>
       </c>
       <c r="C1732" t="inlineStr">
         <is>
-          <t>Şans Oyunları</t>
+          <t>Özel Televizyon ve Çevrimiçi Yayın Hizmetleri</t>
         </is>
       </c>
       <c r="D1732" t="n">
-        <v>50</v>
+        <v>569</v>
       </c>
       <c r="E1732" t="inlineStr">
         <is>
@@ -59324,12 +59330,12 @@
       </c>
       <c r="F1732" t="inlineStr">
         <is>
-          <t>https://www.odatv.com/spor/iddiada-kupon-ucretleri-degisti-120090819</t>
+          <t>https://www.digiturkbasvurusu.com/kampanya/taraftar-paketi/index.html?gad_source=1&amp;gad_campaignid=13922630396&amp;gbraid=0AAAAABPx1eSOaQSZn6L8zoMpvPgXvEykH&amp;gclid=CjwKCAiAuIDJBhBoEiwAxhgyFp0KJdylrjnyJCk8V2fU2uSL5q8vuzxBSAUDLWHxy9vJkd8wXnbODBoCjdsQAvD_BwE</t>
         </is>
       </c>
       <c r="G1732" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59341,16 +59347,16 @@
       </c>
       <c r="B1733" t="inlineStr">
         <is>
-          <t>0960002</t>
+          <t>0942204</t>
         </is>
       </c>
       <c r="C1733" t="inlineStr">
         <is>
-          <t>Yurtiçi Haftasonu Turları</t>
+          <t>Sinema</t>
         </is>
       </c>
       <c r="D1733" t="n">
-        <v>11490</v>
+        <v>299</v>
       </c>
       <c r="E1733" t="inlineStr">
         <is>
@@ -59359,12 +59365,12 @@
       </c>
       <c r="F1733" t="inlineStr">
         <is>
-          <t>https://www.ssc.com.tr/kultur-turlari?gad_source=1&amp;gad_campaignid=1683652491&amp;gbraid=0AAAAAC7N2lF3RqjXIuZ0pVvaMpBEfoUDn&amp;gclid=CjwKCAiAuIDJBhBoEiwAxhgyFhZ9m2Ci9MzvCyzXq0bvpU_vyPP3v-OizhhoREIEduc6xKi9jCrvihoCuhcQAvD_BwE</t>
+          <t>https://www.viaportmarina.com/pages/sinema/ucretler</t>
         </is>
       </c>
       <c r="G1733" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59376,16 +59382,16 @@
       </c>
       <c r="B1734" t="inlineStr">
         <is>
-          <t>0960003</t>
+          <t>0942205</t>
         </is>
       </c>
       <c r="C1734" t="inlineStr">
         <is>
-          <t>Yurtiçi Bir Hafta ve Daha Fazla Süreli Turlar</t>
+          <t>Tiyatro</t>
         </is>
       </c>
       <c r="D1734" t="n">
-        <v>17490</v>
+        <v>299</v>
       </c>
       <c r="E1734" t="inlineStr">
         <is>
@@ -59394,12 +59400,12 @@
       </c>
       <c r="F1734" t="inlineStr">
         <is>
-          <t>https://www.ssc.com.tr/kultur-turlari?gad_source=1&amp;gad_campaignid=1683652491&amp;gbraid=0AAAAAC7N2lF3RqjXIuZ0pVvaMpBEfoUDn&amp;gclid=CjwKCAiAuIDJBhBoEiwAxhgyFhZ9m2Ci9MzvCyzXq0bvpU_vyPP3v-OizhhoREIEduc6xKi9jCrvihoCuhcQAvD_BwE</t>
+          <t>https://www.viaportmarina.com/pages/sinema/ucretler</t>
         </is>
       </c>
       <c r="G1734" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59411,16 +59417,16 @@
       </c>
       <c r="B1735" t="inlineStr">
         <is>
-          <t>0960005</t>
+          <t>0943000</t>
         </is>
       </c>
       <c r="C1735" t="inlineStr">
         <is>
-          <t>Yurt Dışı Bir Hafta ve Daha Fazla Süreli Turlar</t>
+          <t>Şans Oyunları</t>
         </is>
       </c>
       <c r="D1735" t="n">
-        <v>36.859</v>
+        <v>50</v>
       </c>
       <c r="E1735" t="inlineStr">
         <is>
@@ -59429,12 +59435,12 @@
       </c>
       <c r="F1735" t="inlineStr">
         <is>
-          <t>https://www.etstur.com/Yurtdisi-Tatil-Turlari/Yilbasi-Turlari</t>
+          <t>https://www.odatv.com/spor/iddiada-kupon-ucretleri-degisti-120090819</t>
         </is>
       </c>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59446,16 +59452,16 @@
       </c>
       <c r="B1736" t="inlineStr">
         <is>
-          <t>0960008</t>
+          <t>0960002</t>
         </is>
       </c>
       <c r="C1736" t="inlineStr">
         <is>
-          <t>Hacca Gidiş Ücreti</t>
+          <t>Yurtiçi Haftasonu Turları</t>
         </is>
       </c>
       <c r="D1736" t="n">
-        <v>271.459</v>
+        <v>11490</v>
       </c>
       <c r="E1736" t="inlineStr">
         <is>
@@ -59464,12 +59470,12 @@
       </c>
       <c r="F1736" t="inlineStr">
         <is>
-          <t>https://www.markatur.com.tr/hac-fiyatlari-ozel-hac-fiyatlari-2019-hac-fiyatlari</t>
+          <t>https://www.ssc.com.tr/kultur-turlari?gad_source=1&amp;gad_campaignid=1683652491&amp;gbraid=0AAAAAC7N2lF3RqjXIuZ0pVvaMpBEfoUDn&amp;gclid=CjwKCAiAuIDJBhBoEiwAxhgyFhZ9m2Ci9MzvCyzXq0bvpU_vyPP3v-OizhhoREIEduc6xKi9jCrvihoCuhcQAvD_BwE</t>
         </is>
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59481,16 +59487,16 @@
       </c>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>0960009</t>
+          <t>0960003</t>
         </is>
       </c>
       <c r="C1737" t="inlineStr">
         <is>
-          <t>Umreye Gidiş Ücreti</t>
+          <t>Yurtiçi Bir Hafta ve Daha Fazla Süreli Turlar</t>
         </is>
       </c>
       <c r="D1737" t="n">
-        <v>44.709</v>
+        <v>17490</v>
       </c>
       <c r="E1737" t="inlineStr">
         <is>
@@ -59499,12 +59505,12 @@
       </c>
       <c r="F1737" t="inlineStr">
         <is>
-          <t>http://markatur.com.tr/kategori/umre-fiyatlari</t>
+          <t>https://www.ssc.com.tr/kultur-turlari?gad_source=1&amp;gad_campaignid=1683652491&amp;gbraid=0AAAAAC7N2lF3RqjXIuZ0pVvaMpBEfoUDn&amp;gclid=CjwKCAiAuIDJBhBoEiwAxhgyFhZ9m2Ci9MzvCyzXq0bvpU_vyPP3v-OizhhoREIEduc6xKi9jCrvihoCuhcQAvD_BwE</t>
         </is>
       </c>
       <c r="G1737" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59516,16 +59522,16 @@
       </c>
       <c r="B1738" t="inlineStr">
         <is>
-          <t>1010002</t>
+          <t>0960005</t>
         </is>
       </c>
       <c r="C1738" t="inlineStr">
         <is>
-          <t>Özel İlköğretim Ücreti</t>
+          <t>Yurt Dışı Bir Hafta ve Daha Fazla Süreli Turlar</t>
         </is>
       </c>
       <c r="D1738" t="n">
-        <v>264000</v>
+        <v>36.859</v>
       </c>
       <c r="E1738" t="inlineStr">
         <is>
@@ -59534,12 +59540,12 @@
       </c>
       <c r="F1738" t="inlineStr">
         <is>
-          <t>https://www.dogankoleji.com/2025/02/04/2025-2026-ogretim-yili-ogrenci-ucretleri/</t>
+          <t>https://www.etstur.com/Yurtdisi-Tatil-Turlari/Yilbasi-Turlari</t>
         </is>
       </c>
       <c r="G1738" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59551,16 +59557,16 @@
       </c>
       <c r="B1739" t="inlineStr">
         <is>
-          <t>1020002</t>
+          <t>0960008</t>
         </is>
       </c>
       <c r="C1739" t="inlineStr">
         <is>
-          <t>Özel Lise Ücreti</t>
+          <t>Hacca Gidiş Ücreti</t>
         </is>
       </c>
       <c r="D1739" t="n">
-        <v>356000</v>
+        <v>271.459</v>
       </c>
       <c r="E1739" t="inlineStr">
         <is>
@@ -59569,12 +59575,12 @@
       </c>
       <c r="F1739" t="inlineStr">
         <is>
-          <t>https://www.dogankoleji.com/2025/02/04/2025-2026-ogretim-yili-ogrenci-ucretleri/</t>
+          <t>https://www.markatur.com.tr/hac-fiyatlari-ozel-hac-fiyatlari-2019-hac-fiyatlari</t>
         </is>
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59586,16 +59592,16 @@
       </c>
       <c r="B1740" t="inlineStr">
         <is>
-          <t>1040001</t>
+          <t>0960009</t>
         </is>
       </c>
       <c r="C1740" t="inlineStr">
         <is>
-          <t>Özel Üniversite Ücreti</t>
+          <t>Umreye Gidiş Ücreti</t>
         </is>
       </c>
       <c r="D1740" t="n">
-        <v>660</v>
+        <v>44.709</v>
       </c>
       <c r="E1740" t="inlineStr">
         <is>
@@ -59604,12 +59610,12 @@
       </c>
       <c r="F1740" t="inlineStr">
         <is>
-          <t>https://yeditepe.edu.tr/tr/aday-ogrenci/ucretler</t>
+          <t>http://markatur.com.tr/kategori/umre-fiyatlari</t>
         </is>
       </c>
       <c r="G1740" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59621,16 +59627,16 @@
       </c>
       <c r="B1741" t="inlineStr">
         <is>
-          <t>1040002</t>
+          <t>1010002</t>
         </is>
       </c>
       <c r="C1741" t="inlineStr">
         <is>
-          <t>Üniversite Katkı Payı</t>
+          <t>Özel İlköğretim Ücreti</t>
         </is>
       </c>
       <c r="D1741" t="n">
-        <v>96196</v>
+        <v>264000</v>
       </c>
       <c r="E1741" t="inlineStr">
         <is>
@@ -59639,12 +59645,12 @@
       </c>
       <c r="F1741" t="inlineStr">
         <is>
-          <t>https://www.eleman.net/is-rehberi/maaslar-ve-ucretler/universite-harclari-ogrenci-katki-paylari-ne-kadar-h13119</t>
+          <t>https://www.dogankoleji.com/2025/02/04/2025-2026-ogretim-yili-ogrenci-ucretleri/</t>
         </is>
       </c>
       <c r="G1741" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59656,16 +59662,16 @@
       </c>
       <c r="B1742" t="inlineStr">
         <is>
-          <t>1050001</t>
+          <t>1020002</t>
         </is>
       </c>
       <c r="C1742" t="inlineStr">
         <is>
-          <t>Düzeyi Belirlenemeyen Eğitim Programları</t>
+          <t>Özel Lise Ücreti</t>
         </is>
       </c>
       <c r="D1742" t="n">
-        <v>204000</v>
+        <v>356000</v>
       </c>
       <c r="E1742" t="inlineStr">
         <is>
@@ -59679,7 +59685,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59691,16 +59697,16 @@
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>1110206</t>
+          <t>1040001</t>
         </is>
       </c>
       <c r="C1743" t="inlineStr">
         <is>
-          <t>Alkollü İçkiler</t>
+          <t>Özel Üniversite Ücreti</t>
         </is>
       </c>
       <c r="D1743" t="n">
-        <v>555</v>
+        <v>660</v>
       </c>
       <c r="E1743" t="inlineStr">
         <is>
@@ -59709,12 +59715,12 @@
       </c>
       <c r="F1743" t="inlineStr">
         <is>
-          <t>https://kiki.com.tr/icecek-menu/</t>
+          <t>https://yeditepe.edu.tr/tr/aday-ogrenci/ucretler</t>
         </is>
       </c>
       <c r="G1743" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59726,16 +59732,16 @@
       </c>
       <c r="B1744" t="inlineStr">
         <is>
-          <t>1120101</t>
+          <t>1040002</t>
         </is>
       </c>
       <c r="C1744" t="inlineStr">
         <is>
-          <t>Otel Ücreti</t>
+          <t>Üniversite Katkı Payı</t>
         </is>
       </c>
       <c r="D1744" t="n">
-        <v>6.5</v>
+        <v>96196</v>
       </c>
       <c r="E1744" t="inlineStr">
         <is>
@@ -59744,12 +59750,12 @@
       </c>
       <c r="F1744" t="inlineStr">
         <is>
-          <t>https://www.tatilbudur.com/yurtici-oteller/istanbul-otelleri?tb_source=1013&amp;gad_source=1&amp;gad_campaignid=20445445860&amp;gbraid=0AAAAADsCO0K1rRDVjYCWM3Gd_iB2__gIc&amp;gclid=CjwKCAiAuIDJBhBoEiwAxhgyFr9Dx17e_DDmHYC9ZkgWIlQgMJGznhrw99Jr8zA0TgVQRoqadPGV9BoCNxQQAvD_BwE</t>
+          <t>https://www.eleman.net/is-rehberi/maaslar-ve-ucretler/universite-harclari-ogrenci-katki-paylari-ne-kadar-h13119</t>
         </is>
       </c>
       <c r="G1744" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59761,16 +59767,16 @@
       </c>
       <c r="B1745" t="inlineStr">
         <is>
-          <t>1120204</t>
+          <t>1050001</t>
         </is>
       </c>
       <c r="C1745" t="inlineStr">
         <is>
-          <t>Yurt Ücreti</t>
+          <t>Düzeyi Belirlenemeyen Eğitim Programları</t>
         </is>
       </c>
       <c r="D1745" t="n">
-        <v>3380</v>
+        <v>204000</v>
       </c>
       <c r="E1745" t="inlineStr">
         <is>
@@ -59779,12 +59785,12 @@
       </c>
       <c r="F1745" t="inlineStr">
         <is>
-          <t>https://yurtburs.itu.edu.tr/yurt/yurt-ucretleri</t>
+          <t>https://www.dogankoleji.com/2025/02/04/2025-2026-ogretim-yili-ogrenci-ucretleri/</t>
         </is>
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59796,16 +59802,16 @@
       </c>
       <c r="B1746" t="inlineStr">
         <is>
-          <t>1211101</t>
+          <t>1110206</t>
         </is>
       </c>
       <c r="C1746" t="inlineStr">
         <is>
-          <t>Erkek Berberi</t>
+          <t>Alkollü İçkiler</t>
         </is>
       </c>
       <c r="D1746" t="n">
-        <v>350</v>
+        <v>555</v>
       </c>
       <c r="E1746" t="inlineStr">
         <is>
@@ -59814,12 +59820,12 @@
       </c>
       <c r="F1746" t="inlineStr">
         <is>
-          <t>https://armut.com/fiyatlari/erkek-kuaforu_55793</t>
+          <t>https://kiki.com.tr/icecek-menu/</t>
         </is>
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59831,16 +59837,16 @@
       </c>
       <c r="B1747" t="inlineStr">
         <is>
-          <t>1211201</t>
+          <t>1120101</t>
         </is>
       </c>
       <c r="C1747" t="inlineStr">
         <is>
-          <t>Kadın Berberi</t>
+          <t>Otel Ücreti</t>
         </is>
       </c>
       <c r="D1747" t="n">
-        <v>800</v>
+        <v>6.5</v>
       </c>
       <c r="E1747" t="inlineStr">
         <is>
@@ -59849,12 +59855,12 @@
       </c>
       <c r="F1747" t="inlineStr">
         <is>
-          <t>https://armut.com/fiyatlari/istanbul-kuafor_118_34</t>
+          <t>https://www.tatilbudur.com/yurtici-oteller/istanbul-otelleri?tb_source=1013&amp;gad_source=1&amp;gad_campaignid=20445445860&amp;gbraid=0AAAAADsCO0K1rRDVjYCWM3Gd_iB2__gIc&amp;gclid=CjwKCAiAuIDJBhBoEiwAxhgyFr9Dx17e_DDmHYC9ZkgWIlQgMJGznhrw99Jr8zA0TgVQRoqadPGV9BoCNxQQAvD_BwE</t>
         </is>
       </c>
       <c r="G1747" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59866,16 +59872,16 @@
       </c>
       <c r="B1748" t="inlineStr">
         <is>
-          <t>1211202</t>
+          <t>1120204</t>
         </is>
       </c>
       <c r="C1748" t="inlineStr">
         <is>
-          <t>Kişisel Bakım Hizmetleri (Kadın İçin)</t>
+          <t>Yurt Ücreti</t>
         </is>
       </c>
       <c r="D1748" t="n">
-        <v>300</v>
+        <v>3380</v>
       </c>
       <c r="E1748" t="inlineStr">
         <is>
@@ -59884,12 +59890,12 @@
       </c>
       <c r="F1748" t="inlineStr">
         <is>
-          <t>https://armut.com/fiyatlari/kas-alma_55378</t>
+          <t>https://yurtburs.itu.edu.tr/yurt/yurt-ucretleri</t>
         </is>
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59901,16 +59907,16 @@
       </c>
       <c r="B1749" t="inlineStr">
         <is>
-          <t>1240001</t>
+          <t>1211101</t>
         </is>
       </c>
       <c r="C1749" t="inlineStr">
         <is>
-          <t>Kreş ve Gündüz Bakım Evleri</t>
+          <t>Erkek Berberi</t>
         </is>
       </c>
       <c r="D1749" t="n">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="E1749" t="inlineStr">
         <is>
@@ -59919,12 +59925,12 @@
       </c>
       <c r="F1749" t="inlineStr">
         <is>
-          <t>https://www.eleman.net/is-rehberi/pratik-bilgiler/ibb-kres-fiyatlari-2025-h6228</t>
+          <t>https://armut.com/fiyatlari/erkek-kuaforu_55793</t>
         </is>
       </c>
       <c r="G1749" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59936,16 +59942,16 @@
       </c>
       <c r="B1750" t="inlineStr">
         <is>
-          <t>1252001</t>
+          <t>1211201</t>
         </is>
       </c>
       <c r="C1750" t="inlineStr">
         <is>
-          <t>Yangın, Hırsızlık ve Diğer Afetler İçin Sigorta</t>
+          <t>Kadın Berberi</t>
         </is>
       </c>
       <c r="D1750" t="n">
-        <v>1.695</v>
+        <v>800</v>
       </c>
       <c r="E1750" t="inlineStr">
         <is>
@@ -59954,12 +59960,12 @@
       </c>
       <c r="F1750" t="inlineStr">
         <is>
-          <t>https://www.sigortam.net/dask-sigortasi</t>
+          <t>https://armut.com/fiyatlari/istanbul-kuafor_118_34</t>
         </is>
       </c>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -59971,16 +59977,16 @@
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t>1253002</t>
+          <t>1211202</t>
         </is>
       </c>
       <c r="C1751" t="inlineStr">
         <is>
-          <t>Sağlık Sigortası</t>
+          <t>Kişisel Bakım Hizmetleri (Kadın İçin)</t>
         </is>
       </c>
       <c r="D1751" t="n">
-        <v>20.687</v>
+        <v>300</v>
       </c>
       <c r="E1751" t="inlineStr">
         <is>
@@ -59989,12 +59995,12 @@
       </c>
       <c r="F1751" t="inlineStr">
         <is>
-          <t>https://www.sigortam.net/tamamlayici-saglik-sigortasi</t>
+          <t>https://armut.com/fiyatlari/kas-alma_55378</t>
         </is>
       </c>
       <c r="G1751" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60006,16 +60012,16 @@
       </c>
       <c r="B1752" t="inlineStr">
         <is>
-          <t>1254001</t>
+          <t>1240001</t>
         </is>
       </c>
       <c r="C1752" t="inlineStr">
         <is>
-          <t>Kasko ve Zorunlu Trafik Sigortası</t>
+          <t>Kreş ve Gündüz Bakım Evleri</t>
         </is>
       </c>
       <c r="D1752" t="n">
-        <v>44.733</v>
+        <v>5000</v>
       </c>
       <c r="E1752" t="inlineStr">
         <is>
@@ -60024,12 +60030,12 @@
       </c>
       <c r="F1752" t="inlineStr">
         <is>
-          <t>https://www.sigortam.net/trafik-sigortasi-tavan-fiyatlari</t>
+          <t>https://www.eleman.net/is-rehberi/pratik-bilgiler/ibb-kres-fiyatlari-2025-h6228</t>
         </is>
       </c>
       <c r="G1752" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60041,16 +60047,16 @@
       </c>
       <c r="B1753" t="inlineStr">
         <is>
-          <t>1262006</t>
+          <t>1252001</t>
         </is>
       </c>
       <c r="C1753" t="inlineStr">
         <is>
-          <t>Banka ile Para Havale Ücreti</t>
+          <t>Yangın, Hırsızlık ve Diğer Afetler İçin Sigorta</t>
         </is>
       </c>
       <c r="D1753" t="n">
-        <v>40</v>
+        <v>1.695</v>
       </c>
       <c r="E1753" t="inlineStr">
         <is>
@@ -60059,12 +60065,12 @@
       </c>
       <c r="F1753" t="inlineStr">
         <is>
-          <t>https://www.ziraatbank-kktc.com/tr/bankacilik-hizmetleri-ile-ucret-ve-komisyonlari</t>
+          <t>https://www.sigortam.net/dask-sigortasi</t>
         </is>
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60076,16 +60082,16 @@
       </c>
       <c r="B1754" t="inlineStr">
         <is>
-          <t>1270001</t>
+          <t>1253002</t>
         </is>
       </c>
       <c r="C1754" t="inlineStr">
         <is>
-          <t>Resmi Evraklarla İlgili Hizmet Ücreti</t>
+          <t>Sağlık Sigortası</t>
         </is>
       </c>
       <c r="D1754" t="n">
-        <v>834</v>
+        <v>20.687</v>
       </c>
       <c r="E1754" t="inlineStr">
         <is>
@@ -60094,12 +60100,12 @@
       </c>
       <c r="F1754" t="inlineStr">
         <is>
-          <t>https://kadimhukuk.com.tr/makale/noter-ucretleri/</t>
+          <t>https://www.sigortam.net/tamamlayici-saglik-sigortasi</t>
         </is>
       </c>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60111,16 +60117,16 @@
       </c>
       <c r="B1755" t="inlineStr">
         <is>
-          <t>1270002</t>
+          <t>1254001</t>
         </is>
       </c>
       <c r="C1755" t="inlineStr">
         <is>
-          <t>Ulaşım Araçları ile İlgili Hizmet Ücreti</t>
+          <t>Kasko ve Zorunlu Trafik Sigortası</t>
         </is>
       </c>
       <c r="D1755" t="n">
-        <v>1489</v>
+        <v>44.733</v>
       </c>
       <c r="E1755" t="inlineStr">
         <is>
@@ -60129,12 +60135,12 @@
       </c>
       <c r="F1755" t="inlineStr">
         <is>
-          <t>https://kadimhukuk.com.tr/makale/noter-ucretleri/</t>
+          <t>https://www.sigortam.net/trafik-sigortasi-tavan-fiyatlari</t>
         </is>
       </c>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60146,16 +60152,16 @@
       </c>
       <c r="B1756" t="inlineStr">
         <is>
-          <t>1270006</t>
+          <t>1262006</t>
         </is>
       </c>
       <c r="C1756" t="inlineStr">
         <is>
-          <t>Avukatlık Ücreti</t>
+          <t>Banka ile Para Havale Ücreti</t>
         </is>
       </c>
       <c r="D1756" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="E1756" t="inlineStr">
         <is>
@@ -60164,12 +60170,12 @@
       </c>
       <c r="F1756" t="inlineStr">
         <is>
-          <t>https://kadimhukuk.com.tr/makale/noter-ucretleri/</t>
+          <t>https://www.ziraatbank-kktc.com/tr/bankacilik-hizmetleri-ile-ucret-ve-komisyonlari</t>
         </is>
       </c>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60181,16 +60187,16 @@
       </c>
       <c r="B1757" t="inlineStr">
         <is>
-          <t>1270008</t>
+          <t>1270001</t>
         </is>
       </c>
       <c r="C1757" t="inlineStr">
         <is>
-          <t>Dokümantasyon İçin Ödenen Ücretler</t>
+          <t>Resmi Evraklarla İlgili Hizmet Ücreti</t>
         </is>
       </c>
       <c r="D1757" t="n">
-        <v>2000</v>
+        <v>834</v>
       </c>
       <c r="E1757" t="inlineStr">
         <is>
@@ -60204,7 +60210,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60216,30 +60222,30 @@
       </c>
       <c r="B1758" t="inlineStr">
         <is>
-          <t>0111101</t>
+          <t>1270002</t>
         </is>
       </c>
       <c r="C1758" t="inlineStr">
         <is>
-          <t>Pirinç</t>
+          <t>Ulaşım Araçları ile İlgili Hizmet Ücreti</t>
         </is>
       </c>
       <c r="D1758" t="n">
-        <v>80.95</v>
+        <v>1489</v>
       </c>
       <c r="E1758" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Manuel</t>
         </is>
       </c>
       <c r="F1758" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/migros-baldo-pirinc-1-kg-p-f6a53</t>
+          <t>https://kadimhukuk.com.tr/makale/noter-ucretleri/</t>
         </is>
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60251,30 +60257,30 @@
       </c>
       <c r="B1759" t="inlineStr">
         <is>
-          <t>0111201</t>
+          <t>1270006</t>
         </is>
       </c>
       <c r="C1759" t="inlineStr">
         <is>
-          <t>Buğday Unu</t>
+          <t>Avukatlık Ücreti</t>
         </is>
       </c>
       <c r="D1759" t="n">
-        <v>114.9</v>
+        <v>2500</v>
       </c>
       <c r="E1759" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Manuel</t>
         </is>
       </c>
       <c r="F1759" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/sinangil-tam-bugday-unu-1-kg-p-4c8cdd</t>
+          <t>https://kadimhukuk.com.tr/makale/noter-ucretleri/</t>
         </is>
       </c>
       <c r="G1759" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60286,30 +60292,30 @@
       </c>
       <c r="B1760" t="inlineStr">
         <is>
-          <t>0111208</t>
+          <t>1270008</t>
         </is>
       </c>
       <c r="C1760" t="inlineStr">
         <is>
-          <t>Bebek Sütü (Toz Karışım)</t>
+          <t>Dokümantasyon İçin Ödenen Ücretler</t>
         </is>
       </c>
       <c r="D1760" t="n">
-        <v>299.95</v>
+        <v>2000</v>
       </c>
       <c r="E1760" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Manuel</t>
         </is>
       </c>
       <c r="F1760" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/bebelac-bebek-devam-sutu-1-400-g-p-4cec83</t>
+          <t>https://kadimhukuk.com.tr/makale/noter-ucretleri/</t>
         </is>
       </c>
       <c r="G1760" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60321,16 +60327,16 @@
       </c>
       <c r="B1761" t="inlineStr">
         <is>
-          <t>0111209</t>
+          <t>0111101</t>
         </is>
       </c>
       <c r="C1761" t="inlineStr">
         <is>
-          <t>Bulgur</t>
+          <t>Pirinç</t>
         </is>
       </c>
       <c r="D1761" t="n">
-        <v>124.95</v>
+        <v>80.95</v>
       </c>
       <c r="E1761" t="inlineStr">
         <is>
@@ -60339,12 +60345,12 @@
       </c>
       <c r="F1761" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/torku-pilavlik-bulgur-25-kg-p-1067d5</t>
+          <t>https://www.migros.com.tr/migros-baldo-pirinc-1-kg-p-f6a53</t>
         </is>
       </c>
       <c r="G1761" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60356,16 +60362,16 @@
       </c>
       <c r="B1762" t="inlineStr">
         <is>
-          <t>0111301</t>
+          <t>0111201</t>
         </is>
       </c>
       <c r="C1762" t="inlineStr">
         <is>
-          <t>Ekmek</t>
+          <t>Buğday Unu</t>
         </is>
       </c>
       <c r="D1762" t="n">
-        <v>59.9</v>
+        <v>63.5</v>
       </c>
       <c r="E1762" t="inlineStr">
         <is>
@@ -60374,12 +60380,12 @@
       </c>
       <c r="F1762" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/sofra-ekmek-adet-p-4e2000</t>
+          <t>https://www.migros.com.tr/sinangil-tam-bugday-unu-1-kg-p-4c8cdd</t>
         </is>
       </c>
       <c r="G1762" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60391,16 +60397,16 @@
       </c>
       <c r="B1763" t="inlineStr">
         <is>
-          <t>0111402</t>
+          <t>0111209</t>
         </is>
       </c>
       <c r="C1763" t="inlineStr">
         <is>
-          <t>Kraker</t>
+          <t>Bulgur</t>
         </is>
       </c>
       <c r="D1763" t="n">
-        <v>64.95</v>
+        <v>124.95</v>
       </c>
       <c r="E1763" t="inlineStr">
         <is>
@@ -60409,12 +60415,12 @@
       </c>
       <c r="F1763" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/wefood-feslegenli-kraker-40-g-p-4cea14</t>
+          <t>https://www.migros.com.tr/torku-pilavlik-bulgur-25-kg-p-1067d5</t>
         </is>
       </c>
       <c r="G1763" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60426,16 +60432,16 @@
       </c>
       <c r="B1764" t="inlineStr">
         <is>
-          <t>0111405</t>
+          <t>0111301</t>
         </is>
       </c>
       <c r="C1764" t="inlineStr">
         <is>
-          <t>Pasta</t>
+          <t>Ekmek</t>
         </is>
       </c>
       <c r="D1764" t="n">
-        <v>549.9</v>
+        <v>15</v>
       </c>
       <c r="E1764" t="inlineStr">
         <is>
@@ -60444,12 +60450,12 @@
       </c>
       <c r="F1764" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/yas-pasta-no1-p-4e208a</t>
+          <t>https://www.migros.com.tr/sofra-ekmek-adet-p-4e2000</t>
         </is>
       </c>
       <c r="G1764" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60461,16 +60467,16 @@
       </c>
       <c r="B1765" t="inlineStr">
         <is>
-          <t>0111408</t>
+          <t>0111402</t>
         </is>
       </c>
       <c r="C1765" t="inlineStr">
         <is>
-          <t>Kek</t>
+          <t>Kraker</t>
         </is>
       </c>
       <c r="D1765" t="n">
-        <v>74.95</v>
+        <v>64.95</v>
       </c>
       <c r="E1765" t="inlineStr">
         <is>
@@ -60479,12 +60485,12 @@
       </c>
       <c r="F1765" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/eti-browni-klasik-cikolatali-findikli-kek-200-g-p-6b47f6</t>
+          <t>https://www.migros.com.tr/wefood-feslegenli-kraker-40-g-p-4cea14</t>
         </is>
       </c>
       <c r="G1765" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60496,16 +60502,16 @@
       </c>
       <c r="B1766" t="inlineStr">
         <is>
-          <t>0111411</t>
+          <t>0111405</t>
         </is>
       </c>
       <c r="C1766" t="inlineStr">
         <is>
-          <t>Baklava</t>
+          <t>Pasta</t>
         </is>
       </c>
       <c r="D1766" t="n">
-        <v>119.95</v>
+        <v>549.9</v>
       </c>
       <c r="E1766" t="inlineStr">
         <is>
@@ -60514,12 +60520,12 @@
       </c>
       <c r="F1766" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/fistikli-baklava-kg-p-4e20d5</t>
+          <t>https://www.migros.com.tr/yas-pasta-no1-p-4e208a</t>
         </is>
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60531,16 +60537,16 @@
       </c>
       <c r="B1767" t="inlineStr">
         <is>
-          <t>0111415</t>
+          <t>0111408</t>
         </is>
       </c>
       <c r="C1767" t="inlineStr">
         <is>
-          <t>Ekmek Hamuru (Yufka)</t>
+          <t>Kek</t>
         </is>
       </c>
       <c r="D1767" t="n">
-        <v>250.57</v>
+        <v>74.95</v>
       </c>
       <c r="E1767" t="inlineStr">
         <is>
@@ -60549,12 +60555,12 @@
       </c>
       <c r="F1767" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/el-acmasi-yufka-kg-p-4d8032</t>
+          <t>https://www.migros.com.tr/eti-browni-klasik-cikolatali-findikli-kek-200-g-p-6b47f6</t>
         </is>
       </c>
       <c r="G1767" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60566,16 +60572,16 @@
       </c>
       <c r="B1768" t="inlineStr">
         <is>
-          <t>0111501</t>
+          <t>0111411</t>
         </is>
       </c>
       <c r="C1768" t="inlineStr">
         <is>
-          <t>Makarna</t>
+          <t>Baklava</t>
         </is>
       </c>
       <c r="D1768" t="n">
-        <v>145.95</v>
+        <v>644.9</v>
       </c>
       <c r="E1768" t="inlineStr">
         <is>
@@ -60584,12 +60590,12 @@
       </c>
       <c r="F1768" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/barilla-tagliatelle-makarna-450-g-p-4cc168</t>
+          <t>https://www.migros.com.tr/fistikli-baklava-kg-p-4e20d5</t>
         </is>
       </c>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60601,16 +60607,16 @@
       </c>
       <c r="B1769" t="inlineStr">
         <is>
-          <t>0111502</t>
+          <t>0111415</t>
         </is>
       </c>
       <c r="C1769" t="inlineStr">
         <is>
-          <t>Şehriye</t>
+          <t>Ekmek Hamuru (Yufka)</t>
         </is>
       </c>
       <c r="D1769" t="n">
-        <v>459.95</v>
+        <v>169.95</v>
       </c>
       <c r="E1769" t="inlineStr">
         <is>
@@ -60619,12 +60625,12 @@
       </c>
       <c r="F1769" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/filiz-arpa-sehriye-500-g-p-4cc1d5</t>
+          <t>https://www.migros.com.tr/el-acmasi-yufka-kg-p-4d8032</t>
         </is>
       </c>
       <c r="G1769" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60636,16 +60642,16 @@
       </c>
       <c r="B1770" t="inlineStr">
         <is>
-          <t>0111602</t>
+          <t>0111501</t>
         </is>
       </c>
       <c r="C1770" t="inlineStr">
         <is>
-          <t>Tahıl Gevreği</t>
+          <t>Makarna</t>
         </is>
       </c>
       <c r="D1770" t="n">
-        <v>119.9</v>
+        <v>145.95</v>
       </c>
       <c r="E1770" t="inlineStr">
         <is>
@@ -60654,12 +60660,12 @@
       </c>
       <c r="F1770" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/nestle-cheerios-balli-tahil-gevregi-225-g-p-4db053</t>
+          <t>https://www.migros.com.tr/barilla-tagliatelle-makarna-450-g-p-4cc168</t>
         </is>
       </c>
       <c r="G1770" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60671,16 +60677,16 @@
       </c>
       <c r="B1771" t="inlineStr">
         <is>
-          <t>0112401</t>
+          <t>0111502</t>
         </is>
       </c>
       <c r="C1771" t="inlineStr">
         <is>
-          <t>Kuzu Eti</t>
+          <t>Şehriye</t>
         </is>
       </c>
       <c r="D1771" t="n">
-        <v>119.95</v>
+        <v>22.25</v>
       </c>
       <c r="E1771" t="inlineStr">
         <is>
@@ -60689,12 +60695,12 @@
       </c>
       <c r="F1771" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/kuzu-biftek-kg-but-eti-dilimlenmis-p-16e5d69</t>
+          <t>https://www.migros.com.tr/filiz-arpa-sehriye-500-g-p-4cc1d5</t>
         </is>
       </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60706,16 +60712,16 @@
       </c>
       <c r="B1772" t="inlineStr">
         <is>
-          <t>0112501</t>
+          <t>0111602</t>
         </is>
       </c>
       <c r="C1772" t="inlineStr">
         <is>
-          <t>Tavuk Eti</t>
+          <t>Tahıl Gevreği</t>
         </is>
       </c>
       <c r="D1772" t="n">
-        <v>119.95</v>
+        <v>119.9</v>
       </c>
       <c r="E1772" t="inlineStr">
         <is>
@@ -60724,12 +60730,12 @@
       </c>
       <c r="F1772" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/banvit-pilic-bonfile-kg-p-2be844b</t>
+          <t>https://www.migros.com.tr/nestle-cheerios-balli-tahil-gevregi-225-g-p-4db053</t>
         </is>
       </c>
       <c r="G1772" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60741,16 +60747,16 @@
       </c>
       <c r="B1773" t="inlineStr">
         <is>
-          <t>0112602</t>
+          <t>0112401</t>
         </is>
       </c>
       <c r="C1773" t="inlineStr">
         <is>
-          <t>Sakatat</t>
+          <t>Kuzu Eti</t>
         </is>
       </c>
       <c r="D1773" t="n">
-        <v>649.95</v>
+        <v>1085.95</v>
       </c>
       <c r="E1773" t="inlineStr">
         <is>
@@ -60759,12 +60765,12 @@
       </c>
       <c r="F1773" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/dana-ciger-kg-p-18ce199</t>
+          <t>https://www.migros.com.tr/kuzu-biftek-kg-but-eti-dilimlenmis-p-16e5d69</t>
         </is>
       </c>
       <c r="G1773" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60776,16 +60782,16 @@
       </c>
       <c r="B1774" t="inlineStr">
         <is>
-          <t>0112701</t>
+          <t>0112501</t>
         </is>
       </c>
       <c r="C1774" t="inlineStr">
         <is>
-          <t>Sucuk</t>
+          <t>Tavuk Eti</t>
         </is>
       </c>
       <c r="D1774" t="n">
-        <v>114.9</v>
+        <v>249.95</v>
       </c>
       <c r="E1774" t="inlineStr">
         <is>
@@ -60794,12 +60800,12 @@
       </c>
       <c r="F1774" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/namet-dana-kasap-sucuk-250-g-p-d8d1b8</t>
+          <t>https://www.migros.com.tr/banvit-pilic-bonfile-kg-p-2be844b</t>
         </is>
       </c>
       <c r="G1774" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60811,16 +60817,16 @@
       </c>
       <c r="B1775" t="inlineStr">
         <is>
-          <t>0112709</t>
+          <t>0112602</t>
         </is>
       </c>
       <c r="C1775" t="inlineStr">
         <is>
-          <t>Hazır Et Yemekleri</t>
+          <t>Sakatat</t>
         </is>
       </c>
       <c r="D1775" t="n">
-        <v>175</v>
+        <v>649.95</v>
       </c>
       <c r="E1775" t="inlineStr">
         <is>
@@ -60829,12 +60835,12 @@
       </c>
       <c r="F1775" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/gurmepack-hunkar-begendi-250-g-p-121eece</t>
+          <t>https://www.migros.com.tr/dana-ciger-kg-p-18ce199</t>
         </is>
       </c>
       <c r="G1775" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60846,16 +60852,16 @@
       </c>
       <c r="B1776" t="inlineStr">
         <is>
-          <t>0114101</t>
+          <t>0112701</t>
         </is>
       </c>
       <c r="C1776" t="inlineStr">
         <is>
-          <t>Süt</t>
+          <t>Sucuk</t>
         </is>
       </c>
       <c r="D1776" t="n">
-        <v>109.9</v>
+        <v>200</v>
       </c>
       <c r="E1776" t="inlineStr">
         <is>
@@ -60864,12 +60870,12 @@
       </c>
       <c r="F1776" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/icim-rahat-laktozsuz-sut-1-l-p-a80012</t>
+          <t>https://www.migros.com.tr/namet-dana-kasap-sucuk-250-g-p-d8d1b8</t>
         </is>
       </c>
       <c r="G1776" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60881,16 +60887,16 @@
       </c>
       <c r="B1777" t="inlineStr">
         <is>
-          <t>0114401</t>
+          <t>0112709</t>
         </is>
       </c>
       <c r="C1777" t="inlineStr">
         <is>
-          <t>Beyaz Peynir</t>
+          <t>Hazır Et Yemekleri</t>
         </is>
       </c>
       <c r="D1777" t="n">
-        <v>109.9</v>
+        <v>175</v>
       </c>
       <c r="E1777" t="inlineStr">
         <is>
@@ -60899,12 +60905,12 @@
       </c>
       <c r="F1777" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/ekici-beyaz-peynir-kg-p-98d9b9</t>
+          <t>https://www.migros.com.tr/gurmepack-hunkar-begendi-250-g-p-121eece</t>
         </is>
       </c>
       <c r="G1777" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60916,16 +60922,16 @@
       </c>
       <c r="B1778" t="inlineStr">
         <is>
-          <t>0114402</t>
+          <t>0114101</t>
         </is>
       </c>
       <c r="C1778" t="inlineStr">
         <is>
-          <t>Kaşar Peyniri</t>
+          <t>Süt</t>
         </is>
       </c>
       <c r="D1778" t="n">
-        <v>114.9</v>
+        <v>59.95</v>
       </c>
       <c r="E1778" t="inlineStr">
         <is>
@@ -60934,12 +60940,12 @@
       </c>
       <c r="F1778" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/bahcivan-kasar-peyniri-taze-700-g-p-9a1da1</t>
+          <t>https://www.migros.com.tr/icim-rahat-laktozsuz-sut-1-l-p-a80012</t>
         </is>
       </c>
       <c r="G1778" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60951,16 +60957,16 @@
       </c>
       <c r="B1779" t="inlineStr">
         <is>
-          <t>0114404</t>
+          <t>0114401</t>
         </is>
       </c>
       <c r="C1779" t="inlineStr">
         <is>
-          <t>Krem Peynir</t>
+          <t>Beyaz Peynir</t>
         </is>
       </c>
       <c r="D1779" t="n">
-        <v>69.90000000000001</v>
+        <v>309.9</v>
       </c>
       <c r="E1779" t="inlineStr">
         <is>
@@ -60969,12 +60975,12 @@
       </c>
       <c r="F1779" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/pinar-krem-peynir-300-g-p-9d2b88</t>
+          <t>https://www.migros.com.tr/ekici-beyaz-peynir-kg-p-98d9b9</t>
         </is>
       </c>
       <c r="G1779" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -60986,16 +60992,16 @@
       </c>
       <c r="B1780" t="inlineStr">
         <is>
-          <t>0114501</t>
+          <t>0114404</t>
         </is>
       </c>
       <c r="C1780" t="inlineStr">
         <is>
-          <t>Yumurta</t>
+          <t>Krem Peynir</t>
         </is>
       </c>
       <c r="D1780" t="n">
-        <v>99.5</v>
+        <v>89.25</v>
       </c>
       <c r="E1780" t="inlineStr">
         <is>
@@ -61004,12 +61010,12 @@
       </c>
       <c r="F1780" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/keskinoglu-15li-l-buyuk-boy-yumurta-63-72-g-p-1312d28</t>
+          <t>https://www.migros.com.tr/pinar-krem-peynir-300-g-p-9d2b88</t>
         </is>
       </c>
       <c r="G1780" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61021,16 +61027,16 @@
       </c>
       <c r="B1781" t="inlineStr">
         <is>
-          <t>0115101</t>
+          <t>0114501</t>
         </is>
       </c>
       <c r="C1781" t="inlineStr">
         <is>
-          <t>Tereyağı (Kahvaltılık)</t>
+          <t>Yumurta</t>
         </is>
       </c>
       <c r="D1781" t="n">
-        <v>379</v>
+        <v>99.5</v>
       </c>
       <c r="E1781" t="inlineStr">
         <is>
@@ -61039,12 +61045,12 @@
       </c>
       <c r="F1781" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/migros-tereyagi-1-kg-p-b75d84</t>
+          <t>https://www.migros.com.tr/keskinoglu-15li-l-buyuk-boy-yumurta-63-72-g-p-1312d28</t>
         </is>
       </c>
       <c r="G1781" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61056,16 +61062,16 @@
       </c>
       <c r="B1782" t="inlineStr">
         <is>
-          <t>0115201</t>
+          <t>0115101</t>
         </is>
       </c>
       <c r="C1782" t="inlineStr">
         <is>
-          <t>Margarin</t>
+          <t>Tereyağı (Kahvaltılık)</t>
         </is>
       </c>
       <c r="D1782" t="n">
-        <v>89.95</v>
+        <v>379</v>
       </c>
       <c r="E1782" t="inlineStr">
         <is>
@@ -61074,12 +61080,12 @@
       </c>
       <c r="F1782" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/luna-tereyagi-lezzeti-kase-margarin-250-g-p-402a66</t>
+          <t>https://www.migros.com.tr/migros-tereyagi-1-kg-p-b75d84</t>
         </is>
       </c>
       <c r="G1782" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61091,16 +61097,16 @@
       </c>
       <c r="B1783" t="inlineStr">
         <is>
-          <t>0116101</t>
+          <t>0115201</t>
         </is>
       </c>
       <c r="C1783" t="inlineStr">
         <is>
-          <t>Portakal</t>
+          <t>Margarin</t>
         </is>
       </c>
       <c r="D1783" t="n">
-        <v>69.95</v>
+        <v>57.75</v>
       </c>
       <c r="E1783" t="inlineStr">
         <is>
@@ -61109,12 +61115,12 @@
       </c>
       <c r="F1783" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/portakal-kg-p-1a0a047</t>
+          <t>https://www.migros.com.tr/luna-tereyagi-lezzeti-kase-margarin-250-g-p-402a66</t>
         </is>
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61126,16 +61132,16 @@
       </c>
       <c r="B1784" t="inlineStr">
         <is>
-          <t>0116102</t>
+          <t>0116101</t>
         </is>
       </c>
       <c r="C1784" t="inlineStr">
         <is>
-          <t>Üzüm</t>
+          <t>Portakal</t>
         </is>
       </c>
       <c r="D1784" t="n">
-        <v>89.95</v>
+        <v>52.95</v>
       </c>
       <c r="E1784" t="inlineStr">
         <is>
@@ -61144,12 +61150,12 @@
       </c>
       <c r="F1784" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/uzum-red-globe-kg-p-1a11d4b</t>
+          <t>https://www.migros.com.tr/portakal-kg-p-1a0a047</t>
         </is>
       </c>
       <c r="G1784" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61161,16 +61167,16 @@
       </c>
       <c r="B1785" t="inlineStr">
         <is>
-          <t>0116105</t>
+          <t>0116102</t>
         </is>
       </c>
       <c r="C1785" t="inlineStr">
         <is>
-          <t>Armut</t>
+          <t>Üzüm</t>
         </is>
       </c>
       <c r="D1785" t="n">
-        <v>49.95</v>
+        <v>129.95</v>
       </c>
       <c r="E1785" t="inlineStr">
         <is>
@@ -61179,12 +61185,12 @@
       </c>
       <c r="F1785" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/armut-deveci-kg-p-19c5e68</t>
+          <t>https://www.migros.com.tr/uzum-red-globe-kg-p-1a11d4b</t>
         </is>
       </c>
       <c r="G1785" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61196,16 +61202,16 @@
       </c>
       <c r="B1786" t="inlineStr">
         <is>
-          <t>0116107</t>
+          <t>0116105</t>
         </is>
       </c>
       <c r="C1786" t="inlineStr">
         <is>
-          <t>Ayva</t>
+          <t>Armut</t>
         </is>
       </c>
       <c r="D1786" t="n">
-        <v>69.95</v>
+        <v>129.95</v>
       </c>
       <c r="E1786" t="inlineStr">
         <is>
@@ -61214,12 +61220,12 @@
       </c>
       <c r="F1786" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/ayva-kg-p-19c71f0</t>
+          <t>https://www.migros.com.tr/armut-deveci-kg-p-19c5e68</t>
         </is>
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61231,30 +61237,30 @@
       </c>
       <c r="B1787" t="inlineStr">
         <is>
-          <t>1212003</t>
+          <t>0116107</t>
         </is>
       </c>
       <c r="C1787" t="inlineStr">
         <is>
-          <t>Elektrikli Saç Bakım Aletleri</t>
+          <t>Ayva</t>
         </is>
       </c>
       <c r="D1787" t="n">
-        <v>1801.30125</v>
+        <v>149.95</v>
       </c>
       <c r="E1787" t="inlineStr">
         <is>
-          <t>Cimri(8)</t>
+          <t>Migros(HTML-Sale)</t>
         </is>
       </c>
       <c r="F1787" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/sac-sekillendiriciler/en-ucuz-arzum-ar5063-volume-pro-hava-uflemeli-siyah-renk-sac-duzlestiricisi-fiyatlari,532109632</t>
+          <t>https://www.migros.com.tr/ayva-kg-p-19c71f0</t>
         </is>
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61266,30 +61272,30 @@
       </c>
       <c r="B1788" t="inlineStr">
         <is>
-          <t>1213001</t>
+          <t>1212003</t>
         </is>
       </c>
       <c r="C1788" t="inlineStr">
         <is>
-          <t>Tıraş Malzemeleri</t>
+          <t>Elektrikli Saç Bakım Aletleri</t>
         </is>
       </c>
       <c r="D1788" t="n">
-        <v>363.4757142857143</v>
+        <v>1801.30125</v>
       </c>
       <c r="E1788" t="inlineStr">
         <is>
-          <t>Cimri(7)</t>
+          <t>Cimri(8)</t>
         </is>
       </c>
       <c r="F1788" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/tiras-bicagi-ve-yedekleri/en-ucuz-derby-100lu-usta-yaprak-jilet-tam-bicak-fiyatlari,547112596</t>
+          <t>https://www.cimri.com/sac-sekillendiriciler/en-ucuz-arzum-ar5063-volume-pro-hava-uflemeli-siyah-renk-sac-duzlestiricisi-fiyatlari,532109632</t>
         </is>
       </c>
       <c r="G1788" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61301,30 +61307,30 @@
       </c>
       <c r="B1789" t="inlineStr">
         <is>
-          <t>1213002</t>
+          <t>1213001</t>
         </is>
       </c>
       <c r="C1789" t="inlineStr">
         <is>
-          <t>Ağız ve Diş Bakımı Ürünleri</t>
+          <t>Tıraş Malzemeleri</t>
         </is>
       </c>
       <c r="D1789" t="n">
-        <v>1193.93</v>
+        <v>363.4757142857143</v>
       </c>
       <c r="E1789" t="inlineStr">
         <is>
-          <t>Cimri(8)</t>
+          <t>Cimri(7)</t>
         </is>
       </c>
       <c r="F1789" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/dis-fircalari/en-ucuz-oral-b-vitality-pro-sarjli-dis-fircasi-fiyatlari,2063462605</t>
+          <t>https://www.cimri.com/tiras-bicagi-ve-yedekleri/en-ucuz-derby-100lu-usta-yaprak-jilet-tam-bicak-fiyatlari,547112596</t>
         </is>
       </c>
       <c r="G1789" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61336,30 +61342,30 @@
       </c>
       <c r="B1790" t="inlineStr">
         <is>
-          <t>1213005</t>
+          <t>1213002</t>
         </is>
       </c>
       <c r="C1790" t="inlineStr">
         <is>
-          <t>Tuvalet ve Güzellik Sabunu</t>
+          <t>Ağız ve Diş Bakımı Ürünleri</t>
         </is>
       </c>
       <c r="D1790" t="n">
-        <v>193.25</v>
+        <v>1193.93</v>
       </c>
       <c r="E1790" t="inlineStr">
         <is>
-          <t>Cimri(3)</t>
+          <t>Cimri(8)</t>
         </is>
       </c>
       <c r="F1790" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/sabunlar/en-ucuz-dove-beauty-cream-4x90-gr-bar-sabun-fiyatlari,1991237738</t>
+          <t>https://www.cimri.com/dis-fircalari/en-ucuz-oral-b-vitality-pro-sarjli-dis-fircasi-fiyatlari,2063462605</t>
         </is>
       </c>
       <c r="G1790" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61371,30 +61377,30 @@
       </c>
       <c r="B1791" t="inlineStr">
         <is>
-          <t>1213006</t>
+          <t>1213005</t>
         </is>
       </c>
       <c r="C1791" t="inlineStr">
         <is>
-          <t>Sabun</t>
+          <t>Tuvalet ve Güzellik Sabunu</t>
         </is>
       </c>
       <c r="D1791" t="n">
-        <v>324.49625</v>
+        <v>193.25</v>
       </c>
       <c r="E1791" t="inlineStr">
         <is>
-          <t>Cimri(8)</t>
+          <t>Cimri(3)</t>
         </is>
       </c>
       <c r="F1791" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/sabunlar/en-ucuz-eyup-sabri-tuncer-okyanus-15-lt-sivi-sabun-fiyatlari,307496463</t>
+          <t>https://www.cimri.com/sabunlar/en-ucuz-dove-beauty-cream-4x90-gr-bar-sabun-fiyatlari,1991237738</t>
         </is>
       </c>
       <c r="G1791" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61406,16 +61412,16 @@
       </c>
       <c r="B1792" t="inlineStr">
         <is>
-          <t>1213007</t>
+          <t>1213006</t>
         </is>
       </c>
       <c r="C1792" t="inlineStr">
         <is>
-          <t>Parfüm</t>
+          <t>Sabun</t>
         </is>
       </c>
       <c r="D1792" t="n">
-        <v>2104.55375</v>
+        <v>324.49625</v>
       </c>
       <c r="E1792" t="inlineStr">
         <is>
@@ -61424,12 +61430,12 @@
       </c>
       <c r="F1792" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/erkek-parfumleri/en-ucuz-emporio-armani-stronger-with-you-intensely-edp-100-ml-erkek-parfum-fiyatlari,151899670</t>
+          <t>https://www.cimri.com/sabunlar/en-ucuz-eyup-sabri-tuncer-okyanus-15-lt-sivi-sabun-fiyatlari,307496463</t>
         </is>
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61441,30 +61447,30 @@
       </c>
       <c r="B1793" t="inlineStr">
         <is>
-          <t>1213008</t>
+          <t>1213007</t>
         </is>
       </c>
       <c r="C1793" t="inlineStr">
         <is>
-          <t>Deodorant</t>
+          <t>Parfüm</t>
         </is>
       </c>
       <c r="D1793" t="n">
-        <v>221.6475</v>
+        <v>2104.55375</v>
       </c>
       <c r="E1793" t="inlineStr">
         <is>
-          <t>Cimri(4)</t>
+          <t>Cimri(8)</t>
         </is>
       </c>
       <c r="F1793" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/sprey-deodorantlar/en-ucuz-axe-apollo-200-ml-48-saat-etkileyici-erkek-sprey-deodorant-fiyatlari,2420346040</t>
+          <t>https://www.cimri.com/erkek-parfumleri/en-ucuz-emporio-armani-stronger-with-you-intensely-edp-100-ml-erkek-parfum-fiyatlari,151899670</t>
         </is>
       </c>
       <c r="G1793" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61476,30 +61482,30 @@
       </c>
       <c r="B1794" t="inlineStr">
         <is>
-          <t>1213009</t>
+          <t>1213008</t>
         </is>
       </c>
       <c r="C1794" t="inlineStr">
         <is>
-          <t>Kolonya</t>
+          <t>Deodorant</t>
         </is>
       </c>
       <c r="D1794" t="n">
-        <v>241.79</v>
+        <v>221.6475</v>
       </c>
       <c r="E1794" t="inlineStr">
         <is>
-          <t>Cimri(8)</t>
+          <t>Cimri(4)</t>
         </is>
       </c>
       <c r="F1794" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/kolonya-gulsuyu/en-ucuz-eyup-sabri-tuncer-1-lt-limon-kolanyasi-fiyatlari,84512025</t>
+          <t>https://www.cimri.com/sprey-deodorantlar/en-ucuz-axe-apollo-200-ml-48-saat-etkileyici-erkek-sprey-deodorant-fiyatlari,2420346040</t>
         </is>
       </c>
       <c r="G1794" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61511,16 +61517,16 @@
       </c>
       <c r="B1795" t="inlineStr">
         <is>
-          <t>1213010</t>
+          <t>1213009</t>
         </is>
       </c>
       <c r="C1795" t="inlineStr">
         <is>
-          <t>Cilt ve Vücut Ürünleri</t>
+          <t>Kolonya</t>
         </is>
       </c>
       <c r="D1795" t="n">
-        <v>1492.16875</v>
+        <v>241.79</v>
       </c>
       <c r="E1795" t="inlineStr">
         <is>
@@ -61529,12 +61535,12 @@
       </c>
       <c r="F1795" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/vucut-losyonu-ve-nemlendiricileri/en-ucuz-la-roche-posay-lipikar-baume-ap-m-400-ml-yatistirici-balm-fiyatlari,478698501</t>
+          <t>https://www.cimri.com/kolonya-gulsuyu/en-ucuz-eyup-sabri-tuncer-1-lt-limon-kolanyasi-fiyatlari,84512025</t>
         </is>
       </c>
       <c r="G1795" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61546,30 +61552,30 @@
       </c>
       <c r="B1796" t="inlineStr">
         <is>
-          <t>1213011</t>
+          <t>1213010</t>
         </is>
       </c>
       <c r="C1796" t="inlineStr">
         <is>
-          <t>Makyaj Malzemeleri</t>
+          <t>Cilt ve Vücut Ürünleri</t>
         </is>
       </c>
       <c r="D1796" t="n">
-        <v>656.95</v>
+        <v>1492.16875</v>
       </c>
       <c r="E1796" t="inlineStr">
         <is>
-          <t>Cimri(2)</t>
+          <t>Cimri(8)</t>
         </is>
       </c>
       <c r="F1796" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/rujlar-dudak-parlaticilari/en-ucuz-maybelline-color-sensational-630-velvet-beige-ruj-fiyatlari,328911</t>
+          <t>https://www.cimri.com/vucut-losyonu-ve-nemlendiricileri/en-ucuz-la-roche-posay-lipikar-baume-ap-m-400-ml-yatistirici-balm-fiyatlari,478698501</t>
         </is>
       </c>
       <c r="G1796" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61581,30 +61587,30 @@
       </c>
       <c r="B1797" t="inlineStr">
         <is>
-          <t>1213013</t>
+          <t>1213011</t>
         </is>
       </c>
       <c r="C1797" t="inlineStr">
         <is>
-          <t>Saç Bakım Ürünleri</t>
+          <t>Makyaj Malzemeleri</t>
         </is>
       </c>
       <c r="D1797" t="n">
-        <v>1071.5825</v>
+        <v>656.95</v>
       </c>
       <c r="E1797" t="inlineStr">
         <is>
-          <t>Cimri(8)</t>
+          <t>Cimri(2)</t>
         </is>
       </c>
       <c r="F1797" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/sampuan-ve-sac-kremi/en-ucuz-vichy-dercos-anti-dandruff-390-ml-yagli-saclar-icin-sampuan-fiyatlari,46981523</t>
+          <t>https://www.cimri.com/rujlar-dudak-parlaticilari/en-ucuz-maybelline-color-sensational-630-velvet-beige-ruj-fiyatlari,328911</t>
         </is>
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61616,30 +61622,30 @@
       </c>
       <c r="B1798" t="inlineStr">
         <is>
-          <t>1213014</t>
+          <t>1213013</t>
         </is>
       </c>
       <c r="C1798" t="inlineStr">
         <is>
-          <t>Tuvalet Kağıdı</t>
+          <t>Saç Bakım Ürünleri</t>
         </is>
       </c>
       <c r="D1798" t="n">
-        <v>133.0577777777778</v>
+        <v>1071.5825</v>
       </c>
       <c r="E1798" t="inlineStr">
         <is>
-          <t>Cimri(Reg)</t>
+          <t>Cimri(8)</t>
         </is>
       </c>
       <c r="F1798" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/market/tuvalet-kagidi/en-ucuz-familia-plus-40-li-natural-tuvalet-kagidi-fiyatlari,1152418</t>
+          <t>https://www.cimri.com/sampuan-ve-sac-kremi/en-ucuz-vichy-dercos-anti-dandruff-390-ml-yagli-saclar-icin-sampuan-fiyatlari,46981523</t>
         </is>
       </c>
       <c r="G1798" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61651,30 +61657,30 @@
       </c>
       <c r="B1799" t="inlineStr">
         <is>
-          <t>1213015</t>
+          <t>1213014</t>
         </is>
       </c>
       <c r="C1799" t="inlineStr">
         <is>
-          <t>Mendil</t>
+          <t>Tuvalet Kağıdı</t>
         </is>
       </c>
       <c r="D1799" t="n">
-        <v>410.3866666666666</v>
+        <v>133.0577777777778</v>
       </c>
       <c r="E1799" t="inlineStr">
         <is>
-          <t>Cimri(3)</t>
+          <t>Cimri(Reg)</t>
         </is>
       </c>
       <c r="F1799" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/bebek-mendil-islak-mendil/en-ucuz-molfix-yenidogan-3x50-150-yaprak-islak-mendil-fiyatlari,1752872264</t>
+          <t>https://www.cimri.com/market/tuvalet-kagidi/en-ucuz-familia-plus-40-li-natural-tuvalet-kagidi-fiyatlari,1152418</t>
         </is>
       </c>
       <c r="G1799" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61686,30 +61692,30 @@
       </c>
       <c r="B1800" t="inlineStr">
         <is>
-          <t>1213017</t>
+          <t>1213015</t>
         </is>
       </c>
       <c r="C1800" t="inlineStr">
         <is>
-          <t>Bebek Bezi</t>
+          <t>Mendil</t>
         </is>
       </c>
       <c r="D1800" t="n">
-        <v>599.47</v>
+        <v>410.3866666666666</v>
       </c>
       <c r="E1800" t="inlineStr">
         <is>
-          <t>Cimri(8)</t>
+          <t>Cimri(3)</t>
         </is>
       </c>
       <c r="F1800" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/bebek-bezi/en-ucuz-prima-pants-no5-junior-kulot-bebek-bezi-fiyatlari,a927227985</t>
+          <t>https://www.cimri.com/bebek-mendil-islak-mendil/en-ucuz-molfix-yenidogan-3x50-150-yaprak-islak-mendil-fiyatlari,1752872264</t>
         </is>
       </c>
       <c r="G1800" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61721,30 +61727,30 @@
       </c>
       <c r="B1801" t="inlineStr">
         <is>
-          <t>1213018</t>
+          <t>1213017</t>
         </is>
       </c>
       <c r="C1801" t="inlineStr">
         <is>
-          <t>Hijyenik Kadın Bağı</t>
+          <t>Bebek Bezi</t>
         </is>
       </c>
       <c r="D1801" t="n">
-        <v>139.5666666666667</v>
+        <v>599.47</v>
       </c>
       <c r="E1801" t="inlineStr">
         <is>
-          <t>Cimri(3)</t>
+          <t>Cimri(8)</t>
         </is>
       </c>
       <c r="F1801" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/hijyenik-pedler-ve-tamponlar/en-ucuz-molped-pure-soft-mega-firsat-gece-ultra-30lu-ped-fiyatlari,1434584753</t>
+          <t>https://www.cimri.com/bebek-bezi/en-ucuz-prima-pants-no5-junior-kulot-bebek-bezi-fiyatlari,a927227985</t>
         </is>
       </c>
       <c r="G1801" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61756,16 +61762,16 @@
       </c>
       <c r="B1802" t="inlineStr">
         <is>
-          <t>1231001</t>
+          <t>1213018</t>
         </is>
       </c>
       <c r="C1802" t="inlineStr">
         <is>
-          <t>Mücevher (Altın)</t>
+          <t>Hijyenik Kadın Bağı</t>
         </is>
       </c>
       <c r="D1802" t="n">
-        <v>3032.95</v>
+        <v>139.5666666666667</v>
       </c>
       <c r="E1802" t="inlineStr">
         <is>
@@ -61774,12 +61780,12 @@
       </c>
       <c r="F1802" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/altin-kolye/en-ucuz-harem-altin-gms926-kadin-altin-kolye-fiyatlari,420606620</t>
+          <t>https://www.cimri.com/hijyenik-pedler-ve-tamponlar/en-ucuz-molped-pure-soft-mega-firsat-gece-ultra-30lu-ped-fiyatlari,1434584753</t>
         </is>
       </c>
       <c r="G1802" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61791,30 +61797,30 @@
       </c>
       <c r="B1803" t="inlineStr">
         <is>
-          <t>1231005</t>
+          <t>1231001</t>
         </is>
       </c>
       <c r="C1803" t="inlineStr">
         <is>
-          <t>Saat</t>
+          <t>Mücevher (Altın)</t>
         </is>
       </c>
       <c r="D1803" t="n">
-        <v>3539.22625</v>
+        <v>3032.95</v>
       </c>
       <c r="E1803" t="inlineStr">
         <is>
-          <t>Cimri(8)</t>
+          <t>Cimri(3)</t>
         </is>
       </c>
       <c r="F1803" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/kol-saatleri/en-ucuz-casio-mtp-1374d-1avdf-erkek-kol-saati-fiyatlari,746882</t>
+          <t>https://www.cimri.com/altin-kolye/en-ucuz-harem-altin-gms926-kadin-altin-kolye-fiyatlari,420606620</t>
         </is>
       </c>
       <c r="G1803" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61826,30 +61832,30 @@
       </c>
       <c r="B1804" t="inlineStr">
         <is>
-          <t>1232101</t>
+          <t>1231005</t>
         </is>
       </c>
       <c r="C1804" t="inlineStr">
         <is>
-          <t>Seyahat Malzemeleri</t>
+          <t>Saat</t>
         </is>
       </c>
       <c r="D1804" t="n">
-        <v>2275.146666666667</v>
+        <v>3539.22625</v>
       </c>
       <c r="E1804" t="inlineStr">
         <is>
-          <t>Cimri(3)</t>
+          <t>Cimri(8)</t>
         </is>
       </c>
       <c r="F1804" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/bavul-valiz/en-ucuz-louisiana-polo-1081-bej-4-teker-kumas-buyuk-boy-valiz-fiyatlari,2294035409</t>
+          <t>https://www.cimri.com/kol-saatleri/en-ucuz-casio-mtp-1374d-1avdf-erkek-kol-saati-fiyatlari,746882</t>
         </is>
       </c>
       <c r="G1804" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61861,16 +61867,16 @@
       </c>
       <c r="B1805" t="inlineStr">
         <is>
-          <t>1232104</t>
+          <t>1232101</t>
         </is>
       </c>
       <c r="C1805" t="inlineStr">
         <is>
-          <t>Çanta (Kadın İçin)</t>
+          <t>Seyahat Malzemeleri</t>
         </is>
       </c>
       <c r="D1805" t="n">
-        <v>1377.316666666667</v>
+        <v>2275.146666666667</v>
       </c>
       <c r="E1805" t="inlineStr">
         <is>
@@ -61879,12 +61885,12 @@
       </c>
       <c r="F1805" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/bayan-gunluk-canta/en-ucuz-armine-206-siyah-kadin-canta-fiyatlari,890791052</t>
+          <t>https://www.cimri.com/bavul-valiz/en-ucuz-louisiana-polo-1081-bej-4-teker-kumas-buyuk-boy-valiz-fiyatlari,2294035409</t>
         </is>
       </c>
       <c r="G1805" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61896,30 +61902,30 @@
       </c>
       <c r="B1806" t="inlineStr">
         <is>
-          <t>1232106</t>
+          <t>1232104</t>
         </is>
       </c>
       <c r="C1806" t="inlineStr">
         <is>
-          <t>Okul Çantası</t>
+          <t>Çanta (Kadın İçin)</t>
         </is>
       </c>
       <c r="D1806" t="n">
-        <v>1463.85</v>
+        <v>1377.316666666667</v>
       </c>
       <c r="E1806" t="inlineStr">
         <is>
-          <t>Cimri(6)</t>
+          <t>Cimri(3)</t>
         </is>
       </c>
       <c r="F1806" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/okul-cantasi/en-ucuz-relaxion-2225-okul-sirt-cantasi-fiyatlari,a2493276887</t>
+          <t>https://www.cimri.com/bayan-gunluk-canta/en-ucuz-armine-206-siyah-kadin-canta-fiyatlari,890791052</t>
         </is>
       </c>
       <c r="G1806" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61931,30 +61937,30 @@
       </c>
       <c r="B1807" t="inlineStr">
         <is>
-          <t>1232203</t>
+          <t>1232106</t>
         </is>
       </c>
       <c r="C1807" t="inlineStr">
         <is>
-          <t>Bebek Arabası</t>
+          <t>Okul Çantası</t>
         </is>
       </c>
       <c r="D1807" t="n">
-        <v>15167.40142857143</v>
+        <v>1463.85</v>
       </c>
       <c r="E1807" t="inlineStr">
         <is>
-          <t>Cimri(7)</t>
+          <t>Cimri(6)</t>
         </is>
       </c>
       <c r="F1807" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/bebek-arabasi-ve-pusetler/en-ucuz-maxi-cosi-lara2-ultra-kompakt-otomatik-katlanan-essential-graphite-kabin-boy-seyahat-sistem-olabilen-bebek-arabasi-fiyatlari,2230435922</t>
+          <t>https://www.cimri.com/okul-cantasi/en-ucuz-relaxion-2225-okul-sirt-cantasi-fiyatlari,a2493276887</t>
         </is>
       </c>
       <c r="G1807" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -61966,30 +61972,30 @@
       </c>
       <c r="B1808" t="inlineStr">
         <is>
-          <t>1232204</t>
+          <t>1232203</t>
         </is>
       </c>
       <c r="C1808" t="inlineStr">
         <is>
-          <t>Güneş Gözlüğü</t>
+          <t>Bebek Arabası</t>
         </is>
       </c>
       <c r="D1808" t="n">
-        <v>4911.125</v>
+        <v>15167.40142857143</v>
       </c>
       <c r="E1808" t="inlineStr">
         <is>
-          <t>Cimri(4)</t>
+          <t>Cimri(7)</t>
         </is>
       </c>
       <c r="F1808" t="inlineStr">
         <is>
-          <t>https://www.cimri.com/unisex-gunes-gozlukleri/en-ucuz-ray-ban-rb4340-601-50-unisex-gunes-gozlugu-fiyatlari,50633380</t>
+          <t>https://www.cimri.com/bebek-arabasi-ve-pusetler/en-ucuz-maxi-cosi-lara2-ultra-kompakt-otomatik-katlanan-essential-graphite-kabin-boy-seyahat-sistem-olabilen-bebek-arabasi-fiyatlari,2230435922</t>
         </is>
       </c>
       <c r="G1808" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62001,30 +62007,30 @@
       </c>
       <c r="B1809" t="inlineStr">
         <is>
-          <t>0116110</t>
+          <t>1232204</t>
         </is>
       </c>
       <c r="C1809" t="inlineStr">
         <is>
-          <t>Çilek</t>
+          <t>Güneş Gözlüğü</t>
         </is>
       </c>
       <c r="D1809" t="n">
-        <v>69.95</v>
+        <v>4911.125</v>
       </c>
       <c r="E1809" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Cimri(4)</t>
         </is>
       </c>
       <c r="F1809" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/kiraz-yer-altin-cilek-100-g-p-1a43a48</t>
+          <t>https://www.cimri.com/unisex-gunes-gozlukleri/en-ucuz-ray-ban-rb4340-601-50-unisex-gunes-gozlugu-fiyatlari,50633380</t>
         </is>
       </c>
       <c r="G1809" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62036,12 +62042,12 @@
       </c>
       <c r="B1810" t="inlineStr">
         <is>
-          <t>0116112</t>
+          <t>0116110</t>
         </is>
       </c>
       <c r="C1810" t="inlineStr">
         <is>
-          <t>Elma</t>
+          <t>Çilek</t>
         </is>
       </c>
       <c r="D1810" t="n">
@@ -62054,12 +62060,12 @@
       </c>
       <c r="F1810" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/elma-granny-smith-kg-p-19e0448</t>
+          <t>https://www.migros.com.tr/kiraz-yer-altin-cilek-100-g-p-1a43a48</t>
         </is>
       </c>
       <c r="G1810" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62071,16 +62077,16 @@
       </c>
       <c r="B1811" t="inlineStr">
         <is>
-          <t>0116121</t>
+          <t>0116112</t>
         </is>
       </c>
       <c r="C1811" t="inlineStr">
         <is>
-          <t>Karpuz</t>
+          <t>Elma</t>
         </is>
       </c>
       <c r="D1811" t="n">
-        <v>24.95</v>
+        <v>139.95</v>
       </c>
       <c r="E1811" t="inlineStr">
         <is>
@@ -62089,12 +62095,12 @@
       </c>
       <c r="F1811" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/oneo-karpuz-aromali-draje-sakiz-21-g-p-6ca51e</t>
+          <t>https://www.migros.com.tr/elma-granny-smith-kg-p-19e0448</t>
         </is>
       </c>
       <c r="G1811" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62106,16 +62112,16 @@
       </c>
       <c r="B1812" t="inlineStr">
         <is>
-          <t>0116128</t>
+          <t>0116121</t>
         </is>
       </c>
       <c r="C1812" t="inlineStr">
         <is>
-          <t>Kivi</t>
+          <t>Karpuz</t>
         </is>
       </c>
       <c r="D1812" t="n">
-        <v>69.95</v>
+        <v>24.95</v>
       </c>
       <c r="E1812" t="inlineStr">
         <is>
@@ -62124,12 +62130,12 @@
       </c>
       <c r="F1812" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/kivi-kg-p-19fcd50</t>
+          <t>https://www.migros.com.tr/oneo-karpuz-aromali-draje-sakiz-21-g-p-6ca51e</t>
         </is>
       </c>
       <c r="G1812" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62141,16 +62147,16 @@
       </c>
       <c r="B1813" t="inlineStr">
         <is>
-          <t>0116130</t>
+          <t>0116128</t>
         </is>
       </c>
       <c r="C1813" t="inlineStr">
         <is>
-          <t>Limon</t>
+          <t>Kivi</t>
         </is>
       </c>
       <c r="D1813" t="n">
-        <v>99.95</v>
+        <v>139.95</v>
       </c>
       <c r="E1813" t="inlineStr">
         <is>
@@ -62159,12 +62165,12 @@
       </c>
       <c r="F1813" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/limon-kg-p-19ff462</t>
+          <t>https://www.migros.com.tr/kivi-kg-p-19fcd50</t>
         </is>
       </c>
       <c r="G1813" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62176,16 +62182,16 @@
       </c>
       <c r="B1814" t="inlineStr">
         <is>
-          <t>0116131</t>
+          <t>0116130</t>
         </is>
       </c>
       <c r="C1814" t="inlineStr">
         <is>
-          <t>Mandalina</t>
+          <t>Limon</t>
         </is>
       </c>
       <c r="D1814" t="n">
-        <v>59.95</v>
+        <v>69.95</v>
       </c>
       <c r="E1814" t="inlineStr">
         <is>
@@ -62194,12 +62200,12 @@
       </c>
       <c r="F1814" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/mandalina-naturel-kg-p-1a05de4</t>
+          <t>https://www.migros.com.tr/limon-kg-p-19ff462</t>
         </is>
       </c>
       <c r="G1814" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62211,16 +62217,16 @@
       </c>
       <c r="B1815" t="inlineStr">
         <is>
-          <t>0116134</t>
+          <t>0116131</t>
         </is>
       </c>
       <c r="C1815" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Mandalina</t>
         </is>
       </c>
       <c r="D1815" t="n">
-        <v>89.95</v>
+        <v>29.95</v>
       </c>
       <c r="E1815" t="inlineStr">
         <is>
@@ -62229,12 +62235,12 @@
       </c>
       <c r="F1815" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/muz-ithal-kg-p-1a01f58</t>
+          <t>https://www.migros.com.tr/mandalina-naturel-kg-p-1a05de4</t>
         </is>
       </c>
       <c r="G1815" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62246,16 +62252,16 @@
       </c>
       <c r="B1816" t="inlineStr">
         <is>
-          <t>0116135</t>
+          <t>0116134</t>
         </is>
       </c>
       <c r="C1816" t="inlineStr">
         <is>
-          <t>Nar</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="D1816" t="n">
-        <v>69.95</v>
+        <v>89.95</v>
       </c>
       <c r="E1816" t="inlineStr">
         <is>
@@ -62264,12 +62270,12 @@
       </c>
       <c r="F1816" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/nar-kg-p-1a06990</t>
+          <t>https://www.migros.com.tr/muz-ithal-kg-p-1a01f58</t>
         </is>
       </c>
       <c r="G1816" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62281,16 +62287,16 @@
       </c>
       <c r="B1817" t="inlineStr">
         <is>
-          <t>0116201</t>
+          <t>0116135</t>
         </is>
       </c>
       <c r="C1817" t="inlineStr">
         <is>
-          <t>Badem İçi</t>
+          <t>Nar</t>
         </is>
       </c>
       <c r="D1817" t="n">
-        <v>89</v>
+        <v>69.95</v>
       </c>
       <c r="E1817" t="inlineStr">
         <is>
@@ -62299,12 +62305,12 @@
       </c>
       <c r="F1817" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/migros-kavrulmus-badem-ici-150-g-p-7b4bab</t>
+          <t>https://www.migros.com.tr/nar-kg-p-1a06990</t>
         </is>
       </c>
       <c r="G1817" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62316,16 +62322,16 @@
       </c>
       <c r="B1818" t="inlineStr">
         <is>
-          <t>0116204</t>
+          <t>0116201</t>
         </is>
       </c>
       <c r="C1818" t="inlineStr">
         <is>
-          <t>Antep Fıstığı</t>
+          <t>Badem İçi</t>
         </is>
       </c>
       <c r="D1818" t="n">
-        <v>235.9</v>
+        <v>89</v>
       </c>
       <c r="E1818" t="inlineStr">
         <is>
@@ -62334,12 +62340,12 @@
       </c>
       <c r="F1818" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/master-nut-kabuklu-antep-fistigi-140-g-p-7b49d9</t>
+          <t>https://www.migros.com.tr/migros-kavrulmus-badem-ici-150-g-p-7b4bab</t>
         </is>
       </c>
       <c r="G1818" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62351,16 +62357,16 @@
       </c>
       <c r="B1819" t="inlineStr">
         <is>
-          <t>0116206</t>
+          <t>0116204</t>
         </is>
       </c>
       <c r="C1819" t="inlineStr">
         <is>
-          <t>Yer Fıstığı</t>
+          <t>Antep Fıstığı</t>
         </is>
       </c>
       <c r="D1819" t="n">
-        <v>63.95</v>
+        <v>235.9</v>
       </c>
       <c r="E1819" t="inlineStr">
         <is>
@@ -62369,12 +62375,12 @@
       </c>
       <c r="F1819" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/tadim-tuzlu-yer-fistigi-180-g-p-7b4947</t>
+          <t>https://www.migros.com.tr/master-nut-kabuklu-antep-fistigi-140-g-p-7b49d9</t>
         </is>
       </c>
       <c r="G1819" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62386,16 +62392,16 @@
       </c>
       <c r="B1820" t="inlineStr">
         <is>
-          <t>0116208</t>
+          <t>0116206</t>
         </is>
       </c>
       <c r="C1820" t="inlineStr">
         <is>
-          <t>Ay Çekirdeği</t>
+          <t>Yer Fıstığı</t>
         </is>
       </c>
       <c r="D1820" t="n">
-        <v>49</v>
+        <v>63.95</v>
       </c>
       <c r="E1820" t="inlineStr">
         <is>
@@ -62404,12 +62410,12 @@
       </c>
       <c r="F1820" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/tadim-bol-tuzlu-kavrulmus-siyah-aycekirdek-180-g-p-7b716a</t>
+          <t>https://www.migros.com.tr/tadim-tuzlu-yer-fistigi-180-g-p-7b4947</t>
         </is>
       </c>
       <c r="G1820" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62421,16 +62427,16 @@
       </c>
       <c r="B1821" t="inlineStr">
         <is>
-          <t>0116210</t>
+          <t>0116208</t>
         </is>
       </c>
       <c r="C1821" t="inlineStr">
         <is>
-          <t>Kuru Üzüm</t>
+          <t>Ay Çekirdeği</t>
         </is>
       </c>
       <c r="D1821" t="n">
-        <v>45.95</v>
+        <v>50</v>
       </c>
       <c r="E1821" t="inlineStr">
         <is>
@@ -62439,12 +62445,12 @@
       </c>
       <c r="F1821" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/tadim-sultaniye-kuru-uzum-140-g-p-7b704f</t>
+          <t>https://www.migros.com.tr/tadim-bol-tuzlu-kavrulmus-siyah-aycekirdek-180-g-p-7b716a</t>
         </is>
       </c>
       <c r="G1821" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62456,16 +62462,16 @@
       </c>
       <c r="B1822" t="inlineStr">
         <is>
-          <t>0117117</t>
+          <t>0116210</t>
         </is>
       </c>
       <c r="C1822" t="inlineStr">
         <is>
-          <t>Sivri Biber</t>
+          <t>Kuru Üzüm</t>
         </is>
       </c>
       <c r="D1822" t="n">
-        <v>39.95</v>
+        <v>45.95</v>
       </c>
       <c r="E1822" t="inlineStr">
         <is>
@@ -62474,12 +62480,12 @@
       </c>
       <c r="F1822" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/biber-sivri-kg-p-1ac11f0</t>
+          <t>https://www.migros.com.tr/tadim-sultaniye-kuru-uzum-140-g-p-7b704f</t>
         </is>
       </c>
       <c r="G1822" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62491,12 +62497,12 @@
       </c>
       <c r="B1823" t="inlineStr">
         <is>
-          <t>0117121</t>
+          <t>0117117</t>
         </is>
       </c>
       <c r="C1823" t="inlineStr">
         <is>
-          <t>Dereotu</t>
+          <t>Sivri Biber</t>
         </is>
       </c>
       <c r="D1823" t="n">
@@ -62509,12 +62515,12 @@
       </c>
       <c r="F1823" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/dereotu-adet-p-1ac2969</t>
+          <t>https://www.migros.com.tr/biber-sivri-kg-p-1ac11f0</t>
         </is>
       </c>
       <c r="G1823" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62526,16 +62532,16 @@
       </c>
       <c r="B1824" t="inlineStr">
         <is>
-          <t>0117125</t>
+          <t>0117121</t>
         </is>
       </c>
       <c r="C1824" t="inlineStr">
         <is>
-          <t>Taze Fasulye</t>
+          <t>Dereotu</t>
         </is>
       </c>
       <c r="D1824" t="n">
-        <v>94.47</v>
+        <v>19.95</v>
       </c>
       <c r="E1824" t="inlineStr">
         <is>
@@ -62544,12 +62550,12 @@
       </c>
       <c r="F1824" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/superfresh-taze-fasulye-450-g-p-1038d63</t>
+          <t>https://www.migros.com.tr/dereotu-adet-p-1ac2969</t>
         </is>
       </c>
       <c r="G1824" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62561,16 +62567,16 @@
       </c>
       <c r="B1825" t="inlineStr">
         <is>
-          <t>0117130</t>
+          <t>0117125</t>
         </is>
       </c>
       <c r="C1825" t="inlineStr">
         <is>
-          <t>Havuç</t>
+          <t>Taze Fasulye</t>
         </is>
       </c>
       <c r="D1825" t="n">
-        <v>29.95</v>
+        <v>124.95</v>
       </c>
       <c r="E1825" t="inlineStr">
         <is>
@@ -62579,12 +62585,12 @@
       </c>
       <c r="F1825" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/havuc-beypazari-paket-kg-p-1ad36f9</t>
+          <t>https://www.migros.com.tr/superfresh-taze-fasulye-450-g-p-1038d63</t>
         </is>
       </c>
       <c r="G1825" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62596,16 +62602,16 @@
       </c>
       <c r="B1826" t="inlineStr">
         <is>
-          <t>0117146</t>
+          <t>0117130</t>
         </is>
       </c>
       <c r="C1826" t="inlineStr">
         <is>
-          <t>Kuru Soğan</t>
+          <t>Havuç</t>
         </is>
       </c>
       <c r="D1826" t="n">
-        <v>39.95</v>
+        <v>49.95</v>
       </c>
       <c r="E1826" t="inlineStr">
         <is>
@@ -62614,12 +62620,12 @@
       </c>
       <c r="F1826" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/sogan-kuru-dokme-kg-p-1b1a7a0</t>
+          <t>https://www.migros.com.tr/havuc-beypazari-paket-kg-p-1ad36f9</t>
         </is>
       </c>
       <c r="G1826" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62631,16 +62637,16 @@
       </c>
       <c r="B1827" t="inlineStr">
         <is>
-          <t>0117148</t>
+          <t>0117146</t>
         </is>
       </c>
       <c r="C1827" t="inlineStr">
         <is>
-          <t>Beyaz Lahana</t>
+          <t>Kuru Soğan</t>
         </is>
       </c>
       <c r="D1827" t="n">
-        <v>29.95</v>
+        <v>13.95</v>
       </c>
       <c r="E1827" t="inlineStr">
         <is>
@@ -62649,12 +62655,12 @@
       </c>
       <c r="F1827" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/lahana-beyaz-kg-p-1ae7350</t>
+          <t>https://www.migros.com.tr/sogan-kuru-dokme-kg-p-1b1a7a0</t>
         </is>
       </c>
       <c r="G1827" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62666,16 +62672,16 @@
       </c>
       <c r="B1828" t="inlineStr">
         <is>
-          <t>0117150</t>
+          <t>0117148</t>
         </is>
       </c>
       <c r="C1828" t="inlineStr">
         <is>
-          <t>Kırmızı Lahana</t>
+          <t>Beyaz Lahana</t>
         </is>
       </c>
       <c r="D1828" t="n">
-        <v>29.95</v>
+        <v>24.95</v>
       </c>
       <c r="E1828" t="inlineStr">
         <is>
@@ -62684,12 +62690,12 @@
       </c>
       <c r="F1828" t="inlineStr">
         <is>
-          <t>https://www.migros.com.tr/lahana-kirmizi-kg-p-1aec170</t>
+          <t>https://www.migros.com.tr/lahana-beyaz-kg-p-1ae7350</t>
         </is>
       </c>
       <c r="G1828" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62724,7 +62730,7 @@
       </c>
       <c r="G1829" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62759,7 +62765,7 @@
       </c>
       <c r="G1830" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62794,7 +62800,7 @@
       </c>
       <c r="G1831" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62815,7 +62821,7 @@
         </is>
       </c>
       <c r="D1832" t="n">
-        <v>39.95</v>
+        <v>49.95</v>
       </c>
       <c r="E1832" t="inlineStr">
         <is>
@@ -62829,7 +62835,7 @@
       </c>
       <c r="G1832" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62850,7 +62856,7 @@
         </is>
       </c>
       <c r="D1833" t="n">
-        <v>29.95</v>
+        <v>49.95</v>
       </c>
       <c r="E1833" t="inlineStr">
         <is>
@@ -62864,7 +62870,7 @@
       </c>
       <c r="G1833" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62899,7 +62905,7 @@
       </c>
       <c r="G1834" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62920,7 +62926,7 @@
         </is>
       </c>
       <c r="D1835" t="n">
-        <v>29.95</v>
+        <v>49.95</v>
       </c>
       <c r="E1835" t="inlineStr">
         <is>
@@ -62934,7 +62940,7 @@
       </c>
       <c r="G1835" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62955,7 +62961,7 @@
         </is>
       </c>
       <c r="D1836" t="n">
-        <v>119.95</v>
+        <v>204.95</v>
       </c>
       <c r="E1836" t="inlineStr">
         <is>
@@ -62969,7 +62975,7 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -62990,7 +62996,7 @@
         </is>
       </c>
       <c r="D1837" t="n">
-        <v>29.95</v>
+        <v>44.95</v>
       </c>
       <c r="E1837" t="inlineStr">
         <is>
@@ -63004,7 +63010,7 @@
       </c>
       <c r="G1837" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63025,7 +63031,7 @@
         </is>
       </c>
       <c r="D1838" t="n">
-        <v>114.9</v>
+        <v>56.95</v>
       </c>
       <c r="E1838" t="inlineStr">
         <is>
@@ -63039,7 +63045,7 @@
       </c>
       <c r="G1838" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63060,7 +63066,7 @@
         </is>
       </c>
       <c r="D1839" t="n">
-        <v>104.95</v>
+        <v>43.95</v>
       </c>
       <c r="E1839" t="inlineStr">
         <is>
@@ -63074,7 +63080,7 @@
       </c>
       <c r="G1839" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63109,7 +63115,7 @@
       </c>
       <c r="G1840" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63144,7 +63150,7 @@
       </c>
       <c r="G1841" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63165,7 +63171,7 @@
         </is>
       </c>
       <c r="D1842" t="n">
-        <v>74.95</v>
+        <v>199.95</v>
       </c>
       <c r="E1842" t="inlineStr">
         <is>
@@ -63179,7 +63185,7 @@
       </c>
       <c r="G1842" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63214,7 +63220,7 @@
       </c>
       <c r="G1843" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63249,7 +63255,7 @@
       </c>
       <c r="G1844" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63270,7 +63276,7 @@
         </is>
       </c>
       <c r="D1845" t="n">
-        <v>104.95</v>
+        <v>51.95</v>
       </c>
       <c r="E1845" t="inlineStr">
         <is>
@@ -63284,7 +63290,7 @@
       </c>
       <c r="G1845" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63305,7 +63311,7 @@
         </is>
       </c>
       <c r="D1846" t="n">
-        <v>49.95</v>
+        <v>67.95</v>
       </c>
       <c r="E1846" t="inlineStr">
         <is>
@@ -63319,7 +63325,7 @@
       </c>
       <c r="G1846" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63340,7 +63346,7 @@
         </is>
       </c>
       <c r="D1847" t="n">
-        <v>49.95</v>
+        <v>217.95</v>
       </c>
       <c r="E1847" t="inlineStr">
         <is>
@@ -63354,7 +63360,7 @@
       </c>
       <c r="G1847" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63389,7 +63395,7 @@
       </c>
       <c r="G1848" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63424,7 +63430,7 @@
       </c>
       <c r="G1849" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63459,7 +63465,7 @@
       </c>
       <c r="G1850" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63494,7 +63500,7 @@
       </c>
       <c r="G1851" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63529,7 +63535,7 @@
       </c>
       <c r="G1852" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63550,7 +63556,7 @@
         </is>
       </c>
       <c r="D1853" t="n">
-        <v>129.95</v>
+        <v>33.95</v>
       </c>
       <c r="E1853" t="inlineStr">
         <is>
@@ -63564,7 +63570,7 @@
       </c>
       <c r="G1853" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63585,7 +63591,7 @@
         </is>
       </c>
       <c r="D1854" t="n">
-        <v>119.95</v>
+        <v>149.95</v>
       </c>
       <c r="E1854" t="inlineStr">
         <is>
@@ -63599,7 +63605,7 @@
       </c>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63620,7 +63626,7 @@
         </is>
       </c>
       <c r="D1855" t="n">
-        <v>114.9</v>
+        <v>100</v>
       </c>
       <c r="E1855" t="inlineStr">
         <is>
@@ -63634,7 +63640,7 @@
       </c>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63655,7 +63661,7 @@
         </is>
       </c>
       <c r="D1856" t="n">
-        <v>249.9</v>
+        <v>83.45</v>
       </c>
       <c r="E1856" t="inlineStr">
         <is>
@@ -63669,7 +63675,7 @@
       </c>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63690,7 +63696,7 @@
         </is>
       </c>
       <c r="D1857" t="n">
-        <v>129.95</v>
+        <v>295.95</v>
       </c>
       <c r="E1857" t="inlineStr">
         <is>
@@ -63704,7 +63710,7 @@
       </c>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63725,7 +63731,7 @@
         </is>
       </c>
       <c r="D1858" t="n">
-        <v>54.95</v>
+        <v>27.45</v>
       </c>
       <c r="E1858" t="inlineStr">
         <is>
@@ -63739,7 +63745,7 @@
       </c>
       <c r="G1858" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63774,7 +63780,7 @@
       </c>
       <c r="G1859" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63809,7 +63815,7 @@
       </c>
       <c r="G1860" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63830,7 +63836,7 @@
         </is>
       </c>
       <c r="D1861" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1861" t="inlineStr">
         <is>
@@ -63844,7 +63850,7 @@
       </c>
       <c r="G1861" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63865,7 +63871,7 @@
         </is>
       </c>
       <c r="D1862" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E1862" t="inlineStr">
         <is>
@@ -63879,7 +63885,7 @@
       </c>
       <c r="G1862" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63900,7 +63906,7 @@
         </is>
       </c>
       <c r="D1863" t="n">
-        <v>109.9</v>
+        <v>54.95</v>
       </c>
       <c r="E1863" t="inlineStr">
         <is>
@@ -63914,7 +63920,7 @@
       </c>
       <c r="G1863" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63935,7 +63941,7 @@
         </is>
       </c>
       <c r="D1864" t="n">
-        <v>30.75</v>
+        <v>11.5</v>
       </c>
       <c r="E1864" t="inlineStr">
         <is>
@@ -63949,7 +63955,7 @@
       </c>
       <c r="G1864" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -63970,7 +63976,7 @@
         </is>
       </c>
       <c r="D1865" t="n">
-        <v>49</v>
+        <v>64.95</v>
       </c>
       <c r="E1865" t="inlineStr">
         <is>
@@ -63984,7 +63990,7 @@
       </c>
       <c r="G1865" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64019,7 +64025,7 @@
       </c>
       <c r="G1866" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64054,7 +64060,7 @@
       </c>
       <c r="G1867" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64089,7 +64095,7 @@
       </c>
       <c r="G1868" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64124,7 +64130,7 @@
       </c>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64159,7 +64165,7 @@
       </c>
       <c r="G1870" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64194,7 +64200,7 @@
       </c>
       <c r="G1871" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64229,7 +64235,7 @@
       </c>
       <c r="G1872" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64264,7 +64270,7 @@
       </c>
       <c r="G1873" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64299,7 +64305,7 @@
       </c>
       <c r="G1874" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64334,7 +64340,7 @@
       </c>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64369,7 +64375,7 @@
       </c>
       <c r="G1876" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64404,7 +64410,7 @@
       </c>
       <c r="G1877" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64439,7 +64445,7 @@
       </c>
       <c r="G1878" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64474,7 +64480,7 @@
       </c>
       <c r="G1879" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64509,7 +64515,7 @@
       </c>
       <c r="G1880" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64544,7 +64550,7 @@
       </c>
       <c r="G1881" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64579,7 +64585,7 @@
       </c>
       <c r="G1882" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64614,7 +64620,7 @@
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64649,7 +64655,7 @@
       </c>
       <c r="G1884" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64684,7 +64690,7 @@
       </c>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64719,7 +64725,7 @@
       </c>
       <c r="G1886" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64754,7 +64760,7 @@
       </c>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64789,7 +64795,7 @@
       </c>
       <c r="G1888" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64824,7 +64830,7 @@
       </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64859,7 +64865,7 @@
       </c>
       <c r="G1890" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64894,7 +64900,7 @@
       </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64929,7 +64935,7 @@
       </c>
       <c r="G1892" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64964,7 +64970,7 @@
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -64999,7 +65005,7 @@
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65034,7 +65040,7 @@
       </c>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65069,7 +65075,7 @@
       </c>
       <c r="G1896" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65104,7 +65110,7 @@
       </c>
       <c r="G1897" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65139,7 +65145,7 @@
       </c>
       <c r="G1898" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65174,7 +65180,7 @@
       </c>
       <c r="G1899" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65209,7 +65215,7 @@
       </c>
       <c r="G1900" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65244,7 +65250,7 @@
       </c>
       <c r="G1901" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65279,7 +65285,7 @@
       </c>
       <c r="G1902" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65314,7 +65320,7 @@
       </c>
       <c r="G1903" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65349,7 +65355,7 @@
       </c>
       <c r="G1904" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65384,7 +65390,7 @@
       </c>
       <c r="G1905" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65419,7 +65425,7 @@
       </c>
       <c r="G1906" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65454,7 +65460,7 @@
       </c>
       <c r="G1907" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65489,7 +65495,7 @@
       </c>
       <c r="G1908" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65524,7 +65530,7 @@
       </c>
       <c r="G1909" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65559,7 +65565,7 @@
       </c>
       <c r="G1910" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65594,7 +65600,7 @@
       </c>
       <c r="G1911" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65629,7 +65635,7 @@
       </c>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65664,7 +65670,7 @@
       </c>
       <c r="G1913" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65699,7 +65705,7 @@
       </c>
       <c r="G1914" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65734,7 +65740,7 @@
       </c>
       <c r="G1915" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65769,7 +65775,7 @@
       </c>
       <c r="G1916" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65804,7 +65810,7 @@
       </c>
       <c r="G1917" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65839,7 +65845,7 @@
       </c>
       <c r="G1918" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65874,7 +65880,7 @@
       </c>
       <c r="G1919" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65909,7 +65915,7 @@
       </c>
       <c r="G1920" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65944,7 +65950,7 @@
       </c>
       <c r="G1921" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -65979,7 +65985,7 @@
       </c>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66014,7 +66020,7 @@
       </c>
       <c r="G1923" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66049,7 +66055,7 @@
       </c>
       <c r="G1924" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66084,7 +66090,7 @@
       </c>
       <c r="G1925" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66119,7 +66125,7 @@
       </c>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66154,7 +66160,7 @@
       </c>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66189,7 +66195,7 @@
       </c>
       <c r="G1928" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66224,7 +66230,7 @@
       </c>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66259,7 +66265,7 @@
       </c>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66294,7 +66300,7 @@
       </c>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66329,7 +66335,7 @@
       </c>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66364,7 +66370,7 @@
       </c>
       <c r="G1933" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66399,7 +66405,7 @@
       </c>
       <c r="G1934" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66434,7 +66440,7 @@
       </c>
       <c r="G1935" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66469,7 +66475,7 @@
       </c>
       <c r="G1936" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66504,7 +66510,7 @@
       </c>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66539,7 +66545,7 @@
       </c>
       <c r="G1938" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66574,7 +66580,7 @@
       </c>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66609,7 +66615,7 @@
       </c>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66644,7 +66650,7 @@
       </c>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66679,7 +66685,7 @@
       </c>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66714,7 +66720,7 @@
       </c>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66749,7 +66755,7 @@
       </c>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66784,7 +66790,7 @@
       </c>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66819,7 +66825,7 @@
       </c>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66854,7 +66860,7 @@
       </c>
       <c r="G1947" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66889,7 +66895,7 @@
       </c>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66924,7 +66930,7 @@
       </c>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66959,7 +66965,7 @@
       </c>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -66994,7 +67000,7 @@
       </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67029,7 +67035,7 @@
       </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67064,7 +67070,7 @@
       </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67099,7 +67105,7 @@
       </c>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67134,7 +67140,7 @@
       </c>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67169,7 +67175,7 @@
       </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67204,7 +67210,7 @@
       </c>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67239,7 +67245,7 @@
       </c>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67274,7 +67280,7 @@
       </c>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67309,7 +67315,7 @@
       </c>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67344,7 +67350,7 @@
       </c>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67379,7 +67385,7 @@
       </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67414,7 +67420,7 @@
       </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67449,7 +67455,7 @@
       </c>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67484,7 +67490,7 @@
       </c>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67519,7 +67525,7 @@
       </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67554,7 +67560,7 @@
       </c>
       <c r="G1967" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67589,7 +67595,7 @@
       </c>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67624,7 +67630,7 @@
       </c>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67659,7 +67665,7 @@
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67694,7 +67700,7 @@
       </c>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67729,7 +67735,7 @@
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67764,7 +67770,7 @@
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67799,7 +67805,7 @@
       </c>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67834,7 +67840,7 @@
       </c>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67869,7 +67875,7 @@
       </c>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67904,7 +67910,7 @@
       </c>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67925,7 +67931,7 @@
         </is>
       </c>
       <c r="D1978" t="n">
-        <v>89.95</v>
+        <v>29.95</v>
       </c>
       <c r="E1978" t="inlineStr">
         <is>
@@ -67939,7 +67945,7 @@
       </c>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -67960,7 +67966,7 @@
         </is>
       </c>
       <c r="D1979" t="n">
-        <v>99.95</v>
+        <v>134.95</v>
       </c>
       <c r="E1979" t="inlineStr">
         <is>
@@ -67974,7 +67980,7 @@
       </c>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68009,7 +68015,7 @@
       </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68044,7 +68050,7 @@
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68079,7 +68085,7 @@
       </c>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68114,7 +68120,7 @@
       </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68149,7 +68155,7 @@
       </c>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68184,7 +68190,7 @@
       </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68219,7 +68225,7 @@
       </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68254,7 +68260,7 @@
       </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68289,7 +68295,7 @@
       </c>
       <c r="G1988" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68324,7 +68330,7 @@
       </c>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68359,7 +68365,7 @@
       </c>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68394,7 +68400,7 @@
       </c>
       <c r="G1991" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68429,7 +68435,7 @@
       </c>
       <c r="G1992" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68464,7 +68470,7 @@
       </c>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68499,7 +68505,7 @@
       </c>
       <c r="G1994" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68534,7 +68540,7 @@
       </c>
       <c r="G1995" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68569,7 +68575,7 @@
       </c>
       <c r="G1996" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68604,7 +68610,7 @@
       </c>
       <c r="G1997" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68639,7 +68645,7 @@
       </c>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68674,7 +68680,7 @@
       </c>
       <c r="G1999" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68709,7 +68715,7 @@
       </c>
       <c r="G2000" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68744,7 +68750,7 @@
       </c>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68779,7 +68785,7 @@
       </c>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68814,7 +68820,7 @@
       </c>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68849,7 +68855,7 @@
       </c>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68884,7 +68890,7 @@
       </c>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68919,7 +68925,7 @@
       </c>
       <c r="G2006" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68954,7 +68960,7 @@
       </c>
       <c r="G2007" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -68989,7 +68995,7 @@
       </c>
       <c r="G2008" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -69024,7 +69030,7 @@
       </c>
       <c r="G2009" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>
@@ -69059,7 +69065,7 @@
       </c>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:35</t>
         </is>
       </c>
     </row>

--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -57025,7 +57025,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57060,7 +57060,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57095,7 +57095,7 @@
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57130,7 +57130,7 @@
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57165,7 +57165,7 @@
       </c>
       <c r="G1670" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57200,7 +57200,7 @@
       </c>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57235,7 +57235,7 @@
       </c>
       <c r="G1672" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57270,7 +57270,7 @@
       </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57305,7 +57305,7 @@
       </c>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57340,7 +57340,7 @@
       </c>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57375,7 +57375,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57410,7 +57410,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57445,7 +57445,7 @@
       </c>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57480,7 +57480,7 @@
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57515,7 +57515,7 @@
       </c>
       <c r="G1680" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57550,7 +57550,7 @@
       </c>
       <c r="G1681" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57585,7 +57585,7 @@
       </c>
       <c r="G1682" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57620,7 +57620,7 @@
       </c>
       <c r="G1683" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57655,7 +57655,7 @@
       </c>
       <c r="G1684" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57690,7 +57690,7 @@
       </c>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57725,7 +57725,7 @@
       </c>
       <c r="G1686" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57760,7 +57760,7 @@
       </c>
       <c r="G1687" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57795,7 +57795,7 @@
       </c>
       <c r="G1688" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57830,7 +57830,7 @@
       </c>
       <c r="G1689" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57865,7 +57865,7 @@
       </c>
       <c r="G1690" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57900,7 +57900,7 @@
       </c>
       <c r="G1691" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57935,7 +57935,7 @@
       </c>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -57970,7 +57970,7 @@
       </c>
       <c r="G1693" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58005,7 +58005,7 @@
       </c>
       <c r="G1694" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58040,7 +58040,7 @@
       </c>
       <c r="G1695" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58075,7 +58075,7 @@
       </c>
       <c r="G1696" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58110,7 +58110,7 @@
       </c>
       <c r="G1697" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58145,7 +58145,7 @@
       </c>
       <c r="G1698" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58180,7 +58180,7 @@
       </c>
       <c r="G1699" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58215,7 +58215,7 @@
       </c>
       <c r="G1700" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58250,7 +58250,7 @@
       </c>
       <c r="G1701" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58285,7 +58285,7 @@
       </c>
       <c r="G1702" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58320,7 +58320,7 @@
       </c>
       <c r="G1703" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58355,7 +58355,7 @@
       </c>
       <c r="G1704" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58390,7 +58390,7 @@
       </c>
       <c r="G1705" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58425,7 +58425,7 @@
       </c>
       <c r="G1706" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58460,7 +58460,7 @@
       </c>
       <c r="G1707" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58495,7 +58495,7 @@
       </c>
       <c r="G1708" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58530,7 +58530,7 @@
       </c>
       <c r="G1709" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58565,7 +58565,7 @@
       </c>
       <c r="G1710" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58600,7 +58600,7 @@
       </c>
       <c r="G1711" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58635,7 +58635,7 @@
       </c>
       <c r="G1712" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58670,7 +58670,7 @@
       </c>
       <c r="G1713" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58705,7 +58705,7 @@
       </c>
       <c r="G1714" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58740,7 +58740,7 @@
       </c>
       <c r="G1715" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58775,7 +58775,7 @@
       </c>
       <c r="G1716" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58810,7 +58810,7 @@
       </c>
       <c r="G1717" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58845,7 +58845,7 @@
       </c>
       <c r="G1718" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58880,7 +58880,7 @@
       </c>
       <c r="G1719" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58915,7 +58915,7 @@
       </c>
       <c r="G1720" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58950,7 +58950,7 @@
       </c>
       <c r="G1721" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -58985,7 +58985,7 @@
       </c>
       <c r="G1722" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59020,7 +59020,7 @@
       </c>
       <c r="G1723" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59055,7 +59055,7 @@
       </c>
       <c r="G1724" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59090,7 +59090,7 @@
       </c>
       <c r="G1725" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59125,7 +59125,7 @@
       </c>
       <c r="G1726" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59160,7 +59160,7 @@
       </c>
       <c r="G1727" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59195,7 +59195,7 @@
       </c>
       <c r="G1728" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59230,7 +59230,7 @@
       </c>
       <c r="G1729" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59265,7 +59265,7 @@
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59300,7 +59300,7 @@
       </c>
       <c r="G1731" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59335,7 +59335,7 @@
       </c>
       <c r="G1732" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59370,7 +59370,7 @@
       </c>
       <c r="G1733" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59405,7 +59405,7 @@
       </c>
       <c r="G1734" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59440,7 +59440,7 @@
       </c>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59475,7 +59475,7 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59510,7 +59510,7 @@
       </c>
       <c r="G1737" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59545,7 +59545,7 @@
       </c>
       <c r="G1738" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59580,7 +59580,7 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59615,7 +59615,7 @@
       </c>
       <c r="G1740" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59650,7 +59650,7 @@
       </c>
       <c r="G1741" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59685,7 +59685,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59720,7 +59720,7 @@
       </c>
       <c r="G1743" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59755,7 +59755,7 @@
       </c>
       <c r="G1744" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59790,7 +59790,7 @@
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59825,7 +59825,7 @@
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59860,7 +59860,7 @@
       </c>
       <c r="G1747" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59895,7 +59895,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59930,7 +59930,7 @@
       </c>
       <c r="G1749" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -59965,7 +59965,7 @@
       </c>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60000,7 +60000,7 @@
       </c>
       <c r="G1751" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60035,7 +60035,7 @@
       </c>
       <c r="G1752" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60070,7 +60070,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60105,7 +60105,7 @@
       </c>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60140,7 +60140,7 @@
       </c>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60175,7 +60175,7 @@
       </c>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60210,7 +60210,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60245,7 +60245,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60280,7 +60280,7 @@
       </c>
       <c r="G1759" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60315,7 +60315,7 @@
       </c>
       <c r="G1760" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60340,7 +60340,7 @@
       </c>
       <c r="E1761" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1761" t="inlineStr">
@@ -60350,7 +60350,7 @@
       </c>
       <c r="G1761" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60375,7 +60375,7 @@
       </c>
       <c r="E1762" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1762" t="inlineStr">
@@ -60385,7 +60385,7 @@
       </c>
       <c r="G1762" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60410,7 +60410,7 @@
       </c>
       <c r="E1763" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1763" t="inlineStr">
@@ -60420,7 +60420,7 @@
       </c>
       <c r="G1763" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60445,7 +60445,7 @@
       </c>
       <c r="E1764" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1764" t="inlineStr">
@@ -60455,7 +60455,7 @@
       </c>
       <c r="G1764" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60480,7 +60480,7 @@
       </c>
       <c r="E1765" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1765" t="inlineStr">
@@ -60490,7 +60490,7 @@
       </c>
       <c r="G1765" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60515,7 +60515,7 @@
       </c>
       <c r="E1766" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1766" t="inlineStr">
@@ -60525,7 +60525,7 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60550,7 +60550,7 @@
       </c>
       <c r="E1767" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1767" t="inlineStr">
@@ -60560,7 +60560,7 @@
       </c>
       <c r="G1767" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60585,7 +60585,7 @@
       </c>
       <c r="E1768" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1768" t="inlineStr">
@@ -60595,7 +60595,7 @@
       </c>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60620,7 +60620,7 @@
       </c>
       <c r="E1769" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1769" t="inlineStr">
@@ -60630,7 +60630,7 @@
       </c>
       <c r="G1769" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60655,7 +60655,7 @@
       </c>
       <c r="E1770" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1770" t="inlineStr">
@@ -60665,7 +60665,7 @@
       </c>
       <c r="G1770" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60690,7 +60690,7 @@
       </c>
       <c r="E1771" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1771" t="inlineStr">
@@ -60700,7 +60700,7 @@
       </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60721,11 +60721,11 @@
         </is>
       </c>
       <c r="D1772" t="n">
-        <v>119.9</v>
+        <v>140</v>
       </c>
       <c r="E1772" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1772" t="inlineStr">
@@ -60735,7 +60735,7 @@
       </c>
       <c r="G1772" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60760,7 +60760,7 @@
       </c>
       <c r="E1773" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1773" t="inlineStr">
@@ -60770,7 +60770,7 @@
       </c>
       <c r="G1773" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60795,7 +60795,7 @@
       </c>
       <c r="E1774" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1774" t="inlineStr">
@@ -60805,7 +60805,7 @@
       </c>
       <c r="G1774" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60830,7 +60830,7 @@
       </c>
       <c r="E1775" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1775" t="inlineStr">
@@ -60840,7 +60840,7 @@
       </c>
       <c r="G1775" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60865,7 +60865,7 @@
       </c>
       <c r="E1776" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1776" t="inlineStr">
@@ -60875,7 +60875,7 @@
       </c>
       <c r="G1776" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60896,11 +60896,11 @@
         </is>
       </c>
       <c r="D1777" t="n">
-        <v>175</v>
+        <v>326.5</v>
       </c>
       <c r="E1777" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1777" t="inlineStr">
@@ -60910,7 +60910,7 @@
       </c>
       <c r="G1777" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60935,7 +60935,7 @@
       </c>
       <c r="E1778" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1778" t="inlineStr">
@@ -60945,7 +60945,7 @@
       </c>
       <c r="G1778" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -60970,7 +60970,7 @@
       </c>
       <c r="E1779" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1779" t="inlineStr">
@@ -60980,7 +60980,7 @@
       </c>
       <c r="G1779" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61005,7 +61005,7 @@
       </c>
       <c r="E1780" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1780" t="inlineStr">
@@ -61015,7 +61015,7 @@
       </c>
       <c r="G1780" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61040,7 +61040,7 @@
       </c>
       <c r="E1781" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1781" t="inlineStr">
@@ -61050,7 +61050,7 @@
       </c>
       <c r="G1781" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61075,7 +61075,7 @@
       </c>
       <c r="E1782" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1782" t="inlineStr">
@@ -61085,7 +61085,7 @@
       </c>
       <c r="G1782" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61110,7 +61110,7 @@
       </c>
       <c r="E1783" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1783" t="inlineStr">
@@ -61120,7 +61120,7 @@
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61145,7 +61145,7 @@
       </c>
       <c r="E1784" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1784" t="inlineStr">
@@ -61155,7 +61155,7 @@
       </c>
       <c r="G1784" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61180,7 +61180,7 @@
       </c>
       <c r="E1785" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1785" t="inlineStr">
@@ -61190,7 +61190,7 @@
       </c>
       <c r="G1785" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61215,7 +61215,7 @@
       </c>
       <c r="E1786" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1786" t="inlineStr">
@@ -61225,7 +61225,7 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61250,7 +61250,7 @@
       </c>
       <c r="E1787" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1787" t="inlineStr">
@@ -61260,7 +61260,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61295,7 +61295,7 @@
       </c>
       <c r="G1788" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61330,7 +61330,7 @@
       </c>
       <c r="G1789" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61365,7 +61365,7 @@
       </c>
       <c r="G1790" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1791" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61435,7 +61435,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61470,7 +61470,7 @@
       </c>
       <c r="G1793" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61505,7 +61505,7 @@
       </c>
       <c r="G1794" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61540,7 +61540,7 @@
       </c>
       <c r="G1795" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61575,7 +61575,7 @@
       </c>
       <c r="G1796" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61645,7 +61645,7 @@
       </c>
       <c r="G1798" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61680,7 +61680,7 @@
       </c>
       <c r="G1799" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61715,7 +61715,7 @@
       </c>
       <c r="G1800" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61750,7 +61750,7 @@
       </c>
       <c r="G1801" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61785,7 +61785,7 @@
       </c>
       <c r="G1802" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61820,7 +61820,7 @@
       </c>
       <c r="G1803" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61855,7 +61855,7 @@
       </c>
       <c r="G1804" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61890,7 +61890,7 @@
       </c>
       <c r="G1805" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61925,7 +61925,7 @@
       </c>
       <c r="G1806" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61960,7 +61960,7 @@
       </c>
       <c r="G1807" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -61995,7 +61995,7 @@
       </c>
       <c r="G1808" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62030,7 +62030,7 @@
       </c>
       <c r="G1809" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62055,7 +62055,7 @@
       </c>
       <c r="E1810" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1810" t="inlineStr">
@@ -62065,7 +62065,7 @@
       </c>
       <c r="G1810" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62090,7 +62090,7 @@
       </c>
       <c r="E1811" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1811" t="inlineStr">
@@ -62100,7 +62100,7 @@
       </c>
       <c r="G1811" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62125,7 +62125,7 @@
       </c>
       <c r="E1812" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1812" t="inlineStr">
@@ -62135,7 +62135,7 @@
       </c>
       <c r="G1812" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62160,7 +62160,7 @@
       </c>
       <c r="E1813" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1813" t="inlineStr">
@@ -62170,7 +62170,7 @@
       </c>
       <c r="G1813" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62195,7 +62195,7 @@
       </c>
       <c r="E1814" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1814" t="inlineStr">
@@ -62205,7 +62205,7 @@
       </c>
       <c r="G1814" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62230,7 +62230,7 @@
       </c>
       <c r="E1815" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1815" t="inlineStr">
@@ -62240,7 +62240,7 @@
       </c>
       <c r="G1815" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62265,7 +62265,7 @@
       </c>
       <c r="E1816" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1816" t="inlineStr">
@@ -62275,7 +62275,7 @@
       </c>
       <c r="G1816" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62300,7 +62300,7 @@
       </c>
       <c r="E1817" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1817" t="inlineStr">
@@ -62310,7 +62310,7 @@
       </c>
       <c r="G1817" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62335,7 +62335,7 @@
       </c>
       <c r="E1818" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1818" t="inlineStr">
@@ -62345,7 +62345,7 @@
       </c>
       <c r="G1818" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62366,11 +62366,11 @@
         </is>
       </c>
       <c r="D1819" t="n">
-        <v>235.9</v>
+        <v>294.95</v>
       </c>
       <c r="E1819" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1819" t="inlineStr">
@@ -62380,7 +62380,7 @@
       </c>
       <c r="G1819" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62405,7 +62405,7 @@
       </c>
       <c r="E1820" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1820" t="inlineStr">
@@ -62415,7 +62415,7 @@
       </c>
       <c r="G1820" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62440,7 +62440,7 @@
       </c>
       <c r="E1821" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1821" t="inlineStr">
@@ -62450,7 +62450,7 @@
       </c>
       <c r="G1821" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62475,7 +62475,7 @@
       </c>
       <c r="E1822" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1822" t="inlineStr">
@@ -62485,7 +62485,7 @@
       </c>
       <c r="G1822" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62510,7 +62510,7 @@
       </c>
       <c r="E1823" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1823" t="inlineStr">
@@ -62520,7 +62520,7 @@
       </c>
       <c r="G1823" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62545,7 +62545,7 @@
       </c>
       <c r="E1824" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1824" t="inlineStr">
@@ -62555,7 +62555,7 @@
       </c>
       <c r="G1824" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62580,7 +62580,7 @@
       </c>
       <c r="E1825" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1825" t="inlineStr">
@@ -62590,7 +62590,7 @@
       </c>
       <c r="G1825" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62615,7 +62615,7 @@
       </c>
       <c r="E1826" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1826" t="inlineStr">
@@ -62625,7 +62625,7 @@
       </c>
       <c r="G1826" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62650,7 +62650,7 @@
       </c>
       <c r="E1827" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1827" t="inlineStr">
@@ -62660,7 +62660,7 @@
       </c>
       <c r="G1827" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62685,7 +62685,7 @@
       </c>
       <c r="E1828" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1828" t="inlineStr">
@@ -62695,7 +62695,7 @@
       </c>
       <c r="G1828" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62720,7 +62720,7 @@
       </c>
       <c r="E1829" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1829" t="inlineStr">
@@ -62730,7 +62730,7 @@
       </c>
       <c r="G1829" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62755,7 +62755,7 @@
       </c>
       <c r="E1830" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1830" t="inlineStr">
@@ -62765,7 +62765,7 @@
       </c>
       <c r="G1830" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62790,7 +62790,7 @@
       </c>
       <c r="E1831" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1831" t="inlineStr">
@@ -62800,7 +62800,7 @@
       </c>
       <c r="G1831" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62825,7 +62825,7 @@
       </c>
       <c r="E1832" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1832" t="inlineStr">
@@ -62835,7 +62835,7 @@
       </c>
       <c r="G1832" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62860,7 +62860,7 @@
       </c>
       <c r="E1833" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1833" t="inlineStr">
@@ -62870,7 +62870,7 @@
       </c>
       <c r="G1833" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62895,7 +62895,7 @@
       </c>
       <c r="E1834" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1834" t="inlineStr">
@@ -62905,7 +62905,7 @@
       </c>
       <c r="G1834" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62930,7 +62930,7 @@
       </c>
       <c r="E1835" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1835" t="inlineStr">
@@ -62940,7 +62940,7 @@
       </c>
       <c r="G1835" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -62965,7 +62965,7 @@
       </c>
       <c r="E1836" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1836" t="inlineStr">
@@ -62975,7 +62975,7 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63000,7 +63000,7 @@
       </c>
       <c r="E1837" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1837" t="inlineStr">
@@ -63010,7 +63010,7 @@
       </c>
       <c r="G1837" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63035,7 +63035,7 @@
       </c>
       <c r="E1838" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1838" t="inlineStr">
@@ -63045,7 +63045,7 @@
       </c>
       <c r="G1838" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63070,7 +63070,7 @@
       </c>
       <c r="E1839" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1839" t="inlineStr">
@@ -63080,7 +63080,7 @@
       </c>
       <c r="G1839" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63105,7 +63105,7 @@
       </c>
       <c r="E1840" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1840" t="inlineStr">
@@ -63115,7 +63115,7 @@
       </c>
       <c r="G1840" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63136,11 +63136,11 @@
         </is>
       </c>
       <c r="D1841" t="n">
-        <v>83.97</v>
+        <v>119.95</v>
       </c>
       <c r="E1841" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1841" t="inlineStr">
@@ -63150,7 +63150,7 @@
       </c>
       <c r="G1841" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63175,7 +63175,7 @@
       </c>
       <c r="E1842" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1842" t="inlineStr">
@@ -63185,7 +63185,7 @@
       </c>
       <c r="G1842" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63210,7 +63210,7 @@
       </c>
       <c r="E1843" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1843" t="inlineStr">
@@ -63220,7 +63220,7 @@
       </c>
       <c r="G1843" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63245,7 +63245,7 @@
       </c>
       <c r="E1844" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1844" t="inlineStr">
@@ -63255,7 +63255,7 @@
       </c>
       <c r="G1844" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63280,7 +63280,7 @@
       </c>
       <c r="E1845" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1845" t="inlineStr">
@@ -63290,7 +63290,7 @@
       </c>
       <c r="G1845" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63315,7 +63315,7 @@
       </c>
       <c r="E1846" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1846" t="inlineStr">
@@ -63325,7 +63325,7 @@
       </c>
       <c r="G1846" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63350,7 +63350,7 @@
       </c>
       <c r="E1847" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1847" t="inlineStr">
@@ -63360,7 +63360,7 @@
       </c>
       <c r="G1847" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63381,11 +63381,11 @@
         </is>
       </c>
       <c r="D1848" t="n">
-        <v>124.5</v>
+        <v>154.95</v>
       </c>
       <c r="E1848" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1848" t="inlineStr">
@@ -63395,7 +63395,7 @@
       </c>
       <c r="G1848" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63420,7 +63420,7 @@
       </c>
       <c r="E1849" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1849" t="inlineStr">
@@ -63430,7 +63430,7 @@
       </c>
       <c r="G1849" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63455,7 +63455,7 @@
       </c>
       <c r="E1850" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1850" t="inlineStr">
@@ -63465,7 +63465,7 @@
       </c>
       <c r="G1850" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63490,7 +63490,7 @@
       </c>
       <c r="E1851" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1851" t="inlineStr">
@@ -63500,7 +63500,7 @@
       </c>
       <c r="G1851" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63525,7 +63525,7 @@
       </c>
       <c r="E1852" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1852" t="inlineStr">
@@ -63535,7 +63535,7 @@
       </c>
       <c r="G1852" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63560,7 +63560,7 @@
       </c>
       <c r="E1853" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1853" t="inlineStr">
@@ -63570,7 +63570,7 @@
       </c>
       <c r="G1853" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63595,7 +63595,7 @@
       </c>
       <c r="E1854" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1854" t="inlineStr">
@@ -63605,7 +63605,7 @@
       </c>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63630,7 +63630,7 @@
       </c>
       <c r="E1855" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1855" t="inlineStr">
@@ -63640,7 +63640,7 @@
       </c>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63665,7 +63665,7 @@
       </c>
       <c r="E1856" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1856" t="inlineStr">
@@ -63675,7 +63675,7 @@
       </c>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63700,7 +63700,7 @@
       </c>
       <c r="E1857" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1857" t="inlineStr">
@@ -63710,7 +63710,7 @@
       </c>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63735,7 +63735,7 @@
       </c>
       <c r="E1858" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1858" t="inlineStr">
@@ -63745,7 +63745,7 @@
       </c>
       <c r="G1858" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63770,7 +63770,7 @@
       </c>
       <c r="E1859" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1859" t="inlineStr">
@@ -63780,7 +63780,7 @@
       </c>
       <c r="G1859" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63805,7 +63805,7 @@
       </c>
       <c r="E1860" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1860" t="inlineStr">
@@ -63815,7 +63815,7 @@
       </c>
       <c r="G1860" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63840,7 +63840,7 @@
       </c>
       <c r="E1861" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1861" t="inlineStr">
@@ -63850,7 +63850,7 @@
       </c>
       <c r="G1861" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63875,7 +63875,7 @@
       </c>
       <c r="E1862" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1862" t="inlineStr">
@@ -63885,7 +63885,7 @@
       </c>
       <c r="G1862" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63910,7 +63910,7 @@
       </c>
       <c r="E1863" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1863" t="inlineStr">
@@ -63920,7 +63920,7 @@
       </c>
       <c r="G1863" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63945,7 +63945,7 @@
       </c>
       <c r="E1864" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1864" t="inlineStr">
@@ -63955,7 +63955,7 @@
       </c>
       <c r="G1864" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -63980,7 +63980,7 @@
       </c>
       <c r="E1865" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1865" t="inlineStr">
@@ -63990,7 +63990,7 @@
       </c>
       <c r="G1865" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64025,7 +64025,7 @@
       </c>
       <c r="G1866" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64060,7 +64060,7 @@
       </c>
       <c r="G1867" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64095,7 +64095,7 @@
       </c>
       <c r="G1868" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64130,7 +64130,7 @@
       </c>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64165,7 +64165,7 @@
       </c>
       <c r="G1870" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64200,7 +64200,7 @@
       </c>
       <c r="G1871" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64235,7 +64235,7 @@
       </c>
       <c r="G1872" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64270,7 +64270,7 @@
       </c>
       <c r="G1873" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64305,7 +64305,7 @@
       </c>
       <c r="G1874" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64340,7 +64340,7 @@
       </c>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64375,7 +64375,7 @@
       </c>
       <c r="G1876" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64410,7 +64410,7 @@
       </c>
       <c r="G1877" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64445,7 +64445,7 @@
       </c>
       <c r="G1878" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64480,7 +64480,7 @@
       </c>
       <c r="G1879" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64515,7 +64515,7 @@
       </c>
       <c r="G1880" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64550,7 +64550,7 @@
       </c>
       <c r="G1881" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64585,7 +64585,7 @@
       </c>
       <c r="G1882" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64620,7 +64620,7 @@
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64655,7 +64655,7 @@
       </c>
       <c r="G1884" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64690,7 +64690,7 @@
       </c>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64725,7 +64725,7 @@
       </c>
       <c r="G1886" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64760,7 +64760,7 @@
       </c>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64795,7 +64795,7 @@
       </c>
       <c r="G1888" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64830,7 +64830,7 @@
       </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64865,7 +64865,7 @@
       </c>
       <c r="G1890" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64900,7 +64900,7 @@
       </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64935,7 +64935,7 @@
       </c>
       <c r="G1892" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -64970,7 +64970,7 @@
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65005,7 +65005,7 @@
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65040,7 +65040,7 @@
       </c>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65075,7 +65075,7 @@
       </c>
       <c r="G1896" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65110,7 +65110,7 @@
       </c>
       <c r="G1897" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65145,7 +65145,7 @@
       </c>
       <c r="G1898" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65180,7 +65180,7 @@
       </c>
       <c r="G1899" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65215,7 +65215,7 @@
       </c>
       <c r="G1900" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65250,7 +65250,7 @@
       </c>
       <c r="G1901" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65285,7 +65285,7 @@
       </c>
       <c r="G1902" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65320,7 +65320,7 @@
       </c>
       <c r="G1903" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65355,7 +65355,7 @@
       </c>
       <c r="G1904" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65390,7 +65390,7 @@
       </c>
       <c r="G1905" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65425,7 +65425,7 @@
       </c>
       <c r="G1906" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65460,7 +65460,7 @@
       </c>
       <c r="G1907" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65495,7 +65495,7 @@
       </c>
       <c r="G1908" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65530,7 +65530,7 @@
       </c>
       <c r="G1909" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65565,7 +65565,7 @@
       </c>
       <c r="G1910" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65600,7 +65600,7 @@
       </c>
       <c r="G1911" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65635,7 +65635,7 @@
       </c>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65670,7 +65670,7 @@
       </c>
       <c r="G1913" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65705,7 +65705,7 @@
       </c>
       <c r="G1914" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65740,7 +65740,7 @@
       </c>
       <c r="G1915" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65775,7 +65775,7 @@
       </c>
       <c r="G1916" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65810,7 +65810,7 @@
       </c>
       <c r="G1917" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65845,7 +65845,7 @@
       </c>
       <c r="G1918" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65880,7 +65880,7 @@
       </c>
       <c r="G1919" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65915,7 +65915,7 @@
       </c>
       <c r="G1920" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65950,7 +65950,7 @@
       </c>
       <c r="G1921" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -65985,7 +65985,7 @@
       </c>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66020,7 +66020,7 @@
       </c>
       <c r="G1923" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66055,7 +66055,7 @@
       </c>
       <c r="G1924" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66090,7 +66090,7 @@
       </c>
       <c r="G1925" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66125,7 +66125,7 @@
       </c>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66160,7 +66160,7 @@
       </c>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66195,7 +66195,7 @@
       </c>
       <c r="G1928" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66230,7 +66230,7 @@
       </c>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66265,7 +66265,7 @@
       </c>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66335,7 +66335,7 @@
       </c>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66370,7 +66370,7 @@
       </c>
       <c r="G1933" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66405,7 +66405,7 @@
       </c>
       <c r="G1934" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66440,7 +66440,7 @@
       </c>
       <c r="G1935" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66475,7 +66475,7 @@
       </c>
       <c r="G1936" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66510,7 +66510,7 @@
       </c>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66545,7 +66545,7 @@
       </c>
       <c r="G1938" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66580,7 +66580,7 @@
       </c>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66615,7 +66615,7 @@
       </c>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66650,7 +66650,7 @@
       </c>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66685,7 +66685,7 @@
       </c>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66720,7 +66720,7 @@
       </c>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66755,7 +66755,7 @@
       </c>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66790,7 +66790,7 @@
       </c>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66825,7 +66825,7 @@
       </c>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66860,7 +66860,7 @@
       </c>
       <c r="G1947" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66895,7 +66895,7 @@
       </c>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66930,7 +66930,7 @@
       </c>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -66965,7 +66965,7 @@
       </c>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67000,7 +67000,7 @@
       </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67035,7 +67035,7 @@
       </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67070,7 +67070,7 @@
       </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67105,7 +67105,7 @@
       </c>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67140,7 +67140,7 @@
       </c>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67175,7 +67175,7 @@
       </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67210,7 +67210,7 @@
       </c>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67245,7 +67245,7 @@
       </c>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67280,7 +67280,7 @@
       </c>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67315,7 +67315,7 @@
       </c>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67350,7 +67350,7 @@
       </c>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67385,7 +67385,7 @@
       </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67420,7 +67420,7 @@
       </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67455,7 +67455,7 @@
       </c>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67490,7 +67490,7 @@
       </c>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67525,7 +67525,7 @@
       </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67560,7 +67560,7 @@
       </c>
       <c r="G1967" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67595,7 +67595,7 @@
       </c>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67630,7 +67630,7 @@
       </c>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67665,7 +67665,7 @@
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67700,7 +67700,7 @@
       </c>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67735,7 +67735,7 @@
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67770,7 +67770,7 @@
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67805,7 +67805,7 @@
       </c>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67840,7 +67840,7 @@
       </c>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67865,7 +67865,7 @@
       </c>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr">
@@ -67875,7 +67875,7 @@
       </c>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67896,11 +67896,11 @@
         </is>
       </c>
       <c r="D1977" t="n">
-        <v>69.95</v>
+        <v>99.95</v>
       </c>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr">
@@ -67910,7 +67910,7 @@
       </c>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67935,7 +67935,7 @@
       </c>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr">
@@ -67945,7 +67945,7 @@
       </c>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -67970,7 +67970,7 @@
       </c>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr">
@@ -67980,7 +67980,7 @@
       </c>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68005,7 +68005,7 @@
       </c>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr">
@@ -68015,7 +68015,7 @@
       </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68050,7 +68050,7 @@
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68085,7 +68085,7 @@
       </c>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68120,7 +68120,7 @@
       </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68155,7 +68155,7 @@
       </c>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68190,7 +68190,7 @@
       </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68225,7 +68225,7 @@
       </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68260,7 +68260,7 @@
       </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68295,7 +68295,7 @@
       </c>
       <c r="G1988" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68330,7 +68330,7 @@
       </c>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68365,7 +68365,7 @@
       </c>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68400,7 +68400,7 @@
       </c>
       <c r="G1991" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68435,7 +68435,7 @@
       </c>
       <c r="G1992" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68470,7 +68470,7 @@
       </c>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68505,7 +68505,7 @@
       </c>
       <c r="G1994" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68540,7 +68540,7 @@
       </c>
       <c r="G1995" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68575,7 +68575,7 @@
       </c>
       <c r="G1996" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68610,7 +68610,7 @@
       </c>
       <c r="G1997" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68645,7 +68645,7 @@
       </c>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68680,7 +68680,7 @@
       </c>
       <c r="G1999" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68715,7 +68715,7 @@
       </c>
       <c r="G2000" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68750,7 +68750,7 @@
       </c>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68785,7 +68785,7 @@
       </c>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68855,7 +68855,7 @@
       </c>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68890,7 +68890,7 @@
       </c>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68925,7 +68925,7 @@
       </c>
       <c r="G2006" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68960,7 +68960,7 @@
       </c>
       <c r="G2007" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -68985,7 +68985,7 @@
       </c>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr">
@@ -68995,7 +68995,7 @@
       </c>
       <c r="G2008" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -69020,7 +69020,7 @@
       </c>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr">
@@ -69030,7 +69030,7 @@
       </c>
       <c r="G2009" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>
@@ -69055,7 +69055,7 @@
       </c>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>Migros(HTML-Sale)</t>
+          <t>Migros(Normal)</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr">
@@ -69065,7 +69065,7 @@
       </c>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
     </row>

--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -57025,7 +57025,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57060,7 +57060,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57095,7 +57095,7 @@
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57130,7 +57130,7 @@
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57165,7 +57165,7 @@
       </c>
       <c r="G1670" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57200,7 +57200,7 @@
       </c>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57235,7 +57235,7 @@
       </c>
       <c r="G1672" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57270,7 +57270,7 @@
       </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57305,7 +57305,7 @@
       </c>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57340,7 +57340,7 @@
       </c>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57375,7 +57375,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57410,7 +57410,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57445,7 +57445,7 @@
       </c>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57480,7 +57480,7 @@
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57515,7 +57515,7 @@
       </c>
       <c r="G1680" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57550,7 +57550,7 @@
       </c>
       <c r="G1681" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57585,7 +57585,7 @@
       </c>
       <c r="G1682" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57620,7 +57620,7 @@
       </c>
       <c r="G1683" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57655,7 +57655,7 @@
       </c>
       <c r="G1684" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57690,7 +57690,7 @@
       </c>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57725,7 +57725,7 @@
       </c>
       <c r="G1686" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57760,7 +57760,7 @@
       </c>
       <c r="G1687" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57795,7 +57795,7 @@
       </c>
       <c r="G1688" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57830,7 +57830,7 @@
       </c>
       <c r="G1689" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57865,7 +57865,7 @@
       </c>
       <c r="G1690" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57900,7 +57900,7 @@
       </c>
       <c r="G1691" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57935,7 +57935,7 @@
       </c>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -57970,7 +57970,7 @@
       </c>
       <c r="G1693" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58005,7 +58005,7 @@
       </c>
       <c r="G1694" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58040,7 +58040,7 @@
       </c>
       <c r="G1695" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58075,7 +58075,7 @@
       </c>
       <c r="G1696" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58110,7 +58110,7 @@
       </c>
       <c r="G1697" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58145,7 +58145,7 @@
       </c>
       <c r="G1698" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58180,7 +58180,7 @@
       </c>
       <c r="G1699" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58215,7 +58215,7 @@
       </c>
       <c r="G1700" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58250,7 +58250,7 @@
       </c>
       <c r="G1701" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58285,7 +58285,7 @@
       </c>
       <c r="G1702" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58320,7 +58320,7 @@
       </c>
       <c r="G1703" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58355,7 +58355,7 @@
       </c>
       <c r="G1704" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58390,7 +58390,7 @@
       </c>
       <c r="G1705" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58425,7 +58425,7 @@
       </c>
       <c r="G1706" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58460,7 +58460,7 @@
       </c>
       <c r="G1707" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58495,7 +58495,7 @@
       </c>
       <c r="G1708" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58530,7 +58530,7 @@
       </c>
       <c r="G1709" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58565,7 +58565,7 @@
       </c>
       <c r="G1710" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58600,7 +58600,7 @@
       </c>
       <c r="G1711" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58635,7 +58635,7 @@
       </c>
       <c r="G1712" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58670,7 +58670,7 @@
       </c>
       <c r="G1713" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58705,7 +58705,7 @@
       </c>
       <c r="G1714" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58740,7 +58740,7 @@
       </c>
       <c r="G1715" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58775,7 +58775,7 @@
       </c>
       <c r="G1716" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58810,7 +58810,7 @@
       </c>
       <c r="G1717" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58845,7 +58845,7 @@
       </c>
       <c r="G1718" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58880,7 +58880,7 @@
       </c>
       <c r="G1719" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58915,7 +58915,7 @@
       </c>
       <c r="G1720" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58950,7 +58950,7 @@
       </c>
       <c r="G1721" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -58985,7 +58985,7 @@
       </c>
       <c r="G1722" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59020,7 +59020,7 @@
       </c>
       <c r="G1723" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59055,7 +59055,7 @@
       </c>
       <c r="G1724" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59090,7 +59090,7 @@
       </c>
       <c r="G1725" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59125,7 +59125,7 @@
       </c>
       <c r="G1726" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59160,7 +59160,7 @@
       </c>
       <c r="G1727" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59195,7 +59195,7 @@
       </c>
       <c r="G1728" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59230,7 +59230,7 @@
       </c>
       <c r="G1729" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59265,7 +59265,7 @@
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59300,7 +59300,7 @@
       </c>
       <c r="G1731" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59335,7 +59335,7 @@
       </c>
       <c r="G1732" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59370,7 +59370,7 @@
       </c>
       <c r="G1733" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59405,7 +59405,7 @@
       </c>
       <c r="G1734" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59440,7 +59440,7 @@
       </c>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59475,7 +59475,7 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59510,7 +59510,7 @@
       </c>
       <c r="G1737" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59545,7 +59545,7 @@
       </c>
       <c r="G1738" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59580,7 +59580,7 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59615,7 +59615,7 @@
       </c>
       <c r="G1740" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59650,7 +59650,7 @@
       </c>
       <c r="G1741" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59685,7 +59685,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59720,7 +59720,7 @@
       </c>
       <c r="G1743" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59755,7 +59755,7 @@
       </c>
       <c r="G1744" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59790,7 +59790,7 @@
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59825,7 +59825,7 @@
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59860,7 +59860,7 @@
       </c>
       <c r="G1747" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59895,7 +59895,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59930,7 +59930,7 @@
       </c>
       <c r="G1749" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -59965,7 +59965,7 @@
       </c>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60000,7 +60000,7 @@
       </c>
       <c r="G1751" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60035,7 +60035,7 @@
       </c>
       <c r="G1752" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60070,7 +60070,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60105,7 +60105,7 @@
       </c>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60140,7 +60140,7 @@
       </c>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60175,7 +60175,7 @@
       </c>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60210,7 +60210,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60245,7 +60245,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60280,7 +60280,7 @@
       </c>
       <c r="G1759" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60315,7 +60315,7 @@
       </c>
       <c r="G1760" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60340,7 +60340,7 @@
       </c>
       <c r="E1761" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1761" t="inlineStr">
@@ -60350,7 +60350,7 @@
       </c>
       <c r="G1761" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60375,7 +60375,7 @@
       </c>
       <c r="E1762" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1762" t="inlineStr">
@@ -60385,7 +60385,7 @@
       </c>
       <c r="G1762" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60410,7 +60410,7 @@
       </c>
       <c r="E1763" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1763" t="inlineStr">
@@ -60420,7 +60420,7 @@
       </c>
       <c r="G1763" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60445,7 +60445,7 @@
       </c>
       <c r="E1764" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1764" t="inlineStr">
@@ -60455,7 +60455,7 @@
       </c>
       <c r="G1764" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60480,7 +60480,7 @@
       </c>
       <c r="E1765" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1765" t="inlineStr">
@@ -60490,7 +60490,7 @@
       </c>
       <c r="G1765" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60515,7 +60515,7 @@
       </c>
       <c r="E1766" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1766" t="inlineStr">
@@ -60525,7 +60525,7 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60550,7 +60550,7 @@
       </c>
       <c r="E1767" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1767" t="inlineStr">
@@ -60560,7 +60560,7 @@
       </c>
       <c r="G1767" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60585,7 +60585,7 @@
       </c>
       <c r="E1768" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1768" t="inlineStr">
@@ -60595,7 +60595,7 @@
       </c>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60620,7 +60620,7 @@
       </c>
       <c r="E1769" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1769" t="inlineStr">
@@ -60630,7 +60630,7 @@
       </c>
       <c r="G1769" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60655,7 +60655,7 @@
       </c>
       <c r="E1770" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1770" t="inlineStr">
@@ -60665,7 +60665,7 @@
       </c>
       <c r="G1770" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60690,7 +60690,7 @@
       </c>
       <c r="E1771" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1771" t="inlineStr">
@@ -60700,7 +60700,7 @@
       </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60725,7 +60725,7 @@
       </c>
       <c r="E1772" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1772" t="inlineStr">
@@ -60735,7 +60735,7 @@
       </c>
       <c r="G1772" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60760,7 +60760,7 @@
       </c>
       <c r="E1773" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1773" t="inlineStr">
@@ -60770,7 +60770,7 @@
       </c>
       <c r="G1773" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60795,7 +60795,7 @@
       </c>
       <c r="E1774" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1774" t="inlineStr">
@@ -60805,7 +60805,7 @@
       </c>
       <c r="G1774" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60830,7 +60830,7 @@
       </c>
       <c r="E1775" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-İndirim)</t>
         </is>
       </c>
       <c r="F1775" t="inlineStr">
@@ -60840,7 +60840,7 @@
       </c>
       <c r="G1775" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60865,7 +60865,7 @@
       </c>
       <c r="E1776" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1776" t="inlineStr">
@@ -60875,7 +60875,7 @@
       </c>
       <c r="G1776" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="E1777" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1777" t="inlineStr">
@@ -60910,7 +60910,7 @@
       </c>
       <c r="G1777" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60935,7 +60935,7 @@
       </c>
       <c r="E1778" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1778" t="inlineStr">
@@ -60945,7 +60945,7 @@
       </c>
       <c r="G1778" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -60970,7 +60970,7 @@
       </c>
       <c r="E1779" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1779" t="inlineStr">
@@ -60980,7 +60980,7 @@
       </c>
       <c r="G1779" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61005,7 +61005,7 @@
       </c>
       <c r="E1780" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1780" t="inlineStr">
@@ -61015,7 +61015,7 @@
       </c>
       <c r="G1780" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61040,7 +61040,7 @@
       </c>
       <c r="E1781" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1781" t="inlineStr">
@@ -61050,7 +61050,7 @@
       </c>
       <c r="G1781" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61075,7 +61075,7 @@
       </c>
       <c r="E1782" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1782" t="inlineStr">
@@ -61085,7 +61085,7 @@
       </c>
       <c r="G1782" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61110,7 +61110,7 @@
       </c>
       <c r="E1783" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1783" t="inlineStr">
@@ -61120,7 +61120,7 @@
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61145,7 +61145,7 @@
       </c>
       <c r="E1784" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1784" t="inlineStr">
@@ -61155,7 +61155,7 @@
       </c>
       <c r="G1784" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61180,7 +61180,7 @@
       </c>
       <c r="E1785" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1785" t="inlineStr">
@@ -61190,7 +61190,7 @@
       </c>
       <c r="G1785" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61215,7 +61215,7 @@
       </c>
       <c r="E1786" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1786" t="inlineStr">
@@ -61225,7 +61225,7 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61250,7 +61250,7 @@
       </c>
       <c r="E1787" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1787" t="inlineStr">
@@ -61260,7 +61260,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61295,7 +61295,7 @@
       </c>
       <c r="G1788" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61330,7 +61330,7 @@
       </c>
       <c r="G1789" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61365,7 +61365,7 @@
       </c>
       <c r="G1790" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1791" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61435,7 +61435,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61470,7 +61470,7 @@
       </c>
       <c r="G1793" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61505,7 +61505,7 @@
       </c>
       <c r="G1794" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61540,7 +61540,7 @@
       </c>
       <c r="G1795" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61575,7 +61575,7 @@
       </c>
       <c r="G1796" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61645,7 +61645,7 @@
       </c>
       <c r="G1798" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61680,7 +61680,7 @@
       </c>
       <c r="G1799" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61715,7 +61715,7 @@
       </c>
       <c r="G1800" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61750,7 +61750,7 @@
       </c>
       <c r="G1801" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61785,7 +61785,7 @@
       </c>
       <c r="G1802" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61820,7 +61820,7 @@
       </c>
       <c r="G1803" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61855,7 +61855,7 @@
       </c>
       <c r="G1804" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61890,7 +61890,7 @@
       </c>
       <c r="G1805" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61925,7 +61925,7 @@
       </c>
       <c r="G1806" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61960,7 +61960,7 @@
       </c>
       <c r="G1807" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -61995,7 +61995,7 @@
       </c>
       <c r="G1808" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62030,7 +62030,7 @@
       </c>
       <c r="G1809" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62055,7 +62055,7 @@
       </c>
       <c r="E1810" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1810" t="inlineStr">
@@ -62065,7 +62065,7 @@
       </c>
       <c r="G1810" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62090,7 +62090,7 @@
       </c>
       <c r="E1811" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1811" t="inlineStr">
@@ -62100,7 +62100,7 @@
       </c>
       <c r="G1811" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62125,7 +62125,7 @@
       </c>
       <c r="E1812" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1812" t="inlineStr">
@@ -62135,7 +62135,7 @@
       </c>
       <c r="G1812" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62160,7 +62160,7 @@
       </c>
       <c r="E1813" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1813" t="inlineStr">
@@ -62170,7 +62170,7 @@
       </c>
       <c r="G1813" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62195,7 +62195,7 @@
       </c>
       <c r="E1814" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1814" t="inlineStr">
@@ -62205,7 +62205,7 @@
       </c>
       <c r="G1814" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62230,7 +62230,7 @@
       </c>
       <c r="E1815" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1815" t="inlineStr">
@@ -62240,7 +62240,7 @@
       </c>
       <c r="G1815" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62265,7 +62265,7 @@
       </c>
       <c r="E1816" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1816" t="inlineStr">
@@ -62275,7 +62275,7 @@
       </c>
       <c r="G1816" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62300,7 +62300,7 @@
       </c>
       <c r="E1817" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-İndirim)</t>
         </is>
       </c>
       <c r="F1817" t="inlineStr">
@@ -62310,7 +62310,7 @@
       </c>
       <c r="G1817" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62335,7 +62335,7 @@
       </c>
       <c r="E1818" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1818" t="inlineStr">
@@ -62345,7 +62345,7 @@
       </c>
       <c r="G1818" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62370,7 +62370,7 @@
       </c>
       <c r="E1819" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1819" t="inlineStr">
@@ -62380,7 +62380,7 @@
       </c>
       <c r="G1819" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62405,7 +62405,7 @@
       </c>
       <c r="E1820" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1820" t="inlineStr">
@@ -62415,7 +62415,7 @@
       </c>
       <c r="G1820" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62440,7 +62440,7 @@
       </c>
       <c r="E1821" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1821" t="inlineStr">
@@ -62450,7 +62450,7 @@
       </c>
       <c r="G1821" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62475,7 +62475,7 @@
       </c>
       <c r="E1822" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1822" t="inlineStr">
@@ -62485,7 +62485,7 @@
       </c>
       <c r="G1822" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62510,7 +62510,7 @@
       </c>
       <c r="E1823" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1823" t="inlineStr">
@@ -62520,7 +62520,7 @@
       </c>
       <c r="G1823" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62545,7 +62545,7 @@
       </c>
       <c r="E1824" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1824" t="inlineStr">
@@ -62555,7 +62555,7 @@
       </c>
       <c r="G1824" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62580,7 +62580,7 @@
       </c>
       <c r="E1825" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1825" t="inlineStr">
@@ -62590,7 +62590,7 @@
       </c>
       <c r="G1825" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62615,7 +62615,7 @@
       </c>
       <c r="E1826" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1826" t="inlineStr">
@@ -62625,7 +62625,7 @@
       </c>
       <c r="G1826" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62650,7 +62650,7 @@
       </c>
       <c r="E1827" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1827" t="inlineStr">
@@ -62660,7 +62660,7 @@
       </c>
       <c r="G1827" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62685,7 +62685,7 @@
       </c>
       <c r="E1828" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1828" t="inlineStr">
@@ -62695,7 +62695,7 @@
       </c>
       <c r="G1828" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62720,7 +62720,7 @@
       </c>
       <c r="E1829" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1829" t="inlineStr">
@@ -62730,7 +62730,7 @@
       </c>
       <c r="G1829" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62755,7 +62755,7 @@
       </c>
       <c r="E1830" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1830" t="inlineStr">
@@ -62765,7 +62765,7 @@
       </c>
       <c r="G1830" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62790,7 +62790,7 @@
       </c>
       <c r="E1831" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1831" t="inlineStr">
@@ -62800,7 +62800,7 @@
       </c>
       <c r="G1831" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62825,7 +62825,7 @@
       </c>
       <c r="E1832" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1832" t="inlineStr">
@@ -62835,7 +62835,7 @@
       </c>
       <c r="G1832" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62860,7 +62860,7 @@
       </c>
       <c r="E1833" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1833" t="inlineStr">
@@ -62870,7 +62870,7 @@
       </c>
       <c r="G1833" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62895,7 +62895,7 @@
       </c>
       <c r="E1834" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1834" t="inlineStr">
@@ -62905,7 +62905,7 @@
       </c>
       <c r="G1834" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62930,7 +62930,7 @@
       </c>
       <c r="E1835" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1835" t="inlineStr">
@@ -62940,7 +62940,7 @@
       </c>
       <c r="G1835" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -62965,7 +62965,7 @@
       </c>
       <c r="E1836" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1836" t="inlineStr">
@@ -62975,7 +62975,7 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63000,7 +63000,7 @@
       </c>
       <c r="E1837" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1837" t="inlineStr">
@@ -63010,7 +63010,7 @@
       </c>
       <c r="G1837" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63035,7 +63035,7 @@
       </c>
       <c r="E1838" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1838" t="inlineStr">
@@ -63045,7 +63045,7 @@
       </c>
       <c r="G1838" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63070,7 +63070,7 @@
       </c>
       <c r="E1839" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1839" t="inlineStr">
@@ -63080,7 +63080,7 @@
       </c>
       <c r="G1839" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63105,7 +63105,7 @@
       </c>
       <c r="E1840" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-İndirim)</t>
         </is>
       </c>
       <c r="F1840" t="inlineStr">
@@ -63115,7 +63115,7 @@
       </c>
       <c r="G1840" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63140,7 +63140,7 @@
       </c>
       <c r="E1841" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1841" t="inlineStr">
@@ -63150,7 +63150,7 @@
       </c>
       <c r="G1841" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63175,7 +63175,7 @@
       </c>
       <c r="E1842" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1842" t="inlineStr">
@@ -63185,7 +63185,7 @@
       </c>
       <c r="G1842" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63210,7 +63210,7 @@
       </c>
       <c r="E1843" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1843" t="inlineStr">
@@ -63220,7 +63220,7 @@
       </c>
       <c r="G1843" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63245,7 +63245,7 @@
       </c>
       <c r="E1844" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1844" t="inlineStr">
@@ -63255,7 +63255,7 @@
       </c>
       <c r="G1844" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63280,7 +63280,7 @@
       </c>
       <c r="E1845" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1845" t="inlineStr">
@@ -63290,7 +63290,7 @@
       </c>
       <c r="G1845" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63315,7 +63315,7 @@
       </c>
       <c r="E1846" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1846" t="inlineStr">
@@ -63325,7 +63325,7 @@
       </c>
       <c r="G1846" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63350,7 +63350,7 @@
       </c>
       <c r="E1847" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1847" t="inlineStr">
@@ -63360,7 +63360,7 @@
       </c>
       <c r="G1847" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63385,7 +63385,7 @@
       </c>
       <c r="E1848" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1848" t="inlineStr">
@@ -63395,7 +63395,7 @@
       </c>
       <c r="G1848" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63420,7 +63420,7 @@
       </c>
       <c r="E1849" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1849" t="inlineStr">
@@ -63430,7 +63430,7 @@
       </c>
       <c r="G1849" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63455,7 +63455,7 @@
       </c>
       <c r="E1850" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1850" t="inlineStr">
@@ -63465,7 +63465,7 @@
       </c>
       <c r="G1850" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63490,7 +63490,7 @@
       </c>
       <c r="E1851" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1851" t="inlineStr">
@@ -63500,7 +63500,7 @@
       </c>
       <c r="G1851" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63525,7 +63525,7 @@
       </c>
       <c r="E1852" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1852" t="inlineStr">
@@ -63535,7 +63535,7 @@
       </c>
       <c r="G1852" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63560,7 +63560,7 @@
       </c>
       <c r="E1853" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1853" t="inlineStr">
@@ -63570,7 +63570,7 @@
       </c>
       <c r="G1853" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63595,7 +63595,7 @@
       </c>
       <c r="E1854" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1854" t="inlineStr">
@@ -63605,7 +63605,7 @@
       </c>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63630,7 +63630,7 @@
       </c>
       <c r="E1855" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1855" t="inlineStr">
@@ -63640,7 +63640,7 @@
       </c>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63665,7 +63665,7 @@
       </c>
       <c r="E1856" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1856" t="inlineStr">
@@ -63675,7 +63675,7 @@
       </c>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63700,7 +63700,7 @@
       </c>
       <c r="E1857" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1857" t="inlineStr">
@@ -63710,7 +63710,7 @@
       </c>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63735,7 +63735,7 @@
       </c>
       <c r="E1858" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1858" t="inlineStr">
@@ -63745,7 +63745,7 @@
       </c>
       <c r="G1858" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63770,7 +63770,7 @@
       </c>
       <c r="E1859" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1859" t="inlineStr">
@@ -63780,7 +63780,7 @@
       </c>
       <c r="G1859" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63805,7 +63805,7 @@
       </c>
       <c r="E1860" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1860" t="inlineStr">
@@ -63815,7 +63815,7 @@
       </c>
       <c r="G1860" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63840,7 +63840,7 @@
       </c>
       <c r="E1861" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1861" t="inlineStr">
@@ -63850,7 +63850,7 @@
       </c>
       <c r="G1861" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63875,7 +63875,7 @@
       </c>
       <c r="E1862" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1862" t="inlineStr">
@@ -63885,7 +63885,7 @@
       </c>
       <c r="G1862" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63910,7 +63910,7 @@
       </c>
       <c r="E1863" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1863" t="inlineStr">
@@ -63920,7 +63920,7 @@
       </c>
       <c r="G1863" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63945,7 +63945,7 @@
       </c>
       <c r="E1864" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1864" t="inlineStr">
@@ -63955,7 +63955,7 @@
       </c>
       <c r="G1864" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -63980,7 +63980,7 @@
       </c>
       <c r="E1865" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1865" t="inlineStr">
@@ -63990,7 +63990,7 @@
       </c>
       <c r="G1865" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64025,7 +64025,7 @@
       </c>
       <c r="G1866" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64060,7 +64060,7 @@
       </c>
       <c r="G1867" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64095,7 +64095,7 @@
       </c>
       <c r="G1868" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64130,7 +64130,7 @@
       </c>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64165,7 +64165,7 @@
       </c>
       <c r="G1870" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64200,7 +64200,7 @@
       </c>
       <c r="G1871" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64235,7 +64235,7 @@
       </c>
       <c r="G1872" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64270,7 +64270,7 @@
       </c>
       <c r="G1873" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64305,7 +64305,7 @@
       </c>
       <c r="G1874" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64340,7 +64340,7 @@
       </c>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64375,7 +64375,7 @@
       </c>
       <c r="G1876" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64410,7 +64410,7 @@
       </c>
       <c r="G1877" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64445,7 +64445,7 @@
       </c>
       <c r="G1878" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64480,7 +64480,7 @@
       </c>
       <c r="G1879" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64515,7 +64515,7 @@
       </c>
       <c r="G1880" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64550,7 +64550,7 @@
       </c>
       <c r="G1881" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64585,7 +64585,7 @@
       </c>
       <c r="G1882" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64620,7 +64620,7 @@
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64655,7 +64655,7 @@
       </c>
       <c r="G1884" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64690,7 +64690,7 @@
       </c>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64725,7 +64725,7 @@
       </c>
       <c r="G1886" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64760,7 +64760,7 @@
       </c>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64795,7 +64795,7 @@
       </c>
       <c r="G1888" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64830,7 +64830,7 @@
       </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64865,7 +64865,7 @@
       </c>
       <c r="G1890" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64900,7 +64900,7 @@
       </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64935,7 +64935,7 @@
       </c>
       <c r="G1892" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -64970,7 +64970,7 @@
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65005,7 +65005,7 @@
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65040,7 +65040,7 @@
       </c>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65075,7 +65075,7 @@
       </c>
       <c r="G1896" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65110,7 +65110,7 @@
       </c>
       <c r="G1897" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65145,7 +65145,7 @@
       </c>
       <c r="G1898" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65180,7 +65180,7 @@
       </c>
       <c r="G1899" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65215,7 +65215,7 @@
       </c>
       <c r="G1900" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65250,7 +65250,7 @@
       </c>
       <c r="G1901" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65285,7 +65285,7 @@
       </c>
       <c r="G1902" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65320,7 +65320,7 @@
       </c>
       <c r="G1903" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65355,7 +65355,7 @@
       </c>
       <c r="G1904" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65390,7 +65390,7 @@
       </c>
       <c r="G1905" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65425,7 +65425,7 @@
       </c>
       <c r="G1906" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65460,7 +65460,7 @@
       </c>
       <c r="G1907" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65495,7 +65495,7 @@
       </c>
       <c r="G1908" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65530,7 +65530,7 @@
       </c>
       <c r="G1909" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65565,7 +65565,7 @@
       </c>
       <c r="G1910" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65600,7 +65600,7 @@
       </c>
       <c r="G1911" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65635,7 +65635,7 @@
       </c>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65670,7 +65670,7 @@
       </c>
       <c r="G1913" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65705,7 +65705,7 @@
       </c>
       <c r="G1914" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65740,7 +65740,7 @@
       </c>
       <c r="G1915" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65775,7 +65775,7 @@
       </c>
       <c r="G1916" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65810,7 +65810,7 @@
       </c>
       <c r="G1917" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65845,7 +65845,7 @@
       </c>
       <c r="G1918" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65880,7 +65880,7 @@
       </c>
       <c r="G1919" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65915,7 +65915,7 @@
       </c>
       <c r="G1920" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65950,7 +65950,7 @@
       </c>
       <c r="G1921" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -65985,7 +65985,7 @@
       </c>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66020,7 +66020,7 @@
       </c>
       <c r="G1923" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66055,7 +66055,7 @@
       </c>
       <c r="G1924" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66090,7 +66090,7 @@
       </c>
       <c r="G1925" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66125,7 +66125,7 @@
       </c>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66160,7 +66160,7 @@
       </c>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66195,7 +66195,7 @@
       </c>
       <c r="G1928" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66230,7 +66230,7 @@
       </c>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66265,7 +66265,7 @@
       </c>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66335,7 +66335,7 @@
       </c>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66370,7 +66370,7 @@
       </c>
       <c r="G1933" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66405,7 +66405,7 @@
       </c>
       <c r="G1934" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66440,7 +66440,7 @@
       </c>
       <c r="G1935" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66475,7 +66475,7 @@
       </c>
       <c r="G1936" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66510,7 +66510,7 @@
       </c>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66545,7 +66545,7 @@
       </c>
       <c r="G1938" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66580,7 +66580,7 @@
       </c>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66615,7 +66615,7 @@
       </c>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66650,7 +66650,7 @@
       </c>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66685,7 +66685,7 @@
       </c>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66720,7 +66720,7 @@
       </c>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66755,7 +66755,7 @@
       </c>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66790,7 +66790,7 @@
       </c>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66825,7 +66825,7 @@
       </c>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66860,7 +66860,7 @@
       </c>
       <c r="G1947" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66895,7 +66895,7 @@
       </c>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66930,7 +66930,7 @@
       </c>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -66965,7 +66965,7 @@
       </c>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67000,7 +67000,7 @@
       </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67035,7 +67035,7 @@
       </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67070,7 +67070,7 @@
       </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67105,7 +67105,7 @@
       </c>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67140,7 +67140,7 @@
       </c>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67175,7 +67175,7 @@
       </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67210,7 +67210,7 @@
       </c>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67245,7 +67245,7 @@
       </c>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67280,7 +67280,7 @@
       </c>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67315,7 +67315,7 @@
       </c>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67350,7 +67350,7 @@
       </c>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67385,7 +67385,7 @@
       </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67420,7 +67420,7 @@
       </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67455,7 +67455,7 @@
       </c>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67490,7 +67490,7 @@
       </c>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67525,7 +67525,7 @@
       </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67560,7 +67560,7 @@
       </c>
       <c r="G1967" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67595,7 +67595,7 @@
       </c>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67630,7 +67630,7 @@
       </c>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67665,7 +67665,7 @@
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67700,7 +67700,7 @@
       </c>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67735,7 +67735,7 @@
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67770,7 +67770,7 @@
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67805,7 +67805,7 @@
       </c>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67840,7 +67840,7 @@
       </c>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67865,7 +67865,7 @@
       </c>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr">
@@ -67875,7 +67875,7 @@
       </c>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67900,7 +67900,7 @@
       </c>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr">
@@ -67910,7 +67910,7 @@
       </c>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67935,7 +67935,7 @@
       </c>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr">
@@ -67945,7 +67945,7 @@
       </c>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -67970,7 +67970,7 @@
       </c>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr">
@@ -67980,7 +67980,7 @@
       </c>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68005,7 +68005,7 @@
       </c>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr">
@@ -68015,7 +68015,7 @@
       </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68050,7 +68050,7 @@
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68085,7 +68085,7 @@
       </c>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68120,7 +68120,7 @@
       </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68155,7 +68155,7 @@
       </c>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68190,7 +68190,7 @@
       </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68225,7 +68225,7 @@
       </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68260,7 +68260,7 @@
       </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68295,7 +68295,7 @@
       </c>
       <c r="G1988" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68330,7 +68330,7 @@
       </c>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68365,7 +68365,7 @@
       </c>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68400,7 +68400,7 @@
       </c>
       <c r="G1991" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68435,7 +68435,7 @@
       </c>
       <c r="G1992" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68470,7 +68470,7 @@
       </c>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68505,7 +68505,7 @@
       </c>
       <c r="G1994" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68540,7 +68540,7 @@
       </c>
       <c r="G1995" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68575,7 +68575,7 @@
       </c>
       <c r="G1996" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68610,7 +68610,7 @@
       </c>
       <c r="G1997" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68645,7 +68645,7 @@
       </c>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68680,7 +68680,7 @@
       </c>
       <c r="G1999" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68715,7 +68715,7 @@
       </c>
       <c r="G2000" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68750,7 +68750,7 @@
       </c>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68785,7 +68785,7 @@
       </c>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68855,7 +68855,7 @@
       </c>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68890,7 +68890,7 @@
       </c>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68925,7 +68925,7 @@
       </c>
       <c r="G2006" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68960,7 +68960,7 @@
       </c>
       <c r="G2007" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -68985,7 +68985,7 @@
       </c>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr">
@@ -68995,7 +68995,7 @@
       </c>
       <c r="G2008" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -69020,7 +69020,7 @@
       </c>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr">
@@ -69030,7 +69030,7 @@
       </c>
       <c r="G2009" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>
@@ -69055,7 +69055,7 @@
       </c>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>Migros(Normal)</t>
+          <t>Migros(Ana-Normal)</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr">
@@ -69065,7 +69065,7 @@
       </c>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>12:51</t>
         </is>
       </c>
     </row>

--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -57025,7 +57025,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57060,7 +57060,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57095,7 +57095,7 @@
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57130,7 +57130,7 @@
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57165,7 +57165,7 @@
       </c>
       <c r="G1670" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57200,7 +57200,7 @@
       </c>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57235,7 +57235,7 @@
       </c>
       <c r="G1672" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57270,7 +57270,7 @@
       </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57305,7 +57305,7 @@
       </c>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57340,7 +57340,7 @@
       </c>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57375,7 +57375,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57410,7 +57410,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57445,7 +57445,7 @@
       </c>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57480,7 +57480,7 @@
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57515,7 +57515,7 @@
       </c>
       <c r="G1680" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57550,7 +57550,7 @@
       </c>
       <c r="G1681" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57585,7 +57585,7 @@
       </c>
       <c r="G1682" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57620,7 +57620,7 @@
       </c>
       <c r="G1683" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57655,7 +57655,7 @@
       </c>
       <c r="G1684" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57690,7 +57690,7 @@
       </c>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57725,7 +57725,7 @@
       </c>
       <c r="G1686" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57760,7 +57760,7 @@
       </c>
       <c r="G1687" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57795,7 +57795,7 @@
       </c>
       <c r="G1688" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57830,7 +57830,7 @@
       </c>
       <c r="G1689" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57865,7 +57865,7 @@
       </c>
       <c r="G1690" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57900,7 +57900,7 @@
       </c>
       <c r="G1691" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57935,7 +57935,7 @@
       </c>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -57970,7 +57970,7 @@
       </c>
       <c r="G1693" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58005,7 +58005,7 @@
       </c>
       <c r="G1694" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58040,7 +58040,7 @@
       </c>
       <c r="G1695" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58075,7 +58075,7 @@
       </c>
       <c r="G1696" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58110,7 +58110,7 @@
       </c>
       <c r="G1697" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58145,7 +58145,7 @@
       </c>
       <c r="G1698" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58180,7 +58180,7 @@
       </c>
       <c r="G1699" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58215,7 +58215,7 @@
       </c>
       <c r="G1700" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58250,7 +58250,7 @@
       </c>
       <c r="G1701" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58285,7 +58285,7 @@
       </c>
       <c r="G1702" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58320,7 +58320,7 @@
       </c>
       <c r="G1703" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58355,7 +58355,7 @@
       </c>
       <c r="G1704" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58390,7 +58390,7 @@
       </c>
       <c r="G1705" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58425,7 +58425,7 @@
       </c>
       <c r="G1706" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58460,7 +58460,7 @@
       </c>
       <c r="G1707" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58495,7 +58495,7 @@
       </c>
       <c r="G1708" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58530,7 +58530,7 @@
       </c>
       <c r="G1709" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58565,7 +58565,7 @@
       </c>
       <c r="G1710" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58600,7 +58600,7 @@
       </c>
       <c r="G1711" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58635,7 +58635,7 @@
       </c>
       <c r="G1712" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58670,7 +58670,7 @@
       </c>
       <c r="G1713" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58705,7 +58705,7 @@
       </c>
       <c r="G1714" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58740,7 +58740,7 @@
       </c>
       <c r="G1715" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58775,7 +58775,7 @@
       </c>
       <c r="G1716" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58810,7 +58810,7 @@
       </c>
       <c r="G1717" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58845,7 +58845,7 @@
       </c>
       <c r="G1718" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58880,7 +58880,7 @@
       </c>
       <c r="G1719" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58915,7 +58915,7 @@
       </c>
       <c r="G1720" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58950,7 +58950,7 @@
       </c>
       <c r="G1721" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -58985,7 +58985,7 @@
       </c>
       <c r="G1722" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59020,7 +59020,7 @@
       </c>
       <c r="G1723" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59055,7 +59055,7 @@
       </c>
       <c r="G1724" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59090,7 +59090,7 @@
       </c>
       <c r="G1725" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59125,7 +59125,7 @@
       </c>
       <c r="G1726" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59160,7 +59160,7 @@
       </c>
       <c r="G1727" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59195,7 +59195,7 @@
       </c>
       <c r="G1728" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59230,7 +59230,7 @@
       </c>
       <c r="G1729" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59265,7 +59265,7 @@
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59300,7 +59300,7 @@
       </c>
       <c r="G1731" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59335,7 +59335,7 @@
       </c>
       <c r="G1732" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59370,7 +59370,7 @@
       </c>
       <c r="G1733" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59405,7 +59405,7 @@
       </c>
       <c r="G1734" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59440,7 +59440,7 @@
       </c>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59475,7 +59475,7 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59510,7 +59510,7 @@
       </c>
       <c r="G1737" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59545,7 +59545,7 @@
       </c>
       <c r="G1738" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59580,7 +59580,7 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59615,7 +59615,7 @@
       </c>
       <c r="G1740" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59650,7 +59650,7 @@
       </c>
       <c r="G1741" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59685,7 +59685,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59720,7 +59720,7 @@
       </c>
       <c r="G1743" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59755,7 +59755,7 @@
       </c>
       <c r="G1744" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59790,7 +59790,7 @@
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59825,7 +59825,7 @@
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59860,7 +59860,7 @@
       </c>
       <c r="G1747" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59895,7 +59895,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59930,7 +59930,7 @@
       </c>
       <c r="G1749" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -59965,7 +59965,7 @@
       </c>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60000,7 +60000,7 @@
       </c>
       <c r="G1751" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60035,7 +60035,7 @@
       </c>
       <c r="G1752" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60070,7 +60070,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60105,7 +60105,7 @@
       </c>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60140,7 +60140,7 @@
       </c>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60175,7 +60175,7 @@
       </c>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60210,7 +60210,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60245,7 +60245,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60280,7 +60280,7 @@
       </c>
       <c r="G1759" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60315,7 +60315,7 @@
       </c>
       <c r="G1760" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60350,7 +60350,7 @@
       </c>
       <c r="G1761" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60385,7 +60385,7 @@
       </c>
       <c r="G1762" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60420,7 +60420,7 @@
       </c>
       <c r="G1763" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60455,7 +60455,7 @@
       </c>
       <c r="G1764" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60490,7 +60490,7 @@
       </c>
       <c r="G1765" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60525,7 +60525,7 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60560,7 +60560,7 @@
       </c>
       <c r="G1767" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60595,7 +60595,7 @@
       </c>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60630,7 +60630,7 @@
       </c>
       <c r="G1769" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60665,7 +60665,7 @@
       </c>
       <c r="G1770" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60700,7 +60700,7 @@
       </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60735,7 +60735,7 @@
       </c>
       <c r="G1772" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60770,7 +60770,7 @@
       </c>
       <c r="G1773" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60805,7 +60805,7 @@
       </c>
       <c r="G1774" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60840,7 +60840,7 @@
       </c>
       <c r="G1775" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60875,7 +60875,7 @@
       </c>
       <c r="G1776" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60910,7 +60910,7 @@
       </c>
       <c r="G1777" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60945,7 +60945,7 @@
       </c>
       <c r="G1778" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -60980,7 +60980,7 @@
       </c>
       <c r="G1779" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61015,7 +61015,7 @@
       </c>
       <c r="G1780" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61050,7 +61050,7 @@
       </c>
       <c r="G1781" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61085,7 +61085,7 @@
       </c>
       <c r="G1782" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61120,7 +61120,7 @@
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61155,7 +61155,7 @@
       </c>
       <c r="G1784" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61190,7 +61190,7 @@
       </c>
       <c r="G1785" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61225,7 +61225,7 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61260,7 +61260,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61295,7 +61295,7 @@
       </c>
       <c r="G1788" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61330,7 +61330,7 @@
       </c>
       <c r="G1789" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61365,7 +61365,7 @@
       </c>
       <c r="G1790" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1791" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61435,7 +61435,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61470,7 +61470,7 @@
       </c>
       <c r="G1793" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61505,7 +61505,7 @@
       </c>
       <c r="G1794" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61540,7 +61540,7 @@
       </c>
       <c r="G1795" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61575,7 +61575,7 @@
       </c>
       <c r="G1796" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61645,7 +61645,7 @@
       </c>
       <c r="G1798" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61680,7 +61680,7 @@
       </c>
       <c r="G1799" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61715,7 +61715,7 @@
       </c>
       <c r="G1800" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61750,7 +61750,7 @@
       </c>
       <c r="G1801" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61785,7 +61785,7 @@
       </c>
       <c r="G1802" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61820,7 +61820,7 @@
       </c>
       <c r="G1803" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61855,7 +61855,7 @@
       </c>
       <c r="G1804" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61890,7 +61890,7 @@
       </c>
       <c r="G1805" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61925,7 +61925,7 @@
       </c>
       <c r="G1806" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61960,7 +61960,7 @@
       </c>
       <c r="G1807" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -61995,7 +61995,7 @@
       </c>
       <c r="G1808" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62030,7 +62030,7 @@
       </c>
       <c r="G1809" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62065,7 +62065,7 @@
       </c>
       <c r="G1810" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62100,7 +62100,7 @@
       </c>
       <c r="G1811" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62135,7 +62135,7 @@
       </c>
       <c r="G1812" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62170,7 +62170,7 @@
       </c>
       <c r="G1813" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62205,7 +62205,7 @@
       </c>
       <c r="G1814" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62240,7 +62240,7 @@
       </c>
       <c r="G1815" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62275,7 +62275,7 @@
       </c>
       <c r="G1816" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62310,7 +62310,7 @@
       </c>
       <c r="G1817" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62345,7 +62345,7 @@
       </c>
       <c r="G1818" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62380,7 +62380,7 @@
       </c>
       <c r="G1819" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62415,7 +62415,7 @@
       </c>
       <c r="G1820" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62450,7 +62450,7 @@
       </c>
       <c r="G1821" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62485,7 +62485,7 @@
       </c>
       <c r="G1822" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62520,7 +62520,7 @@
       </c>
       <c r="G1823" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62555,7 +62555,7 @@
       </c>
       <c r="G1824" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62590,7 +62590,7 @@
       </c>
       <c r="G1825" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62625,7 +62625,7 @@
       </c>
       <c r="G1826" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62660,7 +62660,7 @@
       </c>
       <c r="G1827" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62695,7 +62695,7 @@
       </c>
       <c r="G1828" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62730,7 +62730,7 @@
       </c>
       <c r="G1829" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62765,7 +62765,7 @@
       </c>
       <c r="G1830" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62800,7 +62800,7 @@
       </c>
       <c r="G1831" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62835,7 +62835,7 @@
       </c>
       <c r="G1832" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62870,7 +62870,7 @@
       </c>
       <c r="G1833" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62905,7 +62905,7 @@
       </c>
       <c r="G1834" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62940,7 +62940,7 @@
       </c>
       <c r="G1835" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -62975,7 +62975,7 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63010,7 +63010,7 @@
       </c>
       <c r="G1837" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63045,7 +63045,7 @@
       </c>
       <c r="G1838" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63080,7 +63080,7 @@
       </c>
       <c r="G1839" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63115,7 +63115,7 @@
       </c>
       <c r="G1840" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63150,7 +63150,7 @@
       </c>
       <c r="G1841" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63185,7 +63185,7 @@
       </c>
       <c r="G1842" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63220,7 +63220,7 @@
       </c>
       <c r="G1843" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63255,7 +63255,7 @@
       </c>
       <c r="G1844" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63290,7 +63290,7 @@
       </c>
       <c r="G1845" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63325,7 +63325,7 @@
       </c>
       <c r="G1846" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63360,7 +63360,7 @@
       </c>
       <c r="G1847" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63395,7 +63395,7 @@
       </c>
       <c r="G1848" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63430,7 +63430,7 @@
       </c>
       <c r="G1849" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63465,7 +63465,7 @@
       </c>
       <c r="G1850" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63500,7 +63500,7 @@
       </c>
       <c r="G1851" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63535,7 +63535,7 @@
       </c>
       <c r="G1852" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63570,7 +63570,7 @@
       </c>
       <c r="G1853" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63605,7 +63605,7 @@
       </c>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63640,7 +63640,7 @@
       </c>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63675,7 +63675,7 @@
       </c>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63710,7 +63710,7 @@
       </c>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63745,7 +63745,7 @@
       </c>
       <c r="G1858" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63780,7 +63780,7 @@
       </c>
       <c r="G1859" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63815,7 +63815,7 @@
       </c>
       <c r="G1860" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63850,7 +63850,7 @@
       </c>
       <c r="G1861" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63885,7 +63885,7 @@
       </c>
       <c r="G1862" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63920,7 +63920,7 @@
       </c>
       <c r="G1863" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63955,7 +63955,7 @@
       </c>
       <c r="G1864" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -63990,7 +63990,7 @@
       </c>
       <c r="G1865" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64025,7 +64025,7 @@
       </c>
       <c r="G1866" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64060,7 +64060,7 @@
       </c>
       <c r="G1867" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64095,7 +64095,7 @@
       </c>
       <c r="G1868" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64130,7 +64130,7 @@
       </c>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64165,7 +64165,7 @@
       </c>
       <c r="G1870" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64200,7 +64200,7 @@
       </c>
       <c r="G1871" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64235,7 +64235,7 @@
       </c>
       <c r="G1872" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64270,7 +64270,7 @@
       </c>
       <c r="G1873" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64305,7 +64305,7 @@
       </c>
       <c r="G1874" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64340,7 +64340,7 @@
       </c>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64375,7 +64375,7 @@
       </c>
       <c r="G1876" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64410,7 +64410,7 @@
       </c>
       <c r="G1877" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64445,7 +64445,7 @@
       </c>
       <c r="G1878" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64480,7 +64480,7 @@
       </c>
       <c r="G1879" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64515,7 +64515,7 @@
       </c>
       <c r="G1880" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64550,7 +64550,7 @@
       </c>
       <c r="G1881" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64585,7 +64585,7 @@
       </c>
       <c r="G1882" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64620,7 +64620,7 @@
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64655,7 +64655,7 @@
       </c>
       <c r="G1884" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64690,7 +64690,7 @@
       </c>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64725,7 +64725,7 @@
       </c>
       <c r="G1886" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64760,7 +64760,7 @@
       </c>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64795,7 +64795,7 @@
       </c>
       <c r="G1888" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64830,7 +64830,7 @@
       </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64865,7 +64865,7 @@
       </c>
       <c r="G1890" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64900,7 +64900,7 @@
       </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64935,7 +64935,7 @@
       </c>
       <c r="G1892" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -64970,7 +64970,7 @@
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65005,7 +65005,7 @@
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65040,7 +65040,7 @@
       </c>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65075,7 +65075,7 @@
       </c>
       <c r="G1896" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65110,7 +65110,7 @@
       </c>
       <c r="G1897" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65145,7 +65145,7 @@
       </c>
       <c r="G1898" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65180,7 +65180,7 @@
       </c>
       <c r="G1899" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65215,7 +65215,7 @@
       </c>
       <c r="G1900" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65250,7 +65250,7 @@
       </c>
       <c r="G1901" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65285,7 +65285,7 @@
       </c>
       <c r="G1902" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65320,7 +65320,7 @@
       </c>
       <c r="G1903" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65355,7 +65355,7 @@
       </c>
       <c r="G1904" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65390,7 +65390,7 @@
       </c>
       <c r="G1905" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65425,7 +65425,7 @@
       </c>
       <c r="G1906" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65460,7 +65460,7 @@
       </c>
       <c r="G1907" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65495,7 +65495,7 @@
       </c>
       <c r="G1908" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65530,7 +65530,7 @@
       </c>
       <c r="G1909" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65565,7 +65565,7 @@
       </c>
       <c r="G1910" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65600,7 +65600,7 @@
       </c>
       <c r="G1911" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65635,7 +65635,7 @@
       </c>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65670,7 +65670,7 @@
       </c>
       <c r="G1913" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65705,7 +65705,7 @@
       </c>
       <c r="G1914" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65740,7 +65740,7 @@
       </c>
       <c r="G1915" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65775,7 +65775,7 @@
       </c>
       <c r="G1916" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65810,7 +65810,7 @@
       </c>
       <c r="G1917" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65845,7 +65845,7 @@
       </c>
       <c r="G1918" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65880,7 +65880,7 @@
       </c>
       <c r="G1919" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65915,7 +65915,7 @@
       </c>
       <c r="G1920" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65950,7 +65950,7 @@
       </c>
       <c r="G1921" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -65985,7 +65985,7 @@
       </c>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66020,7 +66020,7 @@
       </c>
       <c r="G1923" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66055,7 +66055,7 @@
       </c>
       <c r="G1924" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66090,7 +66090,7 @@
       </c>
       <c r="G1925" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66125,7 +66125,7 @@
       </c>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66160,7 +66160,7 @@
       </c>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66195,7 +66195,7 @@
       </c>
       <c r="G1928" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66230,7 +66230,7 @@
       </c>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66265,7 +66265,7 @@
       </c>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66335,7 +66335,7 @@
       </c>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66370,7 +66370,7 @@
       </c>
       <c r="G1933" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66405,7 +66405,7 @@
       </c>
       <c r="G1934" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66440,7 +66440,7 @@
       </c>
       <c r="G1935" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66475,7 +66475,7 @@
       </c>
       <c r="G1936" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66510,7 +66510,7 @@
       </c>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66545,7 +66545,7 @@
       </c>
       <c r="G1938" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66580,7 +66580,7 @@
       </c>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66615,7 +66615,7 @@
       </c>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66650,7 +66650,7 @@
       </c>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66685,7 +66685,7 @@
       </c>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66720,7 +66720,7 @@
       </c>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66755,7 +66755,7 @@
       </c>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66790,7 +66790,7 @@
       </c>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66825,7 +66825,7 @@
       </c>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66860,7 +66860,7 @@
       </c>
       <c r="G1947" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66895,7 +66895,7 @@
       </c>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66930,7 +66930,7 @@
       </c>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -66965,7 +66965,7 @@
       </c>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67000,7 +67000,7 @@
       </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67035,7 +67035,7 @@
       </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67070,7 +67070,7 @@
       </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67105,7 +67105,7 @@
       </c>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67140,7 +67140,7 @@
       </c>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67175,7 +67175,7 @@
       </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67210,7 +67210,7 @@
       </c>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67245,7 +67245,7 @@
       </c>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67280,7 +67280,7 @@
       </c>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67315,7 +67315,7 @@
       </c>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67350,7 +67350,7 @@
       </c>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67385,7 +67385,7 @@
       </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67420,7 +67420,7 @@
       </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67455,7 +67455,7 @@
       </c>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67490,7 +67490,7 @@
       </c>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67525,7 +67525,7 @@
       </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67560,7 +67560,7 @@
       </c>
       <c r="G1967" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67595,7 +67595,7 @@
       </c>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67630,7 +67630,7 @@
       </c>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67665,7 +67665,7 @@
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67700,7 +67700,7 @@
       </c>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67735,7 +67735,7 @@
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67770,7 +67770,7 @@
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67805,7 +67805,7 @@
       </c>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67840,7 +67840,7 @@
       </c>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67875,7 +67875,7 @@
       </c>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67910,7 +67910,7 @@
       </c>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67945,7 +67945,7 @@
       </c>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -67980,7 +67980,7 @@
       </c>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68015,7 +68015,7 @@
       </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68050,7 +68050,7 @@
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68085,7 +68085,7 @@
       </c>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68120,7 +68120,7 @@
       </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68155,7 +68155,7 @@
       </c>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68190,7 +68190,7 @@
       </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68225,7 +68225,7 @@
       </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68260,7 +68260,7 @@
       </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68295,7 +68295,7 @@
       </c>
       <c r="G1988" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68330,7 +68330,7 @@
       </c>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68365,7 +68365,7 @@
       </c>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68400,7 +68400,7 @@
       </c>
       <c r="G1991" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68435,7 +68435,7 @@
       </c>
       <c r="G1992" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68470,7 +68470,7 @@
       </c>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68505,7 +68505,7 @@
       </c>
       <c r="G1994" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68540,7 +68540,7 @@
       </c>
       <c r="G1995" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68575,7 +68575,7 @@
       </c>
       <c r="G1996" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68610,7 +68610,7 @@
       </c>
       <c r="G1997" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68645,7 +68645,7 @@
       </c>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68680,7 +68680,7 @@
       </c>
       <c r="G1999" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68715,7 +68715,7 @@
       </c>
       <c r="G2000" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68750,7 +68750,7 @@
       </c>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68785,7 +68785,7 @@
       </c>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68855,7 +68855,7 @@
       </c>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68890,7 +68890,7 @@
       </c>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68925,7 +68925,7 @@
       </c>
       <c r="G2006" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68960,7 +68960,7 @@
       </c>
       <c r="G2007" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -68995,7 +68995,7 @@
       </c>
       <c r="G2008" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -69030,7 +69030,7 @@
       </c>
       <c r="G2009" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>
@@ -69065,7 +69065,7 @@
       </c>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:57</t>
         </is>
       </c>
     </row>

--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -57025,7 +57025,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57060,7 +57060,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57095,7 +57095,7 @@
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57130,7 +57130,7 @@
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57165,7 +57165,7 @@
       </c>
       <c r="G1670" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57200,7 +57200,7 @@
       </c>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57235,7 +57235,7 @@
       </c>
       <c r="G1672" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57270,7 +57270,7 @@
       </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57305,7 +57305,7 @@
       </c>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57340,7 +57340,7 @@
       </c>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57375,7 +57375,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57410,7 +57410,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57445,7 +57445,7 @@
       </c>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57480,7 +57480,7 @@
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57515,7 +57515,7 @@
       </c>
       <c r="G1680" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57550,7 +57550,7 @@
       </c>
       <c r="G1681" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57585,7 +57585,7 @@
       </c>
       <c r="G1682" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57620,7 +57620,7 @@
       </c>
       <c r="G1683" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57655,7 +57655,7 @@
       </c>
       <c r="G1684" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57690,7 +57690,7 @@
       </c>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57725,7 +57725,7 @@
       </c>
       <c r="G1686" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57760,7 +57760,7 @@
       </c>
       <c r="G1687" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57795,7 +57795,7 @@
       </c>
       <c r="G1688" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57830,7 +57830,7 @@
       </c>
       <c r="G1689" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57865,7 +57865,7 @@
       </c>
       <c r="G1690" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57900,7 +57900,7 @@
       </c>
       <c r="G1691" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57935,7 +57935,7 @@
       </c>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -57970,7 +57970,7 @@
       </c>
       <c r="G1693" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58005,7 +58005,7 @@
       </c>
       <c r="G1694" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58040,7 +58040,7 @@
       </c>
       <c r="G1695" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58075,7 +58075,7 @@
       </c>
       <c r="G1696" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58110,7 +58110,7 @@
       </c>
       <c r="G1697" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58145,7 +58145,7 @@
       </c>
       <c r="G1698" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58180,7 +58180,7 @@
       </c>
       <c r="G1699" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58215,7 +58215,7 @@
       </c>
       <c r="G1700" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58250,7 +58250,7 @@
       </c>
       <c r="G1701" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58285,7 +58285,7 @@
       </c>
       <c r="G1702" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58320,7 +58320,7 @@
       </c>
       <c r="G1703" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58355,7 +58355,7 @@
       </c>
       <c r="G1704" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58390,7 +58390,7 @@
       </c>
       <c r="G1705" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58425,7 +58425,7 @@
       </c>
       <c r="G1706" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58460,7 +58460,7 @@
       </c>
       <c r="G1707" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58495,7 +58495,7 @@
       </c>
       <c r="G1708" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58530,7 +58530,7 @@
       </c>
       <c r="G1709" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58565,7 +58565,7 @@
       </c>
       <c r="G1710" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58600,7 +58600,7 @@
       </c>
       <c r="G1711" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58635,7 +58635,7 @@
       </c>
       <c r="G1712" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58670,7 +58670,7 @@
       </c>
       <c r="G1713" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58705,7 +58705,7 @@
       </c>
       <c r="G1714" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58740,7 +58740,7 @@
       </c>
       <c r="G1715" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58775,7 +58775,7 @@
       </c>
       <c r="G1716" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58810,7 +58810,7 @@
       </c>
       <c r="G1717" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58845,7 +58845,7 @@
       </c>
       <c r="G1718" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58880,7 +58880,7 @@
       </c>
       <c r="G1719" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58915,7 +58915,7 @@
       </c>
       <c r="G1720" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58950,7 +58950,7 @@
       </c>
       <c r="G1721" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -58985,7 +58985,7 @@
       </c>
       <c r="G1722" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59020,7 +59020,7 @@
       </c>
       <c r="G1723" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59055,7 +59055,7 @@
       </c>
       <c r="G1724" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59090,7 +59090,7 @@
       </c>
       <c r="G1725" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59125,7 +59125,7 @@
       </c>
       <c r="G1726" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59160,7 +59160,7 @@
       </c>
       <c r="G1727" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59195,7 +59195,7 @@
       </c>
       <c r="G1728" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59230,7 +59230,7 @@
       </c>
       <c r="G1729" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59265,7 +59265,7 @@
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59300,7 +59300,7 @@
       </c>
       <c r="G1731" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59335,7 +59335,7 @@
       </c>
       <c r="G1732" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59370,7 +59370,7 @@
       </c>
       <c r="G1733" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59405,7 +59405,7 @@
       </c>
       <c r="G1734" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59440,7 +59440,7 @@
       </c>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59475,7 +59475,7 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59510,7 +59510,7 @@
       </c>
       <c r="G1737" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59545,7 +59545,7 @@
       </c>
       <c r="G1738" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59580,7 +59580,7 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59615,7 +59615,7 @@
       </c>
       <c r="G1740" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59650,7 +59650,7 @@
       </c>
       <c r="G1741" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59685,7 +59685,7 @@
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59720,7 +59720,7 @@
       </c>
       <c r="G1743" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59755,7 +59755,7 @@
       </c>
       <c r="G1744" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59790,7 +59790,7 @@
       </c>
       <c r="G1745" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59825,7 +59825,7 @@
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59860,7 +59860,7 @@
       </c>
       <c r="G1747" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59895,7 +59895,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59930,7 +59930,7 @@
       </c>
       <c r="G1749" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -59965,7 +59965,7 @@
       </c>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60000,7 +60000,7 @@
       </c>
       <c r="G1751" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60035,7 +60035,7 @@
       </c>
       <c r="G1752" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60070,7 +60070,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60105,7 +60105,7 @@
       </c>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60140,7 +60140,7 @@
       </c>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60175,7 +60175,7 @@
       </c>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60210,7 +60210,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60245,7 +60245,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60280,7 +60280,7 @@
       </c>
       <c r="G1759" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60315,7 +60315,7 @@
       </c>
       <c r="G1760" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60340,7 +60340,7 @@
       </c>
       <c r="E1761" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1761" t="inlineStr">
@@ -60350,7 +60350,7 @@
       </c>
       <c r="G1761" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60375,7 +60375,7 @@
       </c>
       <c r="E1762" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1762" t="inlineStr">
@@ -60385,7 +60385,7 @@
       </c>
       <c r="G1762" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60410,7 +60410,7 @@
       </c>
       <c r="E1763" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1763" t="inlineStr">
@@ -60420,7 +60420,7 @@
       </c>
       <c r="G1763" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60445,7 +60445,7 @@
       </c>
       <c r="E1764" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1764" t="inlineStr">
@@ -60455,7 +60455,7 @@
       </c>
       <c r="G1764" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60480,7 +60480,7 @@
       </c>
       <c r="E1765" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1765" t="inlineStr">
@@ -60490,7 +60490,7 @@
       </c>
       <c r="G1765" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60515,7 +60515,7 @@
       </c>
       <c r="E1766" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1766" t="inlineStr">
@@ -60525,7 +60525,7 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60550,7 +60550,7 @@
       </c>
       <c r="E1767" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1767" t="inlineStr">
@@ -60560,7 +60560,7 @@
       </c>
       <c r="G1767" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60585,7 +60585,7 @@
       </c>
       <c r="E1768" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1768" t="inlineStr">
@@ -60595,7 +60595,7 @@
       </c>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60620,7 +60620,7 @@
       </c>
       <c r="E1769" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1769" t="inlineStr">
@@ -60630,7 +60630,7 @@
       </c>
       <c r="G1769" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60655,7 +60655,7 @@
       </c>
       <c r="E1770" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1770" t="inlineStr">
@@ -60665,7 +60665,7 @@
       </c>
       <c r="G1770" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60690,7 +60690,7 @@
       </c>
       <c r="E1771" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1771" t="inlineStr">
@@ -60700,7 +60700,7 @@
       </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60725,7 +60725,7 @@
       </c>
       <c r="E1772" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1772" t="inlineStr">
@@ -60735,7 +60735,7 @@
       </c>
       <c r="G1772" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60760,7 +60760,7 @@
       </c>
       <c r="E1773" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1773" t="inlineStr">
@@ -60770,7 +60770,7 @@
       </c>
       <c r="G1773" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60795,7 +60795,7 @@
       </c>
       <c r="E1774" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1774" t="inlineStr">
@@ -60805,7 +60805,7 @@
       </c>
       <c r="G1774" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60840,7 +60840,7 @@
       </c>
       <c r="G1775" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60865,7 +60865,7 @@
       </c>
       <c r="E1776" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1776" t="inlineStr">
@@ -60875,7 +60875,7 @@
       </c>
       <c r="G1776" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="E1777" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1777" t="inlineStr">
@@ -60910,7 +60910,7 @@
       </c>
       <c r="G1777" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60935,7 +60935,7 @@
       </c>
       <c r="E1778" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1778" t="inlineStr">
@@ -60945,7 +60945,7 @@
       </c>
       <c r="G1778" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -60970,7 +60970,7 @@
       </c>
       <c r="E1779" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1779" t="inlineStr">
@@ -60980,7 +60980,7 @@
       </c>
       <c r="G1779" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61005,7 +61005,7 @@
       </c>
       <c r="E1780" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1780" t="inlineStr">
@@ -61015,7 +61015,7 @@
       </c>
       <c r="G1780" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61040,7 +61040,7 @@
       </c>
       <c r="E1781" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1781" t="inlineStr">
@@ -61050,7 +61050,7 @@
       </c>
       <c r="G1781" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61075,7 +61075,7 @@
       </c>
       <c r="E1782" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1782" t="inlineStr">
@@ -61085,7 +61085,7 @@
       </c>
       <c r="G1782" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61110,7 +61110,7 @@
       </c>
       <c r="E1783" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1783" t="inlineStr">
@@ -61120,7 +61120,7 @@
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61145,7 +61145,7 @@
       </c>
       <c r="E1784" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1784" t="inlineStr">
@@ -61155,7 +61155,7 @@
       </c>
       <c r="G1784" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61180,7 +61180,7 @@
       </c>
       <c r="E1785" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1785" t="inlineStr">
@@ -61190,7 +61190,7 @@
       </c>
       <c r="G1785" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61215,7 +61215,7 @@
       </c>
       <c r="E1786" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1786" t="inlineStr">
@@ -61225,7 +61225,7 @@
       </c>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61250,7 +61250,7 @@
       </c>
       <c r="E1787" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1787" t="inlineStr">
@@ -61260,7 +61260,7 @@
       </c>
       <c r="G1787" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61295,7 +61295,7 @@
       </c>
       <c r="G1788" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61330,7 +61330,7 @@
       </c>
       <c r="G1789" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61365,7 +61365,7 @@
       </c>
       <c r="G1790" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1791" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61435,7 +61435,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61470,7 +61470,7 @@
       </c>
       <c r="G1793" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61505,7 +61505,7 @@
       </c>
       <c r="G1794" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61540,7 +61540,7 @@
       </c>
       <c r="G1795" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61575,7 +61575,7 @@
       </c>
       <c r="G1796" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61645,7 +61645,7 @@
       </c>
       <c r="G1798" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61680,7 +61680,7 @@
       </c>
       <c r="G1799" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61715,7 +61715,7 @@
       </c>
       <c r="G1800" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61750,7 +61750,7 @@
       </c>
       <c r="G1801" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61785,7 +61785,7 @@
       </c>
       <c r="G1802" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61820,7 +61820,7 @@
       </c>
       <c r="G1803" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61855,7 +61855,7 @@
       </c>
       <c r="G1804" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61890,7 +61890,7 @@
       </c>
       <c r="G1805" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61925,7 +61925,7 @@
       </c>
       <c r="G1806" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61960,7 +61960,7 @@
       </c>
       <c r="G1807" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -61995,7 +61995,7 @@
       </c>
       <c r="G1808" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62030,7 +62030,7 @@
       </c>
       <c r="G1809" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62055,7 +62055,7 @@
       </c>
       <c r="E1810" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1810" t="inlineStr">
@@ -62065,7 +62065,7 @@
       </c>
       <c r="G1810" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62090,7 +62090,7 @@
       </c>
       <c r="E1811" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1811" t="inlineStr">
@@ -62100,7 +62100,7 @@
       </c>
       <c r="G1811" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62125,7 +62125,7 @@
       </c>
       <c r="E1812" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1812" t="inlineStr">
@@ -62135,7 +62135,7 @@
       </c>
       <c r="G1812" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62160,7 +62160,7 @@
       </c>
       <c r="E1813" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1813" t="inlineStr">
@@ -62170,7 +62170,7 @@
       </c>
       <c r="G1813" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62195,7 +62195,7 @@
       </c>
       <c r="E1814" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1814" t="inlineStr">
@@ -62205,7 +62205,7 @@
       </c>
       <c r="G1814" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62230,7 +62230,7 @@
       </c>
       <c r="E1815" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1815" t="inlineStr">
@@ -62240,7 +62240,7 @@
       </c>
       <c r="G1815" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62265,7 +62265,7 @@
       </c>
       <c r="E1816" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1816" t="inlineStr">
@@ -62275,7 +62275,7 @@
       </c>
       <c r="G1816" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62310,7 +62310,7 @@
       </c>
       <c r="G1817" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62335,7 +62335,7 @@
       </c>
       <c r="E1818" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1818" t="inlineStr">
@@ -62345,7 +62345,7 @@
       </c>
       <c r="G1818" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62370,7 +62370,7 @@
       </c>
       <c r="E1819" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1819" t="inlineStr">
@@ -62380,7 +62380,7 @@
       </c>
       <c r="G1819" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62405,7 +62405,7 @@
       </c>
       <c r="E1820" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1820" t="inlineStr">
@@ -62415,7 +62415,7 @@
       </c>
       <c r="G1820" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62440,7 +62440,7 @@
       </c>
       <c r="E1821" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1821" t="inlineStr">
@@ -62450,7 +62450,7 @@
       </c>
       <c r="G1821" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62475,7 +62475,7 @@
       </c>
       <c r="E1822" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1822" t="inlineStr">
@@ -62485,7 +62485,7 @@
       </c>
       <c r="G1822" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62510,7 +62510,7 @@
       </c>
       <c r="E1823" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1823" t="inlineStr">
@@ -62520,7 +62520,7 @@
       </c>
       <c r="G1823" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62545,7 +62545,7 @@
       </c>
       <c r="E1824" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1824" t="inlineStr">
@@ -62555,7 +62555,7 @@
       </c>
       <c r="G1824" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62580,7 +62580,7 @@
       </c>
       <c r="E1825" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1825" t="inlineStr">
@@ -62590,7 +62590,7 @@
       </c>
       <c r="G1825" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62615,7 +62615,7 @@
       </c>
       <c r="E1826" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1826" t="inlineStr">
@@ -62625,7 +62625,7 @@
       </c>
       <c r="G1826" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62650,7 +62650,7 @@
       </c>
       <c r="E1827" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1827" t="inlineStr">
@@ -62660,7 +62660,7 @@
       </c>
       <c r="G1827" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62685,7 +62685,7 @@
       </c>
       <c r="E1828" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1828" t="inlineStr">
@@ -62695,7 +62695,7 @@
       </c>
       <c r="G1828" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62720,7 +62720,7 @@
       </c>
       <c r="E1829" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1829" t="inlineStr">
@@ -62730,7 +62730,7 @@
       </c>
       <c r="G1829" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62755,7 +62755,7 @@
       </c>
       <c r="E1830" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1830" t="inlineStr">
@@ -62765,7 +62765,7 @@
       </c>
       <c r="G1830" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62790,7 +62790,7 @@
       </c>
       <c r="E1831" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1831" t="inlineStr">
@@ -62800,7 +62800,7 @@
       </c>
       <c r="G1831" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62825,7 +62825,7 @@
       </c>
       <c r="E1832" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1832" t="inlineStr">
@@ -62835,7 +62835,7 @@
       </c>
       <c r="G1832" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62860,7 +62860,7 @@
       </c>
       <c r="E1833" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1833" t="inlineStr">
@@ -62870,7 +62870,7 @@
       </c>
       <c r="G1833" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62895,7 +62895,7 @@
       </c>
       <c r="E1834" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1834" t="inlineStr">
@@ -62905,7 +62905,7 @@
       </c>
       <c r="G1834" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62930,7 +62930,7 @@
       </c>
       <c r="E1835" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1835" t="inlineStr">
@@ -62940,7 +62940,7 @@
       </c>
       <c r="G1835" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -62965,7 +62965,7 @@
       </c>
       <c r="E1836" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1836" t="inlineStr">
@@ -62975,7 +62975,7 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63000,7 +63000,7 @@
       </c>
       <c r="E1837" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1837" t="inlineStr">
@@ -63010,7 +63010,7 @@
       </c>
       <c r="G1837" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63035,7 +63035,7 @@
       </c>
       <c r="E1838" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1838" t="inlineStr">
@@ -63045,7 +63045,7 @@
       </c>
       <c r="G1838" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63070,7 +63070,7 @@
       </c>
       <c r="E1839" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1839" t="inlineStr">
@@ -63080,7 +63080,7 @@
       </c>
       <c r="G1839" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63115,7 +63115,7 @@
       </c>
       <c r="G1840" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63140,7 +63140,7 @@
       </c>
       <c r="E1841" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1841" t="inlineStr">
@@ -63150,7 +63150,7 @@
       </c>
       <c r="G1841" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63175,7 +63175,7 @@
       </c>
       <c r="E1842" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1842" t="inlineStr">
@@ -63185,7 +63185,7 @@
       </c>
       <c r="G1842" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63210,7 +63210,7 @@
       </c>
       <c r="E1843" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1843" t="inlineStr">
@@ -63220,7 +63220,7 @@
       </c>
       <c r="G1843" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63245,7 +63245,7 @@
       </c>
       <c r="E1844" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1844" t="inlineStr">
@@ -63255,7 +63255,7 @@
       </c>
       <c r="G1844" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63280,7 +63280,7 @@
       </c>
       <c r="E1845" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1845" t="inlineStr">
@@ -63290,7 +63290,7 @@
       </c>
       <c r="G1845" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63315,7 +63315,7 @@
       </c>
       <c r="E1846" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1846" t="inlineStr">
@@ -63325,7 +63325,7 @@
       </c>
       <c r="G1846" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63350,7 +63350,7 @@
       </c>
       <c r="E1847" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1847" t="inlineStr">
@@ -63360,7 +63360,7 @@
       </c>
       <c r="G1847" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63385,7 +63385,7 @@
       </c>
       <c r="E1848" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1848" t="inlineStr">
@@ -63395,7 +63395,7 @@
       </c>
       <c r="G1848" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63420,7 +63420,7 @@
       </c>
       <c r="E1849" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1849" t="inlineStr">
@@ -63430,7 +63430,7 @@
       </c>
       <c r="G1849" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63455,7 +63455,7 @@
       </c>
       <c r="E1850" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1850" t="inlineStr">
@@ -63465,7 +63465,7 @@
       </c>
       <c r="G1850" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63490,7 +63490,7 @@
       </c>
       <c r="E1851" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1851" t="inlineStr">
@@ -63500,7 +63500,7 @@
       </c>
       <c r="G1851" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63525,7 +63525,7 @@
       </c>
       <c r="E1852" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1852" t="inlineStr">
@@ -63535,7 +63535,7 @@
       </c>
       <c r="G1852" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63560,7 +63560,7 @@
       </c>
       <c r="E1853" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1853" t="inlineStr">
@@ -63570,7 +63570,7 @@
       </c>
       <c r="G1853" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63595,7 +63595,7 @@
       </c>
       <c r="E1854" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1854" t="inlineStr">
@@ -63605,7 +63605,7 @@
       </c>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63630,7 +63630,7 @@
       </c>
       <c r="E1855" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1855" t="inlineStr">
@@ -63640,7 +63640,7 @@
       </c>
       <c r="G1855" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63665,7 +63665,7 @@
       </c>
       <c r="E1856" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1856" t="inlineStr">
@@ -63675,7 +63675,7 @@
       </c>
       <c r="G1856" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63700,7 +63700,7 @@
       </c>
       <c r="E1857" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1857" t="inlineStr">
@@ -63710,7 +63710,7 @@
       </c>
       <c r="G1857" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63735,7 +63735,7 @@
       </c>
       <c r="E1858" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1858" t="inlineStr">
@@ -63745,7 +63745,7 @@
       </c>
       <c r="G1858" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63770,7 +63770,7 @@
       </c>
       <c r="E1859" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1859" t="inlineStr">
@@ -63780,7 +63780,7 @@
       </c>
       <c r="G1859" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63805,7 +63805,7 @@
       </c>
       <c r="E1860" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1860" t="inlineStr">
@@ -63815,7 +63815,7 @@
       </c>
       <c r="G1860" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63840,7 +63840,7 @@
       </c>
       <c r="E1861" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1861" t="inlineStr">
@@ -63850,7 +63850,7 @@
       </c>
       <c r="G1861" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63875,7 +63875,7 @@
       </c>
       <c r="E1862" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1862" t="inlineStr">
@@ -63885,7 +63885,7 @@
       </c>
       <c r="G1862" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63910,7 +63910,7 @@
       </c>
       <c r="E1863" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1863" t="inlineStr">
@@ -63920,7 +63920,7 @@
       </c>
       <c r="G1863" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63945,7 +63945,7 @@
       </c>
       <c r="E1864" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1864" t="inlineStr">
@@ -63955,7 +63955,7 @@
       </c>
       <c r="G1864" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -63980,7 +63980,7 @@
       </c>
       <c r="E1865" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1865" t="inlineStr">
@@ -63990,7 +63990,7 @@
       </c>
       <c r="G1865" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64025,7 +64025,7 @@
       </c>
       <c r="G1866" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64060,7 +64060,7 @@
       </c>
       <c r="G1867" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64095,7 +64095,7 @@
       </c>
       <c r="G1868" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64130,7 +64130,7 @@
       </c>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64165,7 +64165,7 @@
       </c>
       <c r="G1870" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64200,7 +64200,7 @@
       </c>
       <c r="G1871" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64235,7 +64235,7 @@
       </c>
       <c r="G1872" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64270,7 +64270,7 @@
       </c>
       <c r="G1873" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64305,7 +64305,7 @@
       </c>
       <c r="G1874" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64340,7 +64340,7 @@
       </c>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64375,7 +64375,7 @@
       </c>
       <c r="G1876" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64410,7 +64410,7 @@
       </c>
       <c r="G1877" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64445,7 +64445,7 @@
       </c>
       <c r="G1878" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64480,7 +64480,7 @@
       </c>
       <c r="G1879" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64515,7 +64515,7 @@
       </c>
       <c r="G1880" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64550,7 +64550,7 @@
       </c>
       <c r="G1881" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64585,7 +64585,7 @@
       </c>
       <c r="G1882" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64620,7 +64620,7 @@
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64655,7 +64655,7 @@
       </c>
       <c r="G1884" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64690,7 +64690,7 @@
       </c>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64725,7 +64725,7 @@
       </c>
       <c r="G1886" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64760,7 +64760,7 @@
       </c>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64795,7 +64795,7 @@
       </c>
       <c r="G1888" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64830,7 +64830,7 @@
       </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64865,7 +64865,7 @@
       </c>
       <c r="G1890" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64900,7 +64900,7 @@
       </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64935,7 +64935,7 @@
       </c>
       <c r="G1892" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -64970,7 +64970,7 @@
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65005,7 +65005,7 @@
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65040,7 +65040,7 @@
       </c>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65075,7 +65075,7 @@
       </c>
       <c r="G1896" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65110,7 +65110,7 @@
       </c>
       <c r="G1897" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65145,7 +65145,7 @@
       </c>
       <c r="G1898" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65180,7 +65180,7 @@
       </c>
       <c r="G1899" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65215,7 +65215,7 @@
       </c>
       <c r="G1900" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65250,7 +65250,7 @@
       </c>
       <c r="G1901" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65285,7 +65285,7 @@
       </c>
       <c r="G1902" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65320,7 +65320,7 @@
       </c>
       <c r="G1903" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65355,7 +65355,7 @@
       </c>
       <c r="G1904" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65390,7 +65390,7 @@
       </c>
       <c r="G1905" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65425,7 +65425,7 @@
       </c>
       <c r="G1906" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65460,7 +65460,7 @@
       </c>
       <c r="G1907" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65495,7 +65495,7 @@
       </c>
       <c r="G1908" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65530,7 +65530,7 @@
       </c>
       <c r="G1909" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65565,7 +65565,7 @@
       </c>
       <c r="G1910" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65600,7 +65600,7 @@
       </c>
       <c r="G1911" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65635,7 +65635,7 @@
       </c>
       <c r="G1912" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65670,7 +65670,7 @@
       </c>
       <c r="G1913" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65705,7 +65705,7 @@
       </c>
       <c r="G1914" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65740,7 +65740,7 @@
       </c>
       <c r="G1915" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65775,7 +65775,7 @@
       </c>
       <c r="G1916" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65810,7 +65810,7 @@
       </c>
       <c r="G1917" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65845,7 +65845,7 @@
       </c>
       <c r="G1918" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65880,7 +65880,7 @@
       </c>
       <c r="G1919" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65915,7 +65915,7 @@
       </c>
       <c r="G1920" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65950,7 +65950,7 @@
       </c>
       <c r="G1921" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -65985,7 +65985,7 @@
       </c>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66020,7 +66020,7 @@
       </c>
       <c r="G1923" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66055,7 +66055,7 @@
       </c>
       <c r="G1924" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66090,7 +66090,7 @@
       </c>
       <c r="G1925" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66125,7 +66125,7 @@
       </c>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66160,7 +66160,7 @@
       </c>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66195,7 +66195,7 @@
       </c>
       <c r="G1928" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66230,7 +66230,7 @@
       </c>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66265,7 +66265,7 @@
       </c>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66335,7 +66335,7 @@
       </c>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66370,7 +66370,7 @@
       </c>
       <c r="G1933" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66405,7 +66405,7 @@
       </c>
       <c r="G1934" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66440,7 +66440,7 @@
       </c>
       <c r="G1935" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66475,7 +66475,7 @@
       </c>
       <c r="G1936" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66510,7 +66510,7 @@
       </c>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66545,7 +66545,7 @@
       </c>
       <c r="G1938" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66580,7 +66580,7 @@
       </c>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66615,7 +66615,7 @@
       </c>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66650,7 +66650,7 @@
       </c>
       <c r="G1941" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66685,7 +66685,7 @@
       </c>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66720,7 +66720,7 @@
       </c>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66755,7 +66755,7 @@
       </c>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66790,7 +66790,7 @@
       </c>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66825,7 +66825,7 @@
       </c>
       <c r="G1946" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66860,7 +66860,7 @@
       </c>
       <c r="G1947" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66895,7 +66895,7 @@
       </c>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66930,7 +66930,7 @@
       </c>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -66965,7 +66965,7 @@
       </c>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67000,7 +67000,7 @@
       </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67035,7 +67035,7 @@
       </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67070,7 +67070,7 @@
       </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67105,7 +67105,7 @@
       </c>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67140,7 +67140,7 @@
       </c>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67175,7 +67175,7 @@
       </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67210,7 +67210,7 @@
       </c>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67245,7 +67245,7 @@
       </c>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67280,7 +67280,7 @@
       </c>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67315,7 +67315,7 @@
       </c>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67350,7 +67350,7 @@
       </c>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67385,7 +67385,7 @@
       </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67420,7 +67420,7 @@
       </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67455,7 +67455,7 @@
       </c>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67490,7 +67490,7 @@
       </c>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67525,7 +67525,7 @@
       </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67560,7 +67560,7 @@
       </c>
       <c r="G1967" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67595,7 +67595,7 @@
       </c>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67630,7 +67630,7 @@
       </c>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67665,7 +67665,7 @@
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67700,7 +67700,7 @@
       </c>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67735,7 +67735,7 @@
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67770,7 +67770,7 @@
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67805,7 +67805,7 @@
       </c>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67840,7 +67840,7 @@
       </c>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67865,7 +67865,7 @@
       </c>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr">
@@ -67875,7 +67875,7 @@
       </c>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67900,7 +67900,7 @@
       </c>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr">
@@ -67910,7 +67910,7 @@
       </c>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67935,7 +67935,7 @@
       </c>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr">
@@ -67945,7 +67945,7 @@
       </c>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -67970,7 +67970,7 @@
       </c>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr">
@@ -67980,7 +67980,7 @@
       </c>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68005,7 +68005,7 @@
       </c>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr">
@@ -68015,7 +68015,7 @@
       </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68050,7 +68050,7 @@
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68085,7 +68085,7 @@
       </c>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68120,7 +68120,7 @@
       </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68155,7 +68155,7 @@
       </c>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68190,7 +68190,7 @@
       </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68225,7 +68225,7 @@
       </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68260,7 +68260,7 @@
       </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68295,7 +68295,7 @@
       </c>
       <c r="G1988" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68330,7 +68330,7 @@
       </c>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68365,7 +68365,7 @@
       </c>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68400,7 +68400,7 @@
       </c>
       <c r="G1991" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68435,7 +68435,7 @@
       </c>
       <c r="G1992" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68470,7 +68470,7 @@
       </c>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68505,7 +68505,7 @@
       </c>
       <c r="G1994" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68540,7 +68540,7 @@
       </c>
       <c r="G1995" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68575,7 +68575,7 @@
       </c>
       <c r="G1996" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68610,7 +68610,7 @@
       </c>
       <c r="G1997" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68645,7 +68645,7 @@
       </c>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68680,7 +68680,7 @@
       </c>
       <c r="G1999" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68715,7 +68715,7 @@
       </c>
       <c r="G2000" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68750,7 +68750,7 @@
       </c>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68785,7 +68785,7 @@
       </c>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68855,7 +68855,7 @@
       </c>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68890,7 +68890,7 @@
       </c>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68925,7 +68925,7 @@
       </c>
       <c r="G2006" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68960,7 +68960,7 @@
       </c>
       <c r="G2007" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -68985,7 +68985,7 @@
       </c>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr">
@@ -68995,7 +68995,7 @@
       </c>
       <c r="G2008" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -69020,7 +69020,7 @@
       </c>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr">
@@ -69030,7 +69030,7 @@
       </c>
       <c r="G2009" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -69055,7 +69055,7 @@
       </c>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>Migros(Ana-Normal)</t>
+          <t>Migros(Ana-Normal-Div)</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr">
@@ -69065,7 +69065,7 @@
       </c>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
